--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1918,9 +1918,65 @@
         <v>2025-12-08T11:48:04.846Z</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>paratey_vk@ongc.co.in</v>
+      </c>
+      <c r="B108" t="str">
+        <v>2025-12-08T14:41:56.941Z</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>bodapati_venkata@ongc.co.in</v>
+      </c>
+      <c r="B109" t="str">
+        <v>2025-12-08T14:41:56.941Z</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>pandey_abhinav@ongc.co.in</v>
+      </c>
+      <c r="B110" t="str">
+        <v>2025-12-08T14:50:33.145Z</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>bordoloi_pranjal@ongc.co.in</v>
+      </c>
+      <c r="B111" t="str">
+        <v>2025-12-08T14:57:13.641Z</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D107"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D111"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2651,7 +2707,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D362"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7730,9 +7786,79 @@
         <v>2025-12-08T11:48:04.846Z</v>
       </c>
     </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>mayank_dotania@indianoil.in</v>
+      </c>
+      <c r="B363" t="str">
+        <v>2025-12-08T15:00:23.816Z</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>parul@indianoil.in</v>
+      </c>
+      <c r="B364" t="str">
+        <v>2025-12-08T15:00:29.665Z</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>guptapk3@indianoil.in</v>
+      </c>
+      <c r="B365" t="str">
+        <v>2025-12-08T15:00:50.793Z</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>sanjaykumar2@indianoil.in</v>
+      </c>
+      <c r="B366" t="str">
+        <v>2025-12-08T15:00:50.793Z</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>gargs5@indianoil.in</v>
+      </c>
+      <c r="B367" t="str">
+        <v>2025-12-08T15:01:15.266Z</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D362"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D367"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9837,7 +9963,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11794,16 +11920,30 @@
         <v>2025-12-08T11:48:04.846Z</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>atulkbhongle@mrpl.co.in</v>
+      </c>
+      <c r="B140" t="str">
+        <v>2025-12-08T14:55:55.623Z</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D139"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D140"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D311"/>
+  <dimension ref="A1:D317"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16168,16 +16308,100 @@
         <v>2025-12-08T11:48:04.846Z</v>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>alokkumargupta@bharatpetroleum.in</v>
+      </c>
+      <c r="B312" t="str">
+        <v>2025-12-08T14:58:34.705Z</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>adityakumar001@bharatpetroleum.in</v>
+      </c>
+      <c r="B313" t="str">
+        <v>2025-12-08T15:00:25.426Z</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>praweenkumar@bharatpetroleum.in</v>
+      </c>
+      <c r="B314" t="str">
+        <v>2025-12-08T15:01:29.938Z</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>shivammishra@bharatpetroleum.in</v>
+      </c>
+      <c r="B315" t="str">
+        <v>2025-12-08T15:01:29.938Z</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>avisharma@bharatpetroleum.in</v>
+      </c>
+      <c r="B316" t="str">
+        <v>2025-12-08T15:01:29.938Z</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>vivekkayande@bharatpetroleum.in</v>
+      </c>
+      <c r="B317" t="str">
+        <v>2025-12-08T15:01:29.938Z</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D311"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D317"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17112,16 +17336,58 @@
         <v>2025-12-08T11:48:04.846Z</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>ajaysingh@gail.co.in</v>
+      </c>
+      <c r="B67" t="str">
+        <v>2025-12-08T14:50:40.321Z</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>cimg@gail.co.in</v>
+      </c>
+      <c r="B68" t="str">
+        <v>2025-12-08T14:50:40.321Z</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>sptadavi@gail.co.in</v>
+      </c>
+      <c r="B69" t="str">
+        <v>2025-12-08T14:57:15.651Z</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D66"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D69"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D317"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21514,9 +21780,65 @@
         <v>2025-12-08T11:48:04.846Z</v>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>pennamvgsantosh@hpcl.in</v>
+      </c>
+      <c r="B314" t="str">
+        <v>2025-12-08T14:50:33.606Z</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>ujwala.patil@hpcl.in</v>
+      </c>
+      <c r="B315" t="str">
+        <v>2025-12-08T14:54:18.543Z</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>dsvinnakota@hpcl.in</v>
+      </c>
+      <c r="B316" t="str">
+        <v>2025-12-08T14:55:13.170Z</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>pata.lpgpic@hpcl.in</v>
+      </c>
+      <c r="B317" t="str">
+        <v>2025-12-08T15:00:09.243Z</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317" t="str">
+        <v>2025-12-08T15:01:53.952Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D313"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D317"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -17387,7 +17387,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D317"/>
+  <dimension ref="A1:D318"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21836,9 +21836,23 @@
         <v>2025-12-08T15:01:53.952Z</v>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>bogivbhaskar@hpcl.in</v>
+      </c>
+      <c r="B318" t="str">
+        <v>2025-12-08T20:55:37.488Z</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318" t="str">
+        <v>2025-12-08T20:55:45.025Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D317"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D318"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2016,9 +2016,37 @@
         <v>2025-12-09T07:13:20.706Z</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>ammanna_chirukuri@ongc.co.in</v>
+      </c>
+      <c r="B115" t="str">
+        <v>2025-12-09T12:14:41.938Z</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>arasavelli_praveen@ongc.co.in</v>
+      </c>
+      <c r="B116" t="str">
+        <v>2025-12-09T12:23:56.600Z</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D114"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D116"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2749,7 +2777,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D374"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7996,9 +8024,261 @@
         <v>2025-12-09T07:13:20.706Z</v>
       </c>
     </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>arvindk2@indianoil.in</v>
+      </c>
+      <c r="B375" t="str">
+        <v>2025-12-09T12:14:41.900Z</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>rastogis2@indianoil.in</v>
+      </c>
+      <c r="B376" t="str">
+        <v>2025-12-09T12:14:41.900Z</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>hthangzamuan@indianoil.in</v>
+      </c>
+      <c r="B377" t="str">
+        <v>2025-12-09T12:20:45.978Z</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>pathakan@indianoil.in</v>
+      </c>
+      <c r="B378" t="str">
+        <v>2025-12-09T12:21:51.553Z</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>mksingh@indianoil.in</v>
+      </c>
+      <c r="B379" t="str">
+        <v>2025-12-09T12:21:51.553Z</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>akhilesh@indianoil.in</v>
+      </c>
+      <c r="B380" t="str">
+        <v>2025-12-09T12:21:51.553Z</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>mongad@indianoil.in</v>
+      </c>
+      <c r="B381" t="str">
+        <v>2025-12-09T12:21:51.597Z</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>agurav@indianoil.in</v>
+      </c>
+      <c r="B382" t="str">
+        <v>2025-12-09T12:21:51.597Z</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>s.mukherjee1974@indianoil.in</v>
+      </c>
+      <c r="B383" t="str">
+        <v>2025-12-09T12:22:02.823Z</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>sanjays@indianoil.in</v>
+      </c>
+      <c r="B384" t="str">
+        <v>2025-12-09T12:22:02.823Z</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>chandanb@indianoil.in</v>
+      </c>
+      <c r="B385" t="str">
+        <v>2025-12-09T12:22:02.823Z</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>nniraj@indianoil.in</v>
+      </c>
+      <c r="B386" t="str">
+        <v>2025-12-09T12:22:56.958Z</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>oswalad@indianoil.in</v>
+      </c>
+      <c r="B387" t="str">
+        <v>2025-12-09T12:23:43.242Z</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>kohlis@indianoil.in</v>
+      </c>
+      <c r="B388" t="str">
+        <v>2025-12-09T12:23:45.061Z</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>jaiswalanurag@indianoil.in</v>
+      </c>
+      <c r="B389" t="str">
+        <v>2025-12-09T12:23:45.061Z</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>dushyant@indianoil.in</v>
+      </c>
+      <c r="B390" t="str">
+        <v>2025-12-09T12:23:45.061Z</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>nayaksk@indianoil.in</v>
+      </c>
+      <c r="B391" t="str">
+        <v>2025-12-09T12:24:02.750Z</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>iswarya@indianoil.in</v>
+      </c>
+      <c r="B392" t="str">
+        <v>2025-12-09T12:24:06.241Z</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D374"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D392"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9089,7 +9369,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10094,16 +10374,30 @@
         <v>2025-12-08T11:48:04.846Z</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>dilip.gurjar@eil.co.in</v>
+      </c>
+      <c r="B72" t="str">
+        <v>2025-12-09T12:23:03.813Z</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D72"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12130,16 +12424,44 @@
         <v>2025-12-09T07:13:20.706Z</v>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>mgowda@mrpl.co.in</v>
+      </c>
+      <c r="B145" t="str">
+        <v>2025-12-09T12:19:28.547Z</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>surekha@mrpl.co.in</v>
+      </c>
+      <c r="B146" t="str">
+        <v>2025-12-09T12:19:28.547Z</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D144"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D146"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D318"/>
+  <dimension ref="A1:D324"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16602,16 +16924,100 @@
         <v>2025-12-09T07:13:20.706Z</v>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>chavhanka@bharatpetroleum.in</v>
+      </c>
+      <c r="B319" t="str">
+        <v>2025-12-09T12:20:04.036Z</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>ashokkumar014@bharatpetroleum.in</v>
+      </c>
+      <c r="B320" t="str">
+        <v>2025-12-09T12:20:04.036Z</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>maladelagaria@bharatpetroleum.in</v>
+      </c>
+      <c r="B321" t="str">
+        <v>2025-12-09T12:20:04.036Z</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>krishnamurthyp@bharatpetroleum.in</v>
+      </c>
+      <c r="B322" t="str">
+        <v>2025-12-09T12:21:50.008Z</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>chakrabortya001@bharatpetroleum.in</v>
+      </c>
+      <c r="B323" t="str">
+        <v>2025-12-09T12:23:43.206Z</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>prathishkbabu@bharatpetroleum.in</v>
+      </c>
+      <c r="B324" t="str">
+        <v>2025-12-09T12:24:00.126Z</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D318"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D324"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17714,16 +18120,86 @@
         <v>2025-12-09T07:13:20.706Z</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>rjkumar@gail.co.in</v>
+      </c>
+      <c r="B79" t="str">
+        <v>2025-12-09T12:21:03.878Z</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>ramavatar.gocher@gail.co.in</v>
+      </c>
+      <c r="B80" t="str">
+        <v>2025-12-09T12:21:03.878Z</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>amiyabiswaranjan@gail.co.in</v>
+      </c>
+      <c r="B81" t="str">
+        <v>2025-12-09T12:21:03.878Z</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>hrishiw.01@gail.co.in</v>
+      </c>
+      <c r="B82" t="str">
+        <v>2025-12-09T12:24:05.182Z</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>psnabiyal@gail.co.in</v>
+      </c>
+      <c r="B83" t="str">
+        <v>2025-12-09T12:24:05.182Z</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D78"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D83"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D322"/>
+  <dimension ref="A1:D326"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22242,9 +22718,65 @@
         <v>2025-12-09T07:13:20.706Z</v>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>sravan.munaganuri@hpcl.in</v>
+      </c>
+      <c r="B323" t="str">
+        <v>2025-12-09T12:21:55.334Z</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>sreenadhvasireddy@hpcl.in</v>
+      </c>
+      <c r="B324" t="str">
+        <v>2025-12-09T12:21:55.334Z</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>jayalakshmimeda@hpcl.in</v>
+      </c>
+      <c r="B325" t="str">
+        <v>2025-12-09T12:21:55.334Z</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>asprasanth@hpcl.in</v>
+      </c>
+      <c r="B326" t="str">
+        <v>2025-12-09T12:21:55.334Z</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326" t="str">
+        <v>2025-12-09T12:24:34.626Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D322"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D326"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2044,9 +2044,37 @@
         <v>2025-12-09T12:24:34.626Z</v>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>veeraswamy_dhulipudi@ongc.co.in</v>
+      </c>
+      <c r="B117" t="str">
+        <v>2025-12-09T18:31:49.912Z</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>kuntal_dheeraj@ongc.co.in</v>
+      </c>
+      <c r="B118" t="str">
+        <v>2025-12-09T18:31:51.396Z</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D116"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D118"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2777,7 +2805,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:D423"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8276,9 +8304,443 @@
         <v>2025-12-09T12:24:34.626Z</v>
       </c>
     </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>khaprepm@indianoil.in</v>
+      </c>
+      <c r="B393" t="str">
+        <v>2025-12-09T18:23:47.956Z</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>singha11@indianoil.in</v>
+      </c>
+      <c r="B394" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>gspitambar@indianoil.in</v>
+      </c>
+      <c r="B395" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>uttamraogs@indianoil.in</v>
+      </c>
+      <c r="B396" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>sandeepc@indianoil.in</v>
+      </c>
+      <c r="B397" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>neeraj_jain@indianoil.in</v>
+      </c>
+      <c r="B398" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>tvyas@indianoil.in</v>
+      </c>
+      <c r="B399" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>kdhirendra@indianoil.in</v>
+      </c>
+      <c r="B400" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>nandasudhir@indianoil.in</v>
+      </c>
+      <c r="B401" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+      <c r="D401" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>krishnamsinghchauhan@indianoil.in</v>
+      </c>
+      <c r="B402" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>lahotir@indianoil.in</v>
+      </c>
+      <c r="B403" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>kschaudhary@indianoil.in</v>
+      </c>
+      <c r="B404" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>athakle@indianoil.in</v>
+      </c>
+      <c r="B405" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>shuklas@indianoil.in</v>
+      </c>
+      <c r="B406" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>prasadrkumar@indianoil.in</v>
+      </c>
+      <c r="B407" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>shakirm@indianoil.in</v>
+      </c>
+      <c r="B408" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>satyendrasingh@indianoil.in</v>
+      </c>
+      <c r="B409" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>tirup@indianoil.in</v>
+      </c>
+      <c r="B410" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>ugiri@indianoil.in</v>
+      </c>
+      <c r="B411" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>tanveers@indianoil.in</v>
+      </c>
+      <c r="B412" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>sbaxi@indianoil.in</v>
+      </c>
+      <c r="B413" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>vsdikshit@indianoil.in</v>
+      </c>
+      <c r="B414" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>joydey@indianoil.in</v>
+      </c>
+      <c r="B415" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>vudia@indianoil.in</v>
+      </c>
+      <c r="B416" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>ssbajpai@indianoil.in</v>
+      </c>
+      <c r="B417" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>tiwarir@indianoil.in</v>
+      </c>
+      <c r="B418" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="D418" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>sdwivedi@indianoil.in</v>
+      </c>
+      <c r="B419" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>guptagaurav@indianoil.in</v>
+      </c>
+      <c r="B420" t="str">
+        <v>2025-12-09T18:25:32.488Z</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>rkartik@indianoil.in</v>
+      </c>
+      <c r="B421" t="str">
+        <v>2025-12-09T18:30:30.276Z</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>patilmj@indianoil.in</v>
+      </c>
+      <c r="B422" t="str">
+        <v>2025-12-09T18:31:22.474Z</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>kumara25@indianoil.in</v>
+      </c>
+      <c r="B423" t="str">
+        <v>2025-12-09T18:31:22.474Z</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D392"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D423"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10397,7 +10859,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12452,16 +12914,44 @@
         <v>2025-12-09T12:24:34.626Z</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>varun.bhomkar@mrpl.co.in</v>
+      </c>
+      <c r="B147" t="str">
+        <v>2025-12-09T18:31:17.842Z</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>ranjith_r@mrpl.co.in</v>
+      </c>
+      <c r="B148" t="str">
+        <v>2025-12-09T18:31:17.842Z</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D146"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D148"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D324"/>
+  <dimension ref="A1:D327"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17008,9 +17498,51 @@
         <v>2025-12-09T12:24:34.626Z</v>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>rakeshprakash@bharatpetroleum.in</v>
+      </c>
+      <c r="B325" t="str">
+        <v>2025-12-09T18:25:29.004Z</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>chiraghthanki@bharatpetroleum.in</v>
+      </c>
+      <c r="B326" t="str">
+        <v>2025-12-09T18:29:30.074Z</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>shamrozkhan001@bharatpetroleum.in</v>
+      </c>
+      <c r="B327" t="str">
+        <v>2025-12-09T18:32:18.989Z</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D324"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D327"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -18199,7 +18731,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D326"/>
+  <dimension ref="A1:D338"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22774,9 +23306,177 @@
         <v>2025-12-09T12:24:34.626Z</v>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>dipayan.patra@hpcl.in</v>
+      </c>
+      <c r="B327" t="str">
+        <v>2025-12-09T18:24:01.942Z</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>rajukumar@hpcl.in</v>
+      </c>
+      <c r="B328" t="str">
+        <v>2025-12-09T18:30:18.991Z</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>skashyap@hpcl.in</v>
+      </c>
+      <c r="B329" t="str">
+        <v>2025-12-09T18:30:18.991Z</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>shubham.katiyar@hpcl.in</v>
+      </c>
+      <c r="B330" t="str">
+        <v>2025-12-09T18:30:18.991Z</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>trpanda@hpcl.in</v>
+      </c>
+      <c r="B331" t="str">
+        <v>2025-12-09T18:30:18.991Z</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>pushkarhiralal.patil@hpcl.in</v>
+      </c>
+      <c r="B332" t="str">
+        <v>2025-12-09T18:30:39.142Z</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>manishkishor.waykole@hpcl.in</v>
+      </c>
+      <c r="B333" t="str">
+        <v>2025-12-09T18:30:39.142Z</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>girishkyadav@hpcl.in</v>
+      </c>
+      <c r="B334" t="str">
+        <v>2025-12-09T18:31:50.843Z</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>vpbaghel@hpcl.in</v>
+      </c>
+      <c r="B335" t="str">
+        <v>2025-12-09T18:31:50.843Z</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>bnataraj@hpcl.in</v>
+      </c>
+      <c r="B336" t="str">
+        <v>2025-12-09T18:32:06.353Z</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>jitendra.kheraliya@hpcl.in</v>
+      </c>
+      <c r="B337" t="str">
+        <v>2025-12-09T18:32:35.695Z</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>sunitarp@hpcl.in</v>
+      </c>
+      <c r="B338" t="str">
+        <v>2025-12-09T18:32:35.695Z</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338" t="str">
+        <v>2025-12-09T18:32:43.224Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D326"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D338"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -2805,7 +2805,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D423"/>
+  <dimension ref="A1:D429"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8738,9 +8738,93 @@
         <v>2025-12-09T18:32:43.224Z</v>
       </c>
     </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>kambojv@indianoil.in</v>
+      </c>
+      <c r="B424" t="str">
+        <v>2025-12-10T00:24:22.719Z</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="D424" t="str">
+        <v>2025-12-10T00:31:03.896Z</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>kumarn32@indianoil.in</v>
+      </c>
+      <c r="B425" t="str">
+        <v>2025-12-10T00:24:27.565Z</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425" t="str">
+        <v>2025-12-10T00:31:03.896Z</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>jitendrak@indianoil.in</v>
+      </c>
+      <c r="B426" t="str">
+        <v>2025-12-10T00:24:27.565Z</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+      <c r="D426" t="str">
+        <v>2025-12-10T00:31:03.896Z</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>rahulk2@indianoil.in</v>
+      </c>
+      <c r="B427" t="str">
+        <v>2025-12-10T00:24:27.565Z</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427" t="str">
+        <v>2025-12-10T00:31:03.896Z</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>zacharia@indianoil.in</v>
+      </c>
+      <c r="B428" t="str">
+        <v>2025-12-10T00:24:27.565Z</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428" t="str">
+        <v>2025-12-10T00:31:03.896Z</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>singhsultan@indianoil.in</v>
+      </c>
+      <c r="B429" t="str">
+        <v>2025-12-10T00:30:14.191Z</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429" t="str">
+        <v>2025-12-10T00:31:03.896Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D423"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D429"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10859,7 +10943,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12942,9 +13026,51 @@
         <v>2025-12-09T18:32:43.224Z</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>bama@mrpl.co.in</v>
+      </c>
+      <c r="B149" t="str">
+        <v>2025-12-10T00:24:54.576Z</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="str">
+        <v>2025-12-10T00:31:03.896Z</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>sundark@mrpl.co.in</v>
+      </c>
+      <c r="B150" t="str">
+        <v>2025-12-10T00:24:54.576Z</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="str">
+        <v>2025-12-10T00:31:03.896Z</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>nithin_mugera@mrpl.co.in</v>
+      </c>
+      <c r="B151" t="str">
+        <v>2025-12-10T00:24:54.576Z</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="str">
+        <v>2025-12-10T00:31:03.896Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D148"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D151"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -18731,7 +18857,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D338"/>
+  <dimension ref="A1:D339"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23474,9 +23600,23 @@
         <v>2025-12-09T18:32:43.224Z</v>
       </c>
     </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>mohdabbas.abdi@hpcl.in</v>
+      </c>
+      <c r="B339" t="str">
+        <v>2025-12-10T00:24:20.910Z</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339" t="str">
+        <v>2025-12-10T00:31:03.896Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D338"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D339"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2072,9 +2072,23 @@
         <v>2025-12-09T18:32:43.224Z</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>sonam1@ongc.co.in</v>
+      </c>
+      <c r="B119" t="str">
+        <v>2025-12-10T06:31:47.089Z</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D118"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D119"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2805,7 +2819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D429"/>
+  <dimension ref="A1:D431"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8822,9 +8836,37 @@
         <v>2025-12-10T00:31:03.896Z</v>
       </c>
     </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>kumara33@indianoil.in</v>
+      </c>
+      <c r="B430" t="str">
+        <v>2025-12-10T06:31:11.919Z</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>puvvulas@indianoil.in</v>
+      </c>
+      <c r="B431" t="str">
+        <v>2025-12-10T06:34:50.669Z</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D429"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D431"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9915,7 +9957,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10934,16 +10976,58 @@
         <v>2025-12-09T12:24:34.626Z</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>emailabhishek.raj@eil.co.in</v>
+      </c>
+      <c r="B73" t="str">
+        <v>2025-12-10T06:34:09.232Z</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>abhishek.raj@eil.co.in</v>
+      </c>
+      <c r="B74" t="str">
+        <v>2025-12-10T06:34:09.232Z</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>ritu.bharti@eil.co.in</v>
+      </c>
+      <c r="B75" t="str">
+        <v>2025-12-10T06:34:09.232Z</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D72"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D75"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13068,16 +13152,58 @@
         <v>2025-12-10T00:31:03.896Z</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>ramniwas_moun@mrpl.co.in</v>
+      </c>
+      <c r="B152" t="str">
+        <v>2025-12-10T06:32:55.925Z</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>grs@mrpl.co.in</v>
+      </c>
+      <c r="B153" t="str">
+        <v>2025-12-10T06:32:55.925Z</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>shoaibjunaidi@mrpl.co.in</v>
+      </c>
+      <c r="B154" t="str">
+        <v>2025-12-10T06:34:18.746Z</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D151"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D154"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D327"/>
+  <dimension ref="A1:D331"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17666,9 +17792,65 @@
         <v>2025-12-09T18:32:43.224Z</v>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>amalenitinr@bharatpetroleum.in</v>
+      </c>
+      <c r="B328" t="str">
+        <v>2025-12-10T06:31:34.446Z</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>gautambhaidamor@bharatpetroleum.in</v>
+      </c>
+      <c r="B329" t="str">
+        <v>2025-12-10T06:31:34.446Z</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>keshavkdewangan@bharatpetroleum.in</v>
+      </c>
+      <c r="B330" t="str">
+        <v>2025-12-10T06:34:54.743Z</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>kulkarnirohit@bharatpetroleum.in</v>
+      </c>
+      <c r="B331" t="str">
+        <v>2025-12-10T06:34:54.743Z</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D327"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D331"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -18857,7 +19039,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D339"/>
+  <dimension ref="A1:D350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23614,9 +23796,163 @@
         <v>2025-12-10T00:31:03.896Z</v>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>pradeep.purnana@hpcl.in</v>
+      </c>
+      <c r="B340" t="str">
+        <v>2025-12-10T06:30:53.720Z</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>ayush.mishra@hpcl.in</v>
+      </c>
+      <c r="B341" t="str">
+        <v>2025-12-10T06:31:13.077Z</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>hemas.villuri@hpcl.in</v>
+      </c>
+      <c r="B342" t="str">
+        <v>2025-12-10T06:31:26.211Z</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>rbharath@hpcl.in</v>
+      </c>
+      <c r="B343" t="str">
+        <v>2025-12-10T06:31:29.957Z</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>shrutik@hpcl.in</v>
+      </c>
+      <c r="B344" t="str">
+        <v>2025-12-10T06:31:29.957Z</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>jaisreekar.r@hpcl.in</v>
+      </c>
+      <c r="B345" t="str">
+        <v>2025-12-10T06:31:32.977Z</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>lubescare@hpcl.in</v>
+      </c>
+      <c r="B346" t="str">
+        <v>2025-12-10T06:31:32.977Z</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>someshsingh@hpcl.in</v>
+      </c>
+      <c r="B347" t="str">
+        <v>2025-12-10T06:31:37.516Z</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>sonthinbabu@hpcl.in</v>
+      </c>
+      <c r="B348" t="str">
+        <v>2025-12-10T06:31:37.516Z</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>naresh.kumar2@hpcl.in</v>
+      </c>
+      <c r="B349" t="str">
+        <v>2025-12-10T06:31:37.516Z</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>navneet.pandey@hpcl.in</v>
+      </c>
+      <c r="B350" t="str">
+        <v>2025-12-10T06:31:37.516Z</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350" t="str">
+        <v>2025-12-10T06:35:20.063Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D339"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D350"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2086,9 +2086,23 @@
         <v>2025-12-10T06:35:20.063Z</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>kiran_vuppala@ongc.co.in</v>
+      </c>
+      <c r="B120" t="str">
+        <v>2025-12-10T12:29:08.748Z</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D119"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D120"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2743,7 +2757,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2810,16 +2824,30 @@
         <v>2025-12-08T11:48:04.846Z</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>archanaav@bhartpetroleum.in</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2025-12-10T12:30:17.295Z</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D431"/>
+  <dimension ref="A1:D438"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8864,9 +8892,107 @@
         <v>2025-12-10T06:35:20.063Z</v>
       </c>
     </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>mallickd1@indianoil.in</v>
+      </c>
+      <c r="B432" t="str">
+        <v>2025-12-10T12:29:54.817Z</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>rlal@indianoil.in</v>
+      </c>
+      <c r="B433" t="str">
+        <v>2025-12-10T12:29:56.110Z</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>meenaln@indianoil.in</v>
+      </c>
+      <c r="B434" t="str">
+        <v>2025-12-10T12:29:56.110Z</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>kureela@indianoil.in</v>
+      </c>
+      <c r="B435" t="str">
+        <v>2025-12-10T12:30:17.492Z</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>kumarsudhanshu@indianoil.in</v>
+      </c>
+      <c r="B436" t="str">
+        <v>2025-12-10T12:30:54.443Z</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>bhattacharjee_d@indianoil.in</v>
+      </c>
+      <c r="B437" t="str">
+        <v>2025-12-10T12:31:48.160Z</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>brindhag@indianoil.in</v>
+      </c>
+      <c r="B438" t="str">
+        <v>2025-12-10T12:31:48.160Z</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D431"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D438"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9957,7 +10083,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11018,16 +11144,72 @@
         <v>2025-12-10T06:35:20.063Z</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>rahul.dwivedi@eil.co.in</v>
+      </c>
+      <c r="B76" t="str">
+        <v>2025-12-10T12:33:54.036Z</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>aritra.dey@eil.co.in</v>
+      </c>
+      <c r="B77" t="str">
+        <v>2025-12-10T12:33:54.036Z</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>rahul.ingle@eil.co.in</v>
+      </c>
+      <c r="B78" t="str">
+        <v>2025-12-10T12:35:09.397Z</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>jaydeep.jesur@eil.co.in</v>
+      </c>
+      <c r="B79" t="str">
+        <v>2025-12-10T12:35:09.397Z</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D75"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D79"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13194,16 +13376,128 @@
         <v>2025-12-10T06:35:20.063Z</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>kiranbangera@mrpl.co.in</v>
+      </c>
+      <c r="B155" t="str">
+        <v>2025-12-10T12:33:29.726Z</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>jayeshkumar@mrpl.co.in</v>
+      </c>
+      <c r="B156" t="str">
+        <v>2025-12-10T12:33:29.726Z</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>kishanshetty@mrpl.co.in</v>
+      </c>
+      <c r="B157" t="str">
+        <v>2025-12-10T12:33:29.726Z</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>tvrroshan@mrpl.co.in</v>
+      </c>
+      <c r="B158" t="str">
+        <v>2025-12-10T12:33:29.726Z</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>shashis@mrpl.co.in</v>
+      </c>
+      <c r="B159" t="str">
+        <v>2025-12-10T12:33:30.128Z</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>vinayk@mrpl.co.in</v>
+      </c>
+      <c r="B160" t="str">
+        <v>2025-12-10T12:33:31.889Z</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>ashishshetty@mrpl.co.in</v>
+      </c>
+      <c r="B161" t="str">
+        <v>2025-12-10T12:33:31.889Z</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>rajesh.kumar@mrpl.co.in</v>
+      </c>
+      <c r="B162" t="str">
+        <v>2025-12-10T12:34:24.413Z</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D154"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D162"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D344"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17848,16 +18142,198 @@
         <v>2025-12-10T06:35:20.063Z</v>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>mittalak@bharatpetroleum.in</v>
+      </c>
+      <c r="B332" t="str">
+        <v>2025-12-10T12:30:17.098Z</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>vinodkumar006@bharatpetroleum.in</v>
+      </c>
+      <c r="B333" t="str">
+        <v>2025-12-10T12:30:17.098Z</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>seetaram@bharatpetroleum.in</v>
+      </c>
+      <c r="B334" t="str">
+        <v>2025-12-10T12:30:17.098Z</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>vaisakhamenon@bharatpetroleum.in</v>
+      </c>
+      <c r="B335" t="str">
+        <v>2025-12-10T12:30:17.295Z</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>balkrishna@bharatpetroleum.in</v>
+      </c>
+      <c r="B336" t="str">
+        <v>2025-12-10T12:31:23.638Z</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>raviprakashbhar@bharatpetroleum.in</v>
+      </c>
+      <c r="B337" t="str">
+        <v>2025-12-10T12:31:23.638Z</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>sandipsjadhav@bharatpetroleum.in</v>
+      </c>
+      <c r="B338" t="str">
+        <v>2025-12-10T12:33:00.133Z</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>anshumandalal@bharatpetroleum.in</v>
+      </c>
+      <c r="B339" t="str">
+        <v>2025-12-10T12:33:27.919Z</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>josephpinhero@bharatpetroleum.in</v>
+      </c>
+      <c r="B340" t="str">
+        <v>2025-12-10T12:34:24.450Z</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>kalesn@bharatpetroleum.in</v>
+      </c>
+      <c r="B341" t="str">
+        <v>2025-12-10T12:34:56.522Z</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>mukherjeea@bharatpetroleum.in</v>
+      </c>
+      <c r="B342" t="str">
+        <v>2025-12-10T12:34:56.522Z</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>umeshhanswal@bharatpetroleum.in</v>
+      </c>
+      <c r="B343" t="str">
+        <v>2025-12-10T12:35:54.020Z</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>sanjeevyadav@bharatpetroleum.in</v>
+      </c>
+      <c r="B344" t="str">
+        <v>2025-12-10T12:35:54.020Z</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D331"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D344"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19030,16 +19506,100 @@
         <v>2025-12-09T12:24:34.626Z</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>vishal1@gail.co.in</v>
+      </c>
+      <c r="B84" t="str">
+        <v>2025-12-10T12:29:08.373Z</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>raghav.malhan@gail.co.in</v>
+      </c>
+      <c r="B85" t="str">
+        <v>2025-12-10T12:29:08.373Z</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>anil.kumar1@gail.co.in</v>
+      </c>
+      <c r="B86" t="str">
+        <v>2025-12-10T12:29:42.071Z</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>gaurav.yadav@gail.co.in</v>
+      </c>
+      <c r="B87" t="str">
+        <v>2025-12-10T12:31:29.482Z</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>nakshatra.banerjee@gail.co.in</v>
+      </c>
+      <c r="B88" t="str">
+        <v>2025-12-10T12:32:42.773Z</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>ukey@gail.co.in</v>
+      </c>
+      <c r="B89" t="str">
+        <v>2025-12-10T12:33:58.325Z</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D83"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D89"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D350"/>
+  <dimension ref="A1:D374"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23950,9 +24510,345 @@
         <v>2025-12-10T06:35:20.063Z</v>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>ayush.jain@hpcl.in</v>
+      </c>
+      <c r="B351" t="str">
+        <v>2025-12-10T12:28:36.039Z</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>kartikchaudhary@hpcl.in</v>
+      </c>
+      <c r="B352" t="str">
+        <v>2025-12-10T12:28:36.039Z</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>tarun.maurya@hpcl.in</v>
+      </c>
+      <c r="B353" t="str">
+        <v>2025-12-10T12:28:36.039Z</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>rohitkumar1@hpcl.in</v>
+      </c>
+      <c r="B354" t="str">
+        <v>2025-12-10T12:28:36.039Z</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>jainayush.jain@hpcl.in</v>
+      </c>
+      <c r="B355" t="str">
+        <v>2025-12-10T12:28:36.039Z</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>bariyarrbariyar@hpcl.in</v>
+      </c>
+      <c r="B356" t="str">
+        <v>2025-12-10T12:28:36.039Z</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>jareshma.dondapati@hpcl.in</v>
+      </c>
+      <c r="B357" t="str">
+        <v>2025-12-10T12:29:08.295Z</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>manojchauhan@hpcl.in</v>
+      </c>
+      <c r="B358" t="str">
+        <v>2025-12-10T12:29:09.679Z</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>praveenu@hpcl.in</v>
+      </c>
+      <c r="B359" t="str">
+        <v>2025-12-10T12:29:09.679Z</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>vikash.srivastava@hpcl.in</v>
+      </c>
+      <c r="B360" t="str">
+        <v>2025-12-10T12:29:18.634Z</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>nawnitjaiswal@hpcl.in</v>
+      </c>
+      <c r="B361" t="str">
+        <v>2025-12-10T12:29:40.405Z</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>rajeevkumar@hpcl.in</v>
+      </c>
+      <c r="B362" t="str">
+        <v>2025-12-10T12:29:40.405Z</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>utpal.das@hpcl.in</v>
+      </c>
+      <c r="B363" t="str">
+        <v>2025-12-10T12:31:24.617Z</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>khap.lpgpic@hpcl.in</v>
+      </c>
+      <c r="B364" t="str">
+        <v>2025-12-10T12:32:41.606Z</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>deepakwatri@hpcl.in</v>
+      </c>
+      <c r="B365" t="str">
+        <v>2025-12-10T12:32:41.606Z</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>ramkrishna.mishra@hpcl.in</v>
+      </c>
+      <c r="B366" t="str">
+        <v>2025-12-10T12:33:22.671Z</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>aditi.durkhure@hpcl.in</v>
+      </c>
+      <c r="B367" t="str">
+        <v>2025-12-10T12:34:38.242Z</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>mvnmpatrudu@hpcl.in</v>
+      </c>
+      <c r="B368" t="str">
+        <v>2025-12-10T12:35:07.542Z</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>devaramnitish.reddy@hpcl.in</v>
+      </c>
+      <c r="B369" t="str">
+        <v>2025-12-10T12:35:07.542Z</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>ravinssingh@hpcl.in</v>
+      </c>
+      <c r="B370" t="str">
+        <v>2025-12-10T12:35:07.542Z</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>kamleshd@hpcl.in</v>
+      </c>
+      <c r="B371" t="str">
+        <v>2025-12-10T12:35:36.071Z</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>priyanshu.dixit@hpcl.in</v>
+      </c>
+      <c r="B372" t="str">
+        <v>2025-12-10T12:35:38.714Z</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>rajkumarvsingh@hpcl.in</v>
+      </c>
+      <c r="B373" t="str">
+        <v>2025-12-10T12:35:38.714Z</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>sushma.verma@hpcl.in</v>
+      </c>
+      <c r="B374" t="str">
+        <v>2025-12-10T12:35:38.714Z</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374" t="str">
+        <v>2025-12-10T12:36:12.938Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D350"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D374"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2100,9 +2100,51 @@
         <v>2025-12-10T12:36:12.938Z</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>paymentissues_jorhat@ongc.co.in</v>
+      </c>
+      <c r="B121" t="str">
+        <v>2025-12-10T18:32:24.730Z</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>chandra_jaswant@ongc.co.in</v>
+      </c>
+      <c r="B122" t="str">
+        <v>2025-12-10T18:32:24.730Z</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>kondaveeti_vijayaraju@ongc.co.in</v>
+      </c>
+      <c r="B123" t="str">
+        <v>2025-12-10T18:32:24.730Z</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D120"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D123"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10083,7 +10125,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11200,9 +11242,23 @@
         <v>2025-12-10T12:36:12.938Z</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>rv.rao@eil.co.in</v>
+      </c>
+      <c r="B80" t="str">
+        <v>2025-12-10T18:28:34.500Z</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D79"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D80"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13497,7 +13553,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D344"/>
+  <dimension ref="A1:D353"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18324,16 +18380,142 @@
         <v>2025-12-10T12:36:12.938Z</v>
       </c>
     </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>sushilkumark@bharatpetroleum.in</v>
+      </c>
+      <c r="B345" t="str">
+        <v>2025-12-10T18:27:08.311Z</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>smallick@bharatpetroleum.in</v>
+      </c>
+      <c r="B346" t="str">
+        <v>2025-12-10T18:27:08.311Z</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>rijors@bharatpetroleum.in</v>
+      </c>
+      <c r="B347" t="str">
+        <v>2025-12-10T18:28:54.018Z</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>itendrachaudhar@bharatpetroleum.in</v>
+      </c>
+      <c r="B348" t="str">
+        <v>2025-12-10T18:30:27.301Z</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>mollaj@bharatpetroleum.in</v>
+      </c>
+      <c r="B349" t="str">
+        <v>2025-12-10T18:30:27.301Z</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>punitktekriwal@bharatpetroleum.in</v>
+      </c>
+      <c r="B350" t="str">
+        <v>2025-12-10T18:31:54.906Z</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>purushottamkuma@bharatpetroleum.in</v>
+      </c>
+      <c r="B351" t="str">
+        <v>2025-12-10T18:31:54.906Z</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>tayshetatharva@bharatpetroleum.in</v>
+      </c>
+      <c r="B352" t="str">
+        <v>2025-12-10T18:33:47.167Z</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>damdek@bharatpetroleum.in</v>
+      </c>
+      <c r="B353" t="str">
+        <v>2025-12-10T18:33:47.167Z</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D344"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D353"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19590,16 +19772,128 @@
         <v>2025-12-10T12:36:12.938Z</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>jay1.chauhan@gail.co.in</v>
+      </c>
+      <c r="B90" t="str">
+        <v>2025-12-10T18:29:16.017Z</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>manikantswaroop@gail.co.in</v>
+      </c>
+      <c r="B91" t="str">
+        <v>2025-12-10T18:29:16.017Z</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>bisharbinali@gail.co.in</v>
+      </c>
+      <c r="B92" t="str">
+        <v>2025-12-10T18:29:32.608Z</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>ritesh.janjal@gail.co.in</v>
+      </c>
+      <c r="B93" t="str">
+        <v>2025-12-10T18:31:22.035Z</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>aneelbhat@gail.co.in</v>
+      </c>
+      <c r="B94" t="str">
+        <v>2025-12-10T18:34:08.967Z</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>pk.agarwal@gail.co.in</v>
+      </c>
+      <c r="B95" t="str">
+        <v>2025-12-10T18:34:08.967Z</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>mayank.sharma@gail.co.in</v>
+      </c>
+      <c r="B96" t="str">
+        <v>2025-12-10T18:34:08.967Z</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>cybersec@gail.co.in</v>
+      </c>
+      <c r="B97" t="str">
+        <v>2025-12-10T18:34:08.967Z</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D89"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D97"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D374"/>
+  <dimension ref="A1:D384"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24846,9 +25140,149 @@
         <v>2025-12-10T12:36:12.938Z</v>
       </c>
     </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>sanjay.b@hpcl.in</v>
+      </c>
+      <c r="B375" t="str">
+        <v>2025-12-10T18:31:21.864Z</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>pendra.dewangan@hpcl.in</v>
+      </c>
+      <c r="B376" t="str">
+        <v>2025-12-10T18:32:35.278Z</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>jayaseelanv@hpcl.in</v>
+      </c>
+      <c r="B377" t="str">
+        <v>2025-12-10T18:32:35.278Z</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>1291cpo.civil@hpcl.in</v>
+      </c>
+      <c r="B378" t="str">
+        <v>2025-12-10T18:32:35.278Z</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>cpo.civil@hpcl.in</v>
+      </c>
+      <c r="B379" t="str">
+        <v>2025-12-10T18:32:35.278Z</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>raghvendrapsingh@hpcl.in</v>
+      </c>
+      <c r="B380" t="str">
+        <v>2025-12-10T18:33:15.865Z</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>nagaraju.godlaveeti@hpcl.in</v>
+      </c>
+      <c r="B381" t="str">
+        <v>2025-12-10T18:33:52.133Z</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>pankajksingh@hpcl.in</v>
+      </c>
+      <c r="B382" t="str">
+        <v>2025-12-10T18:33:52.133Z</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>kundankumar@hpcl.in</v>
+      </c>
+      <c r="B383" t="str">
+        <v>2025-12-10T18:34:12.316Z</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>kuruba.bharathi@hpcl.in</v>
+      </c>
+      <c r="B384" t="str">
+        <v>2025-12-10T18:34:12.316Z</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384" t="str">
+        <v>2025-12-10T18:34:26.817Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D374"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D384"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2142,9 +2142,37 @@
         <v>2025-12-10T18:34:26.817Z</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>inst_amd@ongc.co.in</v>
+      </c>
+      <c r="B124" t="str">
+        <v>2025-12-11T06:32:10.910Z</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" t="str">
+        <v>2025-12-11T06:32:56.826Z</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>prakash_shyam@ongc.co.in</v>
+      </c>
+      <c r="B125" t="str">
+        <v>2025-12-11T06:32:47.700Z</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" t="str">
+        <v>2025-12-11T06:32:56.826Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D123"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D125"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9041,7 +9069,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10116,9 +10144,37 @@
         <v>2025-12-08T09:10:07.443Z</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>jyotish.neog@oilindia.in</v>
+      </c>
+      <c r="B77" t="str">
+        <v>2025-12-11T06:29:26.521Z</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="str">
+        <v>2025-12-11T06:32:56.826Z</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>fieldcomm@oilindia.in</v>
+      </c>
+      <c r="B78" t="str">
+        <v>2025-12-11T06:29:26.521Z</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="str">
+        <v>2025-12-11T06:32:56.826Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D76"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D78"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13553,7 +13609,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D353"/>
+  <dimension ref="A1:D357"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18506,9 +18562,65 @@
         <v>2025-12-10T18:34:26.817Z</v>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>svpavankumar@bharatpetroleum.in</v>
+      </c>
+      <c r="B354" t="str">
+        <v>2025-12-11T06:30:32.128Z</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354" t="str">
+        <v>2025-12-11T06:32:56.826Z</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>iqbalsingh@bharatpetroleum.in</v>
+      </c>
+      <c r="B355" t="str">
+        <v>2025-12-11T06:30:32.128Z</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355" t="str">
+        <v>2025-12-11T06:32:56.826Z</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>smohammedareef@bharatpetroleum.in</v>
+      </c>
+      <c r="B356" t="str">
+        <v>2025-12-11T06:31:57.258Z</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356" t="str">
+        <v>2025-12-11T06:32:56.826Z</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>amitbirua@bharatpetroleum.in</v>
+      </c>
+      <c r="B357" t="str">
+        <v>2025-12-11T06:31:57.258Z</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357" t="str">
+        <v>2025-12-11T06:32:56.826Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D353"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D357"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -19893,7 +20005,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D384"/>
+  <dimension ref="A1:D388"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25280,9 +25392,65 @@
         <v>2025-12-10T18:34:26.817Z</v>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>dharmendra.kumar2@hpcl.in</v>
+      </c>
+      <c r="B385" t="str">
+        <v>2025-12-11T06:29:32.037Z</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385" t="str">
+        <v>2025-12-11T06:32:56.826Z</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>siriboyina.saipramod@hpcl.in</v>
+      </c>
+      <c r="B386" t="str">
+        <v>2025-12-11T06:29:44.997Z</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386" t="str">
+        <v>2025-12-11T06:32:56.826Z</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>sanjayblokhande@hpcl.in</v>
+      </c>
+      <c r="B387" t="str">
+        <v>2025-12-11T06:32:09.922Z</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387" t="str">
+        <v>2025-12-11T06:32:56.826Z</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>kiranrkothari@hpcl.in</v>
+      </c>
+      <c r="B388" t="str">
+        <v>2025-12-11T06:32:20.341Z</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388" t="str">
+        <v>2025-12-11T06:32:56.826Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D384"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D388"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2170,9 +2170,51 @@
         <v>2025-12-11T06:32:56.826Z</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>marothia_naresh@ongc.co.in</v>
+      </c>
+      <c r="B126" t="str">
+        <v>2025-12-11T12:35:32.643Z</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>roy_goutam@ongc.co.in</v>
+      </c>
+      <c r="B127" t="str">
+        <v>2025-12-11T12:37:23.206Z</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>tk_sudheesh@ongc.co.in</v>
+      </c>
+      <c r="B128" t="str">
+        <v>2025-12-11T12:38:06.838Z</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D125"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D128"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2647,7 +2689,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2756,9 +2798,23 @@
         <v>2025-12-08T09:10:07.442Z</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>allan@petronetmhbl.com</v>
+      </c>
+      <c r="B8" t="str">
+        <v>2025-12-11T12:36:51.741Z</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2917,7 +2973,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D438"/>
+  <dimension ref="A1:D450"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9060,9 +9116,177 @@
         <v>2025-12-10T12:36:12.938Z</v>
       </c>
     </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>singhmukesh@indianoil.in</v>
+      </c>
+      <c r="B439" t="str">
+        <v>2025-12-11T12:35:17.598Z</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>ravinderk2@indianoil.in</v>
+      </c>
+      <c r="B440" t="str">
+        <v>2025-12-11T12:35:17.598Z</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>mahendrameena@indianoil.in</v>
+      </c>
+      <c r="B441" t="str">
+        <v>2025-12-11T12:35:17.598Z</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>saxenaa2@indianoil.in</v>
+      </c>
+      <c r="B442" t="str">
+        <v>2025-12-11T12:35:59.056Z</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>kbabu@indianoil.in</v>
+      </c>
+      <c r="B443" t="str">
+        <v>2025-12-11T12:36:18.319Z</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>guptavk2@indianoil.in</v>
+      </c>
+      <c r="B444" t="str">
+        <v>2025-12-11T12:36:27.972Z</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>vchowdha@indianoil.in</v>
+      </c>
+      <c r="B445" t="str">
+        <v>2025-12-11T12:36:40.019Z</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>yaduakash@indianoil.in</v>
+      </c>
+      <c r="B446" t="str">
+        <v>2025-12-11T12:36:40.019Z</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>deepakd@indianoil.in</v>
+      </c>
+      <c r="B447" t="str">
+        <v>2025-12-11T12:38:45.698Z</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>pathaks2@indianoil.in</v>
+      </c>
+      <c r="B448" t="str">
+        <v>2025-12-11T12:39:19.424Z</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>goyals@indianoil.in</v>
+      </c>
+      <c r="B449" t="str">
+        <v>2025-12-11T12:39:19.424Z</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>sahuhr@indianoil.in</v>
+      </c>
+      <c r="B450" t="str">
+        <v>2025-12-11T12:39:19.424Z</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D438"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D450"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -11321,7 +11545,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13600,16 +13824,72 @@
         <v>2025-12-10T12:36:12.938Z</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>nsuresh@mrpl.co.in</v>
+      </c>
+      <c r="B163" t="str">
+        <v>2025-12-11T12:32:14.588Z</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>hra@mrpl.co.in</v>
+      </c>
+      <c r="B164" t="str">
+        <v>2025-12-11T12:32:14.703Z</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>rithu@mrpl.co.in</v>
+      </c>
+      <c r="B165" t="str">
+        <v>2025-12-11T12:35:56.115Z</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>vikasb@mrpl.co.in</v>
+      </c>
+      <c r="B166" t="str">
+        <v>2025-12-11T12:37:43.811Z</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D162"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D166"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D357"/>
+  <dimension ref="A1:D369"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18618,16 +18898,184 @@
         <v>2025-12-11T06:32:56.826Z</v>
       </c>
     </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>deepakaravindv@bharatpetroleum.in</v>
+      </c>
+      <c r="B358" t="str">
+        <v>2025-12-11T12:32:38.277Z</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>maniphs@bharatpetroleum.in</v>
+      </c>
+      <c r="B359" t="str">
+        <v>2025-12-11T12:32:38.277Z</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>mohammadali@bharatpetroleum.in</v>
+      </c>
+      <c r="B360" t="str">
+        <v>2025-12-11T12:32:38.277Z</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>z_mrhq_vr@bharatpetroleum.in</v>
+      </c>
+      <c r="B361" t="str">
+        <v>2025-12-11T12:32:38.277Z</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>z_vend_registration@bharatpetroleum.in</v>
+      </c>
+      <c r="B362" t="str">
+        <v>2025-12-11T12:32:38.277Z</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>nisanthsankar@bharatpetroleum.in</v>
+      </c>
+      <c r="B363" t="str">
+        <v>2025-12-11T12:35:34.027Z</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>krishnahingu@bharatpetroleum.in</v>
+      </c>
+      <c r="B364" t="str">
+        <v>2025-12-11T12:36:56.638Z</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>jadhawmk@bharatpetroleum.in</v>
+      </c>
+      <c r="B365" t="str">
+        <v>2025-12-11T12:36:56.638Z</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>manjulprasadary@bharatpetroleum.in</v>
+      </c>
+      <c r="B366" t="str">
+        <v>2025-12-11T12:38:45.037Z</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>rakeshsingh@bharatpetroleum.in</v>
+      </c>
+      <c r="B367" t="str">
+        <v>2025-12-11T12:38:45.037Z</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>chandankumar002@bharatpetroleum.in</v>
+      </c>
+      <c r="B368" t="str">
+        <v>2025-12-11T12:38:45.037Z</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>rajendraprasadk@bharatpetroleum.in</v>
+      </c>
+      <c r="B369" t="str">
+        <v>2025-12-11T12:39:07.724Z</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D357"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D369"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19996,16 +20444,44 @@
         <v>2025-12-10T18:34:26.817Z</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>y.bhargavi@gail.co.in</v>
+      </c>
+      <c r="B98" t="str">
+        <v>2025-12-11T12:39:42.640Z</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>ndhariwal@gail.co.in</v>
+      </c>
+      <c r="B99" t="str">
+        <v>2025-12-11T12:39:42.640Z</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D97"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D99"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D388"/>
+  <dimension ref="A1:D397"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25448,9 +25924,135 @@
         <v>2025-12-11T06:32:56.826Z</v>
       </c>
     </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>vivek.bevara@hpcl.in</v>
+      </c>
+      <c r="B389" t="str">
+        <v>2025-12-11T12:31:18.980Z</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>prasaddhulkhed@hpcl.in</v>
+      </c>
+      <c r="B390" t="str">
+        <v>2025-12-11T12:32:14.623Z</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>kunal.parmar@hpcl.in</v>
+      </c>
+      <c r="B391" t="str">
+        <v>2025-12-11T12:35:22.847Z</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>shivam.kumar@hpcl.in</v>
+      </c>
+      <c r="B392" t="str">
+        <v>2025-12-11T12:36:28.124Z</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>rahul.verma2@hpcl.in</v>
+      </c>
+      <c r="B393" t="str">
+        <v>2025-12-11T12:38:08.142Z</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>mayank.pandey@hpcl.in</v>
+      </c>
+      <c r="B394" t="str">
+        <v>2025-12-11T12:38:08.142Z</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>abahykumar@hpcl.in</v>
+      </c>
+      <c r="B395" t="str">
+        <v>2025-12-11T12:38:46.900Z</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>lokeshsaxena@hpcl.in</v>
+      </c>
+      <c r="B396" t="str">
+        <v>2025-12-11T12:38:46.900Z</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>nitincsingh@hpcl.in</v>
+      </c>
+      <c r="B397" t="str">
+        <v>2025-12-11T12:39:41.056Z</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397" t="str">
+        <v>2025-12-11T12:40:15.068Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D388"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D397"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -2973,7 +2973,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D450"/>
+  <dimension ref="A1:D456"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9284,9 +9284,93 @@
         <v>2025-12-11T12:40:15.068Z</v>
       </c>
     </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>wadurkarmm@indianoil.in</v>
+      </c>
+      <c r="B451" t="str">
+        <v>2025-12-11T18:30:00.390Z</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451" t="str">
+        <v>2025-12-11T18:33:21.037Z</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>meshramsp@indianoil.in</v>
+      </c>
+      <c r="B452" t="str">
+        <v>2025-12-11T18:30:41.072Z</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452" t="str">
+        <v>2025-12-11T18:33:21.037Z</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>kumarsuresh2@indianoil.in</v>
+      </c>
+      <c r="B453" t="str">
+        <v>2025-12-11T18:31:04.534Z</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453" t="str">
+        <v>2025-12-11T18:33:21.037Z</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>saha9@indianoil.in</v>
+      </c>
+      <c r="B454" t="str">
+        <v>2025-12-11T18:31:37.000Z</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454" t="str">
+        <v>2025-12-11T18:33:21.037Z</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>vermaatul@indianoil.in</v>
+      </c>
+      <c r="B455" t="str">
+        <v>2025-12-11T18:32:59.832Z</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455" t="str">
+        <v>2025-12-11T18:33:21.037Z</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>bodgilm@indianoil.in</v>
+      </c>
+      <c r="B456" t="str">
+        <v>2025-12-11T18:32:59.832Z</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456" t="str">
+        <v>2025-12-11T18:33:21.037Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D450"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D456"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13889,7 +13973,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D369"/>
+  <dimension ref="A1:D370"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19066,16 +19150,30 @@
         <v>2025-12-11T12:40:15.068Z</v>
       </c>
     </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>ashawaritalukda@bharatpetroleum.in</v>
+      </c>
+      <c r="B370" t="str">
+        <v>2025-12-11T18:32:26.995Z</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370" t="str">
+        <v>2025-12-11T18:33:21.037Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D369"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D370"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20472,16 +20570,30 @@
         <v>2025-12-11T12:40:15.068Z</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>s.das@gail.co.in</v>
+      </c>
+      <c r="B100" t="str">
+        <v>2025-12-11T18:32:46.833Z</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="str">
+        <v>2025-12-11T18:33:21.037Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D99"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D100"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D397"/>
+  <dimension ref="A1:D402"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26050,9 +26162,79 @@
         <v>2025-12-11T12:40:15.068Z</v>
       </c>
     </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>sanjivkumar@hpcl.in</v>
+      </c>
+      <c r="B398" t="str">
+        <v>2025-12-11T18:30:07.326Z</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398" t="str">
+        <v>2025-12-11T18:33:21.037Z</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>kingsukmaity@hpcl.in</v>
+      </c>
+      <c r="B399" t="str">
+        <v>2025-12-11T18:30:07.326Z</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399" t="str">
+        <v>2025-12-11T18:33:21.037Z</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>aakarsh.dubey@hpcl.in</v>
+      </c>
+      <c r="B400" t="str">
+        <v>2025-12-11T18:33:01.886Z</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400" t="str">
+        <v>2025-12-11T18:33:21.037Z</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>mukeshprasad@hpcl.in</v>
+      </c>
+      <c r="B401" t="str">
+        <v>2025-12-11T18:33:01.886Z</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+      <c r="D401" t="str">
+        <v>2025-12-11T18:33:21.037Z</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>shubhankarprakash@hpcl.in</v>
+      </c>
+      <c r="B402" t="str">
+        <v>2025-12-11T18:33:12.904Z</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402" t="str">
+        <v>2025-12-11T18:33:21.037Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D397"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D402"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -2973,7 +2973,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D456"/>
+  <dimension ref="A1:D460"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9368,9 +9368,65 @@
         <v>2025-12-11T18:33:21.037Z</v>
       </c>
     </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>prithvirajm@indianoil.in</v>
+      </c>
+      <c r="B457" t="str">
+        <v>2025-12-12T00:29:25.285Z</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457" t="str">
+        <v>2025-12-12T00:31:17.638Z</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>anupma@indianoil.in</v>
+      </c>
+      <c r="B458" t="str">
+        <v>2025-12-12T00:30:17.196Z</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458" t="str">
+        <v>2025-12-12T00:31:17.638Z</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>sheetal@indianoil.in</v>
+      </c>
+      <c r="B459" t="str">
+        <v>2025-12-12T00:30:17.196Z</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459" t="str">
+        <v>2025-12-12T00:31:17.638Z</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>debayan_paul@indianoil.in</v>
+      </c>
+      <c r="B460" t="str">
+        <v>2025-12-12T00:30:20.934Z</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460" t="str">
+        <v>2025-12-12T00:31:17.638Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D456"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D460"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -2973,7 +2973,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D460"/>
+  <dimension ref="A1:D462"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9424,16 +9424,44 @@
         <v>2025-12-12T00:31:17.638Z</v>
       </c>
     </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>netamjs@indianoil.in</v>
+      </c>
+      <c r="B461" t="str">
+        <v>2025-12-12T06:30:13.158Z</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461" t="str">
+        <v>2025-12-12T06:30:28.310Z</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>mannas@indianoil.in</v>
+      </c>
+      <c r="B462" t="str">
+        <v>2025-12-12T06:30:13.158Z</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462" t="str">
+        <v>2025-12-12T06:30:28.310Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D460"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D462"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10536,9 +10564,37 @@
         <v>2025-12-11T06:32:56.826Z</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>prantik_dutta@oilindia.in</v>
+      </c>
+      <c r="B79" t="str">
+        <v>2025-12-12T06:28:22.195Z</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="str">
+        <v>2025-12-12T06:30:28.310Z</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>rahul.gupta@oilindia.in</v>
+      </c>
+      <c r="B80" t="str">
+        <v>2025-12-12T06:30:13.228Z</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="str">
+        <v>2025-12-12T06:30:28.310Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D78"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D80"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -14029,7 +14085,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D370"/>
+  <dimension ref="A1:D372"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19220,16 +19276,44 @@
         <v>2025-12-11T18:33:21.037Z</v>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>supriyomajumder@bharatpetroleum.in</v>
+      </c>
+      <c r="B371" t="str">
+        <v>2025-12-12T06:28:22.512Z</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371" t="str">
+        <v>2025-12-12T06:30:28.310Z</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>drsaptarshiray@bharatpetroleum.in</v>
+      </c>
+      <c r="B372" t="str">
+        <v>2025-12-12T06:28:22.512Z</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372" t="str">
+        <v>2025-12-12T06:30:28.310Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D370"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D372"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20640,9 +20724,51 @@
         <v>2025-12-11T18:33:21.037Z</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>karthesh.p@gail.co.in</v>
+      </c>
+      <c r="B101" t="str">
+        <v>2025-12-12T06:28:23.424Z</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="str">
+        <v>2025-12-12T06:30:28.310Z</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>rkmiglani@gail.co.in</v>
+      </c>
+      <c r="B102" t="str">
+        <v>2025-12-12T06:28:23.424Z</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="str">
+        <v>2025-12-12T06:30:28.310Z</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>devkumar@gail.co.in</v>
+      </c>
+      <c r="B103" t="str">
+        <v>2025-12-12T06:28:23.424Z</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="str">
+        <v>2025-12-12T06:30:28.310Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D100"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D103"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2212,9 +2212,107 @@
         <v>2025-12-11T12:40:15.068Z</v>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>vijay_pt@ongc.co.in</v>
+      </c>
+      <c r="B129" t="str">
+        <v>2025-12-12T12:37:00.178Z</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>gupta_avijit@ongc.co.in</v>
+      </c>
+      <c r="B130" t="str">
+        <v>2025-12-12T12:37:00.178Z</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>modi_aarshavi@ongc.co.in</v>
+      </c>
+      <c r="B131" t="str">
+        <v>2025-12-12T12:41:49.323Z</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>basumatary_suchen@ongc.co.in</v>
+      </c>
+      <c r="B132" t="str">
+        <v>2025-12-12T12:42:33.916Z</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>chug_sunilk@ongc.co.in</v>
+      </c>
+      <c r="B133" t="str">
+        <v>2025-12-12T12:42:33.916Z</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>kumar_niranjan@ongc.co.in</v>
+      </c>
+      <c r="B134" t="str">
+        <v>2025-12-12T12:42:33.916Z</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>database_jorhat@ongc.co.in</v>
+      </c>
+      <c r="B135" t="str">
+        <v>2025-12-12T12:42:48.901Z</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D128"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D135"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2973,7 +3071,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D462"/>
+  <dimension ref="A1:D472"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9452,9 +9550,149 @@
         <v>2025-12-12T06:30:28.310Z</v>
       </c>
     </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>bikashjena@indianoil.in</v>
+      </c>
+      <c r="B463" t="str">
+        <v>2025-12-12T12:36:54.463Z</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>hbm@indianoil.in</v>
+      </c>
+      <c r="B464" t="str">
+        <v>2025-12-12T12:37:18.011Z</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>garga2@indianoil.in</v>
+      </c>
+      <c r="B465" t="str">
+        <v>2025-12-12T12:40:18.966Z</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>iem-ioc@indianoil.in</v>
+      </c>
+      <c r="B466" t="str">
+        <v>2025-12-12T12:40:18.966Z</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>reecham@indianoil.in</v>
+      </c>
+      <c r="B467" t="str">
+        <v>2025-12-12T12:41:40.870Z</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>aroradavis@indianoil.in</v>
+      </c>
+      <c r="B468" t="str">
+        <v>2025-12-12T12:41:40.870Z</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>bhaskarv@indianoil.in</v>
+      </c>
+      <c r="B469" t="str">
+        <v>2025-12-12T12:41:40.870Z</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>dungrothrk@indianoil.in</v>
+      </c>
+      <c r="B470" t="str">
+        <v>2025-12-12T12:42:33.452Z</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>pandeh@indianoil.in</v>
+      </c>
+      <c r="B471" t="str">
+        <v>2025-12-12T12:42:33.452Z</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="D471" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>laksht@indianoil.in</v>
+      </c>
+      <c r="B472" t="str">
+        <v>2025-12-12T12:43:10.280Z</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D462"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D472"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10601,7 +10839,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11732,9 +11970,23 @@
         <v>2025-12-10T18:34:26.817Z</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>eilhefpune@eil.co.in</v>
+      </c>
+      <c r="B81" t="str">
+        <v>2025-12-12T12:40:23.709Z</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D80"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D81"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -14085,7 +14337,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D372"/>
+  <dimension ref="A1:D378"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19304,16 +19556,100 @@
         <v>2025-12-12T06:30:28.310Z</v>
       </c>
     </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>baburajenderan@bharatpetroleum.in</v>
+      </c>
+      <c r="B373" t="str">
+        <v>2025-12-12T12:36:45.225Z</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>sanchalinag@bharatpetroleum.in</v>
+      </c>
+      <c r="B374" t="str">
+        <v>2025-12-12T12:38:11.768Z</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>jhark@bharatpetroleum.in</v>
+      </c>
+      <c r="B375" t="str">
+        <v>2025-12-12T12:38:11.768Z</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>samanhusain@bharatpetroleum.in</v>
+      </c>
+      <c r="B376" t="str">
+        <v>2025-12-12T12:39:35.674Z</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>arnikmathur@bharatpetroleum.in</v>
+      </c>
+      <c r="B377" t="str">
+        <v>2025-12-12T12:39:41.388Z</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>mayavana@bharatpetroleum.in</v>
+      </c>
+      <c r="B378" t="str">
+        <v>2025-12-12T12:39:41.388Z</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D372"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D378"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20766,16 +21102,72 @@
         <v>2025-12-12T06:30:28.310Z</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>magaikwad@gail.co.in</v>
+      </c>
+      <c r="B104" t="str">
+        <v>2025-12-12T12:37:22.179Z</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>saurabh.mathur@gail.co.in</v>
+      </c>
+      <c r="B105" t="str">
+        <v>2025-12-12T12:38:48.523Z</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>banti.sah@gail.co.in</v>
+      </c>
+      <c r="B106" t="str">
+        <v>2025-12-12T12:43:13.886Z</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>suresh.ahirwar@gail.co.in</v>
+      </c>
+      <c r="B107" t="str">
+        <v>2025-12-12T12:43:13.886Z</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D103"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D107"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D402"/>
+  <dimension ref="A1:D413"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26414,9 +26806,163 @@
         <v>2025-12-11T18:33:21.037Z</v>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>varun.yadav@hpcl.in</v>
+      </c>
+      <c r="B403" t="str">
+        <v>2025-12-12T12:36:43.424Z</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>lkumaresan@hpcl.in</v>
+      </c>
+      <c r="B404" t="str">
+        <v>2025-12-12T12:37:40.162Z</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>akash.meena@hpcl.in</v>
+      </c>
+      <c r="B405" t="str">
+        <v>2025-12-12T12:37:46.882Z</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>ppatwardhan@hpcl.in</v>
+      </c>
+      <c r="B406" t="str">
+        <v>2025-12-12T12:37:46.882Z</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>sureshkumar@hpcl.in</v>
+      </c>
+      <c r="B407" t="str">
+        <v>2025-12-12T12:38:43.496Z</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>madhu.shalini@hpcl.in</v>
+      </c>
+      <c r="B408" t="str">
+        <v>2025-12-12T12:38:43.496Z</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>radhamahalakshmid@hpcl.in</v>
+      </c>
+      <c r="B409" t="str">
+        <v>2025-12-12T12:40:39.044Z</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>sunil.banothu@hpcl.in</v>
+      </c>
+      <c r="B410" t="str">
+        <v>2025-12-12T12:40:39.044Z</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>patidar@hpcl.in</v>
+      </c>
+      <c r="B411" t="str">
+        <v>2025-12-12T12:42:11.614Z</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>ambarishkg@hpcl.in</v>
+      </c>
+      <c r="B412" t="str">
+        <v>2025-12-12T12:42:11.614Z</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>abrahamalby@hpcl.in</v>
+      </c>
+      <c r="B413" t="str">
+        <v>2025-12-12T12:43:16.105Z</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413" t="str">
+        <v>2025-12-12T12:43:30.706Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D402"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D413"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2310,9 +2310,23 @@
         <v>2025-12-12T12:43:30.706Z</v>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>saikia_pp@ongc.co.in</v>
+      </c>
+      <c r="B136" t="str">
+        <v>2025-12-13T00:31:15.178Z</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="str">
+        <v>2025-12-13T00:33:47.121Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D135"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D136"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3099,7 +3113,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D478"/>
+  <dimension ref="A1:D480"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9802,9 +9816,37 @@
         <v>2025-12-12T18:36:24.663Z</v>
       </c>
     </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>ankitgrover@indianoil.in</v>
+      </c>
+      <c r="B479" t="str">
+        <v>2025-12-13T00:32:58.018Z</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479" t="str">
+        <v>2025-12-13T00:33:47.121Z</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>tyagiprashant@indianoil.in</v>
+      </c>
+      <c r="B480" t="str">
+        <v>2025-12-13T00:32:58.018Z</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480" t="str">
+        <v>2025-12-13T00:33:47.121Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D478"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D480"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -21377,7 +21419,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D426"/>
+  <dimension ref="A1:D432"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27352,9 +27394,93 @@
         <v>2025-12-12T18:36:24.663Z</v>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>polisettysai.mohan@hpcl.in</v>
+      </c>
+      <c r="B427" t="str">
+        <v>2025-12-13T00:29:27.474Z</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427" t="str">
+        <v>2025-12-13T00:33:47.121Z</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>smjadhav@hpcl.in</v>
+      </c>
+      <c r="B428" t="str">
+        <v>2025-12-13T00:30:34.462Z</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428" t="str">
+        <v>2025-12-13T00:33:47.121Z</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>jyotsnalatha.puli@hpcl.in</v>
+      </c>
+      <c r="B429" t="str">
+        <v>2025-12-13T00:31:37.383Z</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429" t="str">
+        <v>2025-12-13T00:33:47.121Z</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>athi@hpcl.in</v>
+      </c>
+      <c r="B430" t="str">
+        <v>2025-12-13T00:33:18.493Z</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430" t="str">
+        <v>2025-12-13T00:33:47.121Z</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>meena@hpcl.in</v>
+      </c>
+      <c r="B431" t="str">
+        <v>2025-12-13T00:33:18.493Z</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431" t="str">
+        <v>2025-12-13T00:33:47.121Z</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>gowtham.sanapathi@hpcl.in</v>
+      </c>
+      <c r="B432" t="str">
+        <v>2025-12-13T00:33:18.493Z</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432" t="str">
+        <v>2025-12-13T00:33:47.121Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D426"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D432"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -3113,7 +3113,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9844,9 +9844,23 @@
         <v>2025-12-13T00:33:47.121Z</v>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>garainch@indianoil.in</v>
+      </c>
+      <c r="B481" t="str">
+        <v>2025-12-13T06:33:05.998Z</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481" t="str">
+        <v>2025-12-13T06:34:18.464Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D480"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D481"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -14533,7 +14547,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D380"/>
+  <dimension ref="A1:D381"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19864,9 +19878,23 @@
         <v>2025-12-12T18:36:24.663Z</v>
       </c>
     </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>devalkarraviraj@bharatpetroleum.in</v>
+      </c>
+      <c r="B381" t="str">
+        <v>2025-12-13T06:32:29.779Z</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381" t="str">
+        <v>2025-12-13T06:34:18.464Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D380"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D381"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -21419,7 +21447,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D432"/>
+  <dimension ref="A1:D434"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27478,9 +27506,37 @@
         <v>2025-12-13T00:33:47.121Z</v>
       </c>
     </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>ahijitbhowmick@hpcl.in</v>
+      </c>
+      <c r="B433" t="str">
+        <v>2025-12-13T06:33:33.987Z</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433" t="str">
+        <v>2025-12-13T06:34:18.464Z</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>nirajkumar.ahirwar@hpcl.in</v>
+      </c>
+      <c r="B434" t="str">
+        <v>2025-12-13T06:33:33.987Z</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434" t="str">
+        <v>2025-12-13T06:34:18.464Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D432"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D434"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -3113,7 +3113,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:D487"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9858,9 +9858,93 @@
         <v>2025-12-13T06:34:18.464Z</v>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>kaltaak@indianoil.in</v>
+      </c>
+      <c r="B482" t="str">
+        <v>2025-12-13T12:37:52.204Z</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>dasharaths@indianoil.in</v>
+      </c>
+      <c r="B483" t="str">
+        <v>2025-12-13T12:41:03.193Z</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>darshana@indianoil.in</v>
+      </c>
+      <c r="B484" t="str">
+        <v>2025-12-13T12:41:03.193Z</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>tiwariak@indianoil.in</v>
+      </c>
+      <c r="B485" t="str">
+        <v>2025-12-13T12:43:00.402Z</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>santosh_kumar@indianoil.in</v>
+      </c>
+      <c r="B486" t="str">
+        <v>2025-12-13T12:43:00.402Z</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v>rakeshk3@indianoil.in</v>
+      </c>
+      <c r="B487" t="str">
+        <v>2025-12-13T12:43:00.402Z</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D481"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D487"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12189,7 +12273,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14538,16 +14622,72 @@
         <v>2025-12-12T18:36:24.663Z</v>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>shivaprasada@mrpl.co.in</v>
+      </c>
+      <c r="B168" t="str">
+        <v>2025-12-13T12:34:54.140Z</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>jinprabuddha@mrpl.co.in</v>
+      </c>
+      <c r="B169" t="str">
+        <v>2025-12-13T12:39:24.663Z</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>jivlal.pandit@mrpl.co.in</v>
+      </c>
+      <c r="B170" t="str">
+        <v>2025-12-13T12:41:46.959Z</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>raveendra_r@mrpl.co.in</v>
+      </c>
+      <c r="B171" t="str">
+        <v>2025-12-13T12:41:46.959Z</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D167"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D171"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D381"/>
+  <dimension ref="A1:D386"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19892,16 +20032,86 @@
         <v>2025-12-13T06:34:18.464Z</v>
       </c>
     </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>darlajohnson@bharatpetroleum.in</v>
+      </c>
+      <c r="B382" t="str">
+        <v>2025-12-13T12:35:45.788Z</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>sajidabraham@bharatpetroleum.in</v>
+      </c>
+      <c r="B383" t="str">
+        <v>2025-12-13T12:35:45.788Z</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>himanshusingh001@bharatpetroleum.in</v>
+      </c>
+      <c r="B384" t="str">
+        <v>2025-12-13T12:37:52.105Z</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>chouhanjr@bharatpetroleum.in</v>
+      </c>
+      <c r="B385" t="str">
+        <v>2025-12-13T12:42:35.458Z</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>sonusbabu@bharatpetroleum.in</v>
+      </c>
+      <c r="B386" t="str">
+        <v>2025-12-13T12:42:49.977Z</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D381"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D386"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21438,16 +21648,72 @@
         <v>2025-12-12T18:36:24.663Z</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>skchaurasia@gail.co.in</v>
+      </c>
+      <c r="B110" t="str">
+        <v>2025-12-13T12:32:53.407Z</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>sadhan.guntru@gail.co.in</v>
+      </c>
+      <c r="B111" t="str">
+        <v>2025-12-13T12:32:53.407Z</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>roshandungdung@gail.co.in</v>
+      </c>
+      <c r="B112" t="str">
+        <v>2025-12-13T12:32:53.407Z</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>s.gedam@gail.co.in</v>
+      </c>
+      <c r="B113" t="str">
+        <v>2025-12-13T12:32:53.407Z</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D109"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D113"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D434"/>
+  <dimension ref="A1:D437"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27534,9 +27800,51 @@
         <v>2025-12-13T06:34:18.464Z</v>
       </c>
     </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>ksdeepak@hpcl.in</v>
+      </c>
+      <c r="B435" t="str">
+        <v>2025-12-13T12:38:49.594Z</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>hemantkumar.meena@hpcl.in</v>
+      </c>
+      <c r="B436" t="str">
+        <v>2025-12-13T12:41:57.419Z</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>bhtp.irdic@hpcl.in</v>
+      </c>
+      <c r="B437" t="str">
+        <v>2025-12-13T12:41:57.419Z</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437" t="str">
+        <v>2025-12-13T12:45:04.414Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D434"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D437"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -3113,7 +3113,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D487"/>
+  <dimension ref="A1:D489"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9942,9 +9942,37 @@
         <v>2025-12-13T12:45:04.414Z</v>
       </c>
     </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>biswasa3@indianoil.in</v>
+      </c>
+      <c r="B488" t="str">
+        <v>2025-12-14T00:32:50.485Z</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488" t="str">
+        <v>2025-12-14T00:34:12.145Z</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>agarwalrp@indianoil.in</v>
+      </c>
+      <c r="B489" t="str">
+        <v>2025-12-14T00:32:50.485Z</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489" t="str">
+        <v>2025-12-14T00:34:12.145Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D487"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D489"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12273,7 +12301,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14678,16 +14706,44 @@
         <v>2025-12-13T12:45:04.414Z</v>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>aadhil@mrpl.co.in</v>
+      </c>
+      <c r="B172" t="str">
+        <v>2025-12-14T00:30:40.213Z</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="str">
+        <v>2025-12-14T00:34:12.145Z</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>rupak_kumar@mrpl.co.in</v>
+      </c>
+      <c r="B173" t="str">
+        <v>2025-12-14T00:30:40.213Z</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173" t="str">
+        <v>2025-12-14T00:34:12.145Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D171"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D173"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D386"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20102,16 +20158,30 @@
         <v>2025-12-13T12:45:04.414Z</v>
       </c>
     </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>rajeshnayak@bharatpetroleum.in</v>
+      </c>
+      <c r="B387" t="str">
+        <v>2025-12-14T00:33:56.409Z</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387" t="str">
+        <v>2025-12-14T00:34:12.145Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D386"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D387"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21704,16 +21774,30 @@
         <v>2025-12-13T12:45:04.414Z</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>sagar.nagaich@gail.co.in</v>
+      </c>
+      <c r="B114" t="str">
+        <v>2025-12-14T00:32:30.806Z</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="str">
+        <v>2025-12-14T00:34:12.145Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D113"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D114"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D437"/>
+  <dimension ref="A1:D441"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27842,9 +27926,65 @@
         <v>2025-12-13T12:45:04.414Z</v>
       </c>
     </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>iteeipsita@hpcl.in</v>
+      </c>
+      <c r="B438" t="str">
+        <v>2025-12-14T00:30:41.989Z</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438" t="str">
+        <v>2025-12-14T00:34:12.145Z</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>satyam.kumar@hpcl.in</v>
+      </c>
+      <c r="B439" t="str">
+        <v>2025-12-14T00:33:35.330Z</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439" t="str">
+        <v>2025-12-14T00:34:12.145Z</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>prashanttbhure@hpcl.in</v>
+      </c>
+      <c r="B440" t="str">
+        <v>2025-12-14T00:33:35.330Z</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440" t="str">
+        <v>2025-12-14T00:34:12.145Z</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>hmaxim.noronha@hpcl.in</v>
+      </c>
+      <c r="B441" t="str">
+        <v>2025-12-14T00:33:47.798Z</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441" t="str">
+        <v>2025-12-14T00:34:12.145Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D437"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D441"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -3113,7 +3113,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D489"/>
+  <dimension ref="A1:D490"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9970,9 +9970,23 @@
         <v>2025-12-14T00:34:12.145Z</v>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>pradiptap@indianoil.in</v>
+      </c>
+      <c r="B490" t="str">
+        <v>2025-12-14T12:32:54.898Z</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490" t="str">
+        <v>2025-12-14T12:33:02.428Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D489"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D490"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -14757,7 +14757,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:D388"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20186,9 +20186,23 @@
         <v>2025-12-14T00:34:12.145Z</v>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>kureshisaberibr@bharatpetroleum.in</v>
+      </c>
+      <c r="B388" t="str">
+        <v>2025-12-15T00:33:24.275Z</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388" t="str">
+        <v>2025-12-15T00:33:31.770Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D387"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D388"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -21811,7 +21825,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D441"/>
+  <dimension ref="A1:D442"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27996,9 +28010,23 @@
         <v>2025-12-14T00:34:12.145Z</v>
       </c>
     </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>subhajit.mallick@hpcl.in</v>
+      </c>
+      <c r="B442" t="str">
+        <v>2025-12-15T00:33:07.154Z</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442" t="str">
+        <v>2025-12-15T00:33:31.770Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D441"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D442"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -3113,7 +3113,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D490"/>
+  <dimension ref="A1:D492"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9984,9 +9984,37 @@
         <v>2025-12-14T12:33:02.428Z</v>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>kunaljoshan@indianoil.in</v>
+      </c>
+      <c r="B491" t="str">
+        <v>2025-12-15T06:30:39.891Z</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491" t="str">
+        <v>2025-12-15T06:35:06.628Z</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>kadamkp@indianoil.in</v>
+      </c>
+      <c r="B492" t="str">
+        <v>2025-12-15T06:34:27.472Z</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492" t="str">
+        <v>2025-12-15T06:35:06.628Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D490"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D492"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12315,7 +12343,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14748,9 +14776,37 @@
         <v>2025-12-14T00:34:12.145Z</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>sugat_chem@mrpl.co.in</v>
+      </c>
+      <c r="B174" t="str">
+        <v>2025-12-15T06:33:09.401Z</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174" t="str">
+        <v>2025-12-15T06:35:06.628Z</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>kanchandeshwal@mrpl.co.in</v>
+      </c>
+      <c r="B175" t="str">
+        <v>2025-12-15T06:33:09.401Z</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175" t="str">
+        <v>2025-12-15T06:35:06.628Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D173"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D175"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -20209,7 +20265,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21816,16 +21872,30 @@
         <v>2025-12-14T00:34:12.145Z</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>dgeorge@gail.co.in</v>
+      </c>
+      <c r="B115" t="str">
+        <v>2025-12-15T06:33:30.066Z</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="str">
+        <v>2025-12-15T06:35:06.628Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D114"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D115"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D442"/>
+  <dimension ref="A1:D446"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28024,9 +28094,65 @@
         <v>2025-12-15T00:33:31.770Z</v>
       </c>
     </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>ashishkumar@hpcl.in</v>
+      </c>
+      <c r="B443" t="str">
+        <v>2025-12-15T06:34:16.346Z</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443" t="str">
+        <v>2025-12-15T06:35:06.628Z</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>shailendraverma@hpcl.in</v>
+      </c>
+      <c r="B444" t="str">
+        <v>2025-12-15T06:34:33.284Z</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444" t="str">
+        <v>2025-12-15T06:35:06.628Z</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>bharathmanoj.sunduru@hpcl.in</v>
+      </c>
+      <c r="B445" t="str">
+        <v>2025-12-15T06:34:59.140Z</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445" t="str">
+        <v>2025-12-15T06:35:06.628Z</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>anuptoppo@hpcl.in</v>
+      </c>
+      <c r="B446" t="str">
+        <v>2025-12-15T06:34:59.140Z</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446" t="str">
+        <v>2025-12-15T06:35:06.628Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D442"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D446"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2324,9 +2324,23 @@
         <v>2025-12-13T00:33:47.121Z</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>beri_akshara@ongc.co.in</v>
+      </c>
+      <c r="B137" t="str">
+        <v>2025-12-15T12:32:45.089Z</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D136"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D137"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3113,7 +3127,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D492"/>
+  <dimension ref="A1:D500"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10012,16 +10026,128 @@
         <v>2025-12-15T06:35:06.628Z</v>
       </c>
     </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>sandeepk3@indianoil.in</v>
+      </c>
+      <c r="B493" t="str">
+        <v>2025-12-15T12:34:38.434Z</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>sachint@indianoil.in</v>
+      </c>
+      <c r="B494" t="str">
+        <v>2025-12-15T12:34:38.434Z</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>dasak6@indianoil.in</v>
+      </c>
+      <c r="B495" t="str">
+        <v>2025-12-15T12:34:38.434Z</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>rahula@indianoil.in</v>
+      </c>
+      <c r="B496" t="str">
+        <v>2025-12-15T12:35:07.117Z</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>sayantan_mondal@indianoil.in</v>
+      </c>
+      <c r="B497" t="str">
+        <v>2025-12-15T12:35:55.544Z</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>ojhat@indianoil.in</v>
+      </c>
+      <c r="B498" t="str">
+        <v>2025-12-15T12:36:03.808Z</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>bhutaniv@indianoil.in</v>
+      </c>
+      <c r="B499" t="str">
+        <v>2025-12-15T12:36:22.724Z</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>kumarawaneesh@indianoil.in</v>
+      </c>
+      <c r="B500" t="str">
+        <v>2025-12-15T12:36:22.724Z</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="D500" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D492"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D500"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11166,16 +11292,44 @@
         <v>2025-12-12T18:36:24.663Z</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>pranati@oilindia.in</v>
+      </c>
+      <c r="B82" t="str">
+        <v>2025-12-15T12:33:01.475Z</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>hrr@oilindia.in</v>
+      </c>
+      <c r="B83" t="str">
+        <v>2025-12-15T12:33:01.475Z</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D81"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D83"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12334,16 +12488,30 @@
         <v>2025-12-12T18:36:24.663Z</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>bratin.biswas@eil.co.in</v>
+      </c>
+      <c r="B83" t="str">
+        <v>2025-12-15T12:36:37.940Z</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D82"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D83"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14804,16 +14972,30 @@
         <v>2025-12-15T06:35:06.628Z</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>manoj.dilip@mrpl.co.in</v>
+      </c>
+      <c r="B176" t="str">
+        <v>2025-12-15T12:33:23.359Z</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D175"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D176"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D388"/>
+  <dimension ref="A1:D394"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20256,16 +20438,100 @@
         <v>2025-12-15T00:33:31.770Z</v>
       </c>
     </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>rohitpal@bharatpetroleum.in</v>
+      </c>
+      <c r="B389" t="str">
+        <v>2025-12-15T12:31:15.405Z</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>nileshmadhukarr@bharatpetroleum.in</v>
+      </c>
+      <c r="B390" t="str">
+        <v>2025-12-15T12:32:09.704Z</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>harshwardhancha@bharatpetroleum.in</v>
+      </c>
+      <c r="B391" t="str">
+        <v>2025-12-15T12:32:27.566Z</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>sachdevs@bharatpetroleum.in</v>
+      </c>
+      <c r="B392" t="str">
+        <v>2025-12-15T12:32:27.566Z</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>jayendrannairmk@bharatpetroleum.in</v>
+      </c>
+      <c r="B393" t="str">
+        <v>2025-12-15T12:33:29.997Z</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>kanurisatyanara@bharatpetroleum.in</v>
+      </c>
+      <c r="B394" t="str">
+        <v>2025-12-15T12:35:00.070Z</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D388"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D394"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21886,16 +22152,100 @@
         <v>2025-12-15T06:35:06.628Z</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>ajesh.debbarma@gail.co.in</v>
+      </c>
+      <c r="B116" t="str">
+        <v>2025-12-15T12:28:58.287Z</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>sk08536@gail.co.in</v>
+      </c>
+      <c r="B117" t="str">
+        <v>2025-12-15T12:28:58.287Z</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>pranjali.bhadauria@gail.co.in</v>
+      </c>
+      <c r="B118" t="str">
+        <v>2025-12-15T12:33:04.066Z</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>nitesh.bhat@gail.co.in</v>
+      </c>
+      <c r="B119" t="str">
+        <v>2025-12-15T12:33:04.066Z</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>ramsevak@gail.co.in</v>
+      </c>
+      <c r="B120" t="str">
+        <v>2025-12-15T12:34:01.689Z</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>sindhu.muriki@gail.co.in</v>
+      </c>
+      <c r="B121" t="str">
+        <v>2025-12-15T12:34:01.689Z</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D115"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D121"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D446"/>
+  <dimension ref="A1:D455"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28150,9 +28500,135 @@
         <v>2025-12-15T06:35:06.628Z</v>
       </c>
     </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>abhinav.kumar2@hpcl.in</v>
+      </c>
+      <c r="B447" t="str">
+        <v>2025-12-15T12:31:21.680Z</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>ajaig@hpcl.in</v>
+      </c>
+      <c r="B448" t="str">
+        <v>2025-12-15T12:31:40.440Z</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>sachin.sharma@hpcl.in</v>
+      </c>
+      <c r="B449" t="str">
+        <v>2025-12-15T12:33:04.161Z</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>suresh.boddati@hpcl.in</v>
+      </c>
+      <c r="B450" t="str">
+        <v>2025-12-15T12:33:45.280Z</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>gurdeepsingh@hpcl.in</v>
+      </c>
+      <c r="B451" t="str">
+        <v>2025-12-15T12:33:45.280Z</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>prabhatkumar@hpcl.in</v>
+      </c>
+      <c r="B452" t="str">
+        <v>2025-12-15T12:35:19.811Z</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>ndutta@hpcl.in</v>
+      </c>
+      <c r="B453" t="str">
+        <v>2025-12-15T12:35:19.811Z</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>shahryab.shahryab@hpcl.in</v>
+      </c>
+      <c r="B454" t="str">
+        <v>2025-12-15T12:35:31.356Z</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>vijaykumar.yadav@hpcl.in</v>
+      </c>
+      <c r="B455" t="str">
+        <v>2025-12-15T12:36:19.914Z</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455" t="str">
+        <v>2025-12-15T12:37:32.686Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D446"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D455"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -2815,7 +2815,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2938,9 +2938,23 @@
         <v>2025-12-11T12:40:15.068Z</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>senthil.ayyanar@petronetmhbl.com</v>
+      </c>
+      <c r="B9" t="str">
+        <v>2025-12-15T18:33:36.419Z</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2025-12-15T18:34:19.333Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3127,7 +3141,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D500"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10138,9 +10152,23 @@
         <v>2025-12-15T12:37:32.686Z</v>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>harvinder_singh@indianoil.in</v>
+      </c>
+      <c r="B501" t="str">
+        <v>2025-12-15T18:33:10.956Z</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501" t="str">
+        <v>2025-12-15T18:34:19.333Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D500"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D501"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -11329,7 +11357,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12502,9 +12530,23 @@
         <v>2025-12-15T12:37:32.686Z</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>anmol.vyas@eil.co.in</v>
+      </c>
+      <c r="B84" t="str">
+        <v>2025-12-15T18:30:42.585Z</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="str">
+        <v>2025-12-15T18:34:19.333Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D83"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D84"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -14995,7 +15037,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D394"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20522,16 +20564,114 @@
         <v>2025-12-15T12:37:32.686Z</v>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>rameshcdinesh@bharatpetroleum.in</v>
+      </c>
+      <c r="B395" t="str">
+        <v>2025-12-15T18:28:30.989Z</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395" t="str">
+        <v>2025-12-15T18:34:19.333Z</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>harshmartand@bharatpetroleum.in</v>
+      </c>
+      <c r="B396" t="str">
+        <v>2025-12-15T18:28:30.989Z</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396" t="str">
+        <v>2025-12-15T18:34:19.333Z</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>vijayharshit@bharatpetroleum.in</v>
+      </c>
+      <c r="B397" t="str">
+        <v>2025-12-15T18:30:38.737Z</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397" t="str">
+        <v>2025-12-15T18:34:19.333Z</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>sanathkumarshet@bharatpetroleum.in</v>
+      </c>
+      <c r="B398" t="str">
+        <v>2025-12-15T18:30:52.077Z</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398" t="str">
+        <v>2025-12-15T18:34:19.333Z</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>naradmunigupta001@bharatpetroleum.in</v>
+      </c>
+      <c r="B399" t="str">
+        <v>2025-12-15T18:30:52.077Z</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399" t="str">
+        <v>2025-12-15T18:34:19.333Z</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>mehulshah@bharatpetroleum.in</v>
+      </c>
+      <c r="B400" t="str">
+        <v>2025-12-15T18:32:49.881Z</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400" t="str">
+        <v>2025-12-15T18:34:19.333Z</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>vinaysharma@bharatpetroleum.in</v>
+      </c>
+      <c r="B401" t="str">
+        <v>2025-12-15T18:33:12.873Z</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+      <c r="D401" t="str">
+        <v>2025-12-15T18:34:19.333Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D394"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D401"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22236,9 +22376,37 @@
         <v>2025-12-15T12:37:32.686Z</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>s_yadav@gail.co.in</v>
+      </c>
+      <c r="B122" t="str">
+        <v>2025-12-15T18:32:49.738Z</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="str">
+        <v>2025-12-15T18:34:19.333Z</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>manishkumarnayak@gail.co.in</v>
+      </c>
+      <c r="B123" t="str">
+        <v>2025-12-15T18:33:22.105Z</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="str">
+        <v>2025-12-15T18:34:19.333Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D121"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D123"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -3141,7 +3141,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D501"/>
+  <dimension ref="A1:D503"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10166,9 +10166,37 @@
         <v>2025-12-15T18:34:19.333Z</v>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>jaiswalankit@indianoil.in</v>
+      </c>
+      <c r="B502" t="str">
+        <v>2025-12-16T00:30:17.411Z</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502" t="str">
+        <v>2025-12-16T00:32:37.306Z</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>alankit@indianoil.in</v>
+      </c>
+      <c r="B503" t="str">
+        <v>2025-12-16T00:30:17.411Z</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503" t="str">
+        <v>2025-12-16T00:32:37.306Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D501"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D503"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2338,9 +2338,23 @@
         <v>2025-12-15T12:37:32.686Z</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>prasad_motilal@ongc.co.in</v>
+      </c>
+      <c r="B138" t="str">
+        <v>2025-12-16T06:36:25.542Z</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D137"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D138"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3141,7 +3155,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D503"/>
+  <dimension ref="A1:D509"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10194,16 +10208,100 @@
         <v>2025-12-16T00:32:37.306Z</v>
       </c>
     </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>barhathbd@indianoil.in</v>
+      </c>
+      <c r="B504" t="str">
+        <v>2025-12-16T06:33:05.548Z</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>sadhub@indianoil.in</v>
+      </c>
+      <c r="B505" t="str">
+        <v>2025-12-16T06:35:02.606Z</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>brahmad@indianoil.in</v>
+      </c>
+      <c r="B506" t="str">
+        <v>2025-12-16T06:35:23.894Z</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+      <c r="D506" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>singhdp@indianoil.in</v>
+      </c>
+      <c r="B507" t="str">
+        <v>2025-12-16T06:35:41.677Z</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>prajapatijs@indianoil.in</v>
+      </c>
+      <c r="B508" t="str">
+        <v>2025-12-16T06:35:42.101Z</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>vaneetb@indianoil.in</v>
+      </c>
+      <c r="B509" t="str">
+        <v>2025-12-16T06:37:39.190Z</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D503"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D509"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11376,9 +11474,23 @@
         <v>2025-12-15T12:37:32.686Z</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>chunduri.ramkumar@oilindia.in</v>
+      </c>
+      <c r="B84" t="str">
+        <v>2025-12-16T06:33:49.597Z</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D83"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D84"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12581,7 +12693,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15056,16 +15168,58 @@
         <v>2025-12-15T12:37:32.686Z</v>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>dibyendu_saha@mrpl.co.in</v>
+      </c>
+      <c r="B177" t="str">
+        <v>2025-12-16T06:36:16.079Z</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>suri@mrpl.co.in</v>
+      </c>
+      <c r="B178" t="str">
+        <v>2025-12-16T06:36:16.079Z</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>shailendra.sagar@mrpl.co.in</v>
+      </c>
+      <c r="B179" t="str">
+        <v>2025-12-16T06:36:23.539Z</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D176"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D179"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D401"/>
+  <dimension ref="A1:D403"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20690,9 +20844,37 @@
         <v>2025-12-15T18:34:19.333Z</v>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>prathanadas@bharatpetroleum.in</v>
+      </c>
+      <c r="B402" t="str">
+        <v>2025-12-16T06:36:15.878Z</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>rajurameshthaka@bharatpetroleum.in</v>
+      </c>
+      <c r="B403" t="str">
+        <v>2025-12-16T06:37:05.228Z</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D401"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D403"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -22441,7 +22623,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D455"/>
+  <dimension ref="A1:D459"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28822,9 +29004,65 @@
         <v>2025-12-15T12:37:32.686Z</v>
       </c>
     </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>guguloth.ravindar@hpcl.in</v>
+      </c>
+      <c r="B456" t="str">
+        <v>2025-12-16T06:34:02.674Z</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>venkata.chekuri@hpcl.in</v>
+      </c>
+      <c r="B457" t="str">
+        <v>2025-12-16T06:34:02.674Z</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>vishnuvardhanb@hpcl.in</v>
+      </c>
+      <c r="B458" t="str">
+        <v>2025-12-16T06:36:17.702Z</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>rishadahammed.k@hpcl.in</v>
+      </c>
+      <c r="B459" t="str">
+        <v>2025-12-16T06:36:17.702Z</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459" t="str">
+        <v>2025-12-16T06:37:46.691Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D455"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D459"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2352,9 +2352,23 @@
         <v>2025-12-16T06:37:46.691Z</v>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>helpdesk_vims@ongc.co.in</v>
+      </c>
+      <c r="B139" t="str">
+        <v>2025-12-16T12:36:52.134Z</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D138"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D139"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3155,7 +3169,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D509"/>
+  <dimension ref="A1:D518"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10292,9 +10306,135 @@
         <v>2025-12-16T06:37:46.691Z</v>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>vsundar@indianoil.in</v>
+      </c>
+      <c r="B510" t="str">
+        <v>2025-12-16T12:31:30.631Z</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>kumarpraveen2@indianoil.in</v>
+      </c>
+      <c r="B511" t="str">
+        <v>2025-12-16T12:31:53.618Z</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>shashank4@indianoil.in</v>
+      </c>
+      <c r="B512" t="str">
+        <v>2025-12-16T12:32:42.277Z</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>kumars37@indianoil.in</v>
+      </c>
+      <c r="B513" t="str">
+        <v>2025-12-16T12:33:13.481Z</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>rajoriap@indianoil.in</v>
+      </c>
+      <c r="B514" t="str">
+        <v>2025-12-16T12:33:40.220Z</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>barmanabhijit@indianoil.in</v>
+      </c>
+      <c r="B515" t="str">
+        <v>2025-12-16T12:35:31.735Z</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>raveshd@indianoil.in</v>
+      </c>
+      <c r="B516" t="str">
+        <v>2025-12-16T12:36:22.375Z</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+      <c r="D516" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>samadrita@indianoil.in</v>
+      </c>
+      <c r="B517" t="str">
+        <v>2025-12-16T12:36:27.244Z</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+      <c r="D517" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>rdua@indianoil.in</v>
+      </c>
+      <c r="B518" t="str">
+        <v>2025-12-16T12:36:53.935Z</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+      <c r="D518" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D509"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D518"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12693,7 +12833,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15210,16 +15350,58 @@
         <v>2025-12-16T06:37:46.691Z</v>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>sarathkumar@mrpl.co.in</v>
+      </c>
+      <c r="B180" t="str">
+        <v>2025-12-16T12:31:34.280Z</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>arjunpm@mrpl.co.in</v>
+      </c>
+      <c r="B181" t="str">
+        <v>2025-12-16T12:35:38.144Z</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>manikantan.n@mrpl.co.in</v>
+      </c>
+      <c r="B182" t="str">
+        <v>2025-12-16T12:35:38.144Z</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D179"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D182"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D403"/>
+  <dimension ref="A1:D405"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20872,9 +21054,37 @@
         <v>2025-12-16T06:37:46.691Z</v>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>baijurnair@bharatpetroleum.in</v>
+      </c>
+      <c r="B404" t="str">
+        <v>2025-12-16T12:29:56.028Z</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>santoshptajne@bharatpetroleum.in</v>
+      </c>
+      <c r="B405" t="str">
+        <v>2025-12-16T12:34:47.011Z</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D403"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D405"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -22623,7 +22833,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D459"/>
+  <dimension ref="A1:D469"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29060,9 +29270,149 @@
         <v>2025-12-16T06:37:46.691Z</v>
       </c>
     </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>sampada.kharpate@hpcl.in</v>
+      </c>
+      <c r="B460" t="str">
+        <v>2025-12-16T12:31:52.725Z</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>aramanathan@hpcl.in</v>
+      </c>
+      <c r="B461" t="str">
+        <v>2025-12-16T12:31:52.725Z</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>vinitksharma@hpcl.in</v>
+      </c>
+      <c r="B462" t="str">
+        <v>2025-12-16T12:31:52.725Z</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>ashokk.s@hpcl.in</v>
+      </c>
+      <c r="B463" t="str">
+        <v>2025-12-16T12:31:52.770Z</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>oswinkminj@hpcl.in</v>
+      </c>
+      <c r="B464" t="str">
+        <v>2025-12-16T12:32:06.361Z</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>chandraveer.singh@hpcl.in</v>
+      </c>
+      <c r="B465" t="str">
+        <v>2025-12-16T12:33:19.474Z</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>pradeepg@hpcl.in</v>
+      </c>
+      <c r="B466" t="str">
+        <v>2025-12-16T12:34:51.886Z</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>purnea.lpgpic@hpcl.in</v>
+      </c>
+      <c r="B467" t="str">
+        <v>2025-12-16T12:35:38.070Z</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>soumitra.jaiswal@hpcl.in</v>
+      </c>
+      <c r="B468" t="str">
+        <v>2025-12-16T12:35:38.070Z</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>lokesh.thakur@hpcl.in</v>
+      </c>
+      <c r="B469" t="str">
+        <v>2025-12-16T12:36:57.827Z</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469" t="str">
+        <v>2025-12-16T12:37:05.367Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D459"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D469"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -3169,7 +3169,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D518"/>
+  <dimension ref="A1:D520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10432,9 +10432,37 @@
         <v>2025-12-16T12:37:05.367Z</v>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>malviyaa@indianoil.in</v>
+      </c>
+      <c r="B519" t="str">
+        <v>2025-12-16T18:32:15.616Z</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+      <c r="D519" t="str">
+        <v>2025-12-16T18:34:27.628Z</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>pssk@indianoil.in</v>
+      </c>
+      <c r="B520" t="str">
+        <v>2025-12-16T18:32:15.921Z</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="D520" t="str">
+        <v>2025-12-16T18:34:27.628Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D518"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D520"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -15401,7 +15429,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D405"/>
+  <dimension ref="A1:D409"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21082,9 +21110,65 @@
         <v>2025-12-16T12:37:05.367Z</v>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>sachinsharma@bharatpetroleum.in</v>
+      </c>
+      <c r="B406" t="str">
+        <v>2025-12-16T18:30:51.854Z</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406" t="str">
+        <v>2025-12-16T18:34:27.628Z</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>dommetiudayvara@bharatpetroleum.in</v>
+      </c>
+      <c r="B407" t="str">
+        <v>2025-12-16T18:33:28.127Z</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407" t="str">
+        <v>2025-12-16T18:34:27.628Z</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>krishnaraj@bharatpetroleum.in</v>
+      </c>
+      <c r="B408" t="str">
+        <v>2025-12-16T18:33:47.703Z</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408" t="str">
+        <v>2025-12-16T18:34:27.628Z</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>manoratansingh@bharatpetroleum.in</v>
+      </c>
+      <c r="B409" t="str">
+        <v>2025-12-16T18:33:47.703Z</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409" t="str">
+        <v>2025-12-16T18:34:27.628Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D405"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D409"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -22833,7 +22917,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D469"/>
+  <dimension ref="A1:D472"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29410,9 +29494,51 @@
         <v>2025-12-16T12:37:05.367Z</v>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>koradanutanprudhvi.rajasekhar@hpcl.in</v>
+      </c>
+      <c r="B470" t="str">
+        <v>2025-12-16T18:31:10.953Z</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470" t="str">
+        <v>2025-12-16T18:34:27.628Z</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>deepshikha.shukla@hpcl.in</v>
+      </c>
+      <c r="B471" t="str">
+        <v>2025-12-16T18:34:10.419Z</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="D471" t="str">
+        <v>2025-12-16T18:34:27.628Z</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>arpit.garg@hpcl.in</v>
+      </c>
+      <c r="B472" t="str">
+        <v>2025-12-16T18:34:13.063Z</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472" t="str">
+        <v>2025-12-16T18:34:27.628Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D469"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D472"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -3169,7 +3169,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D520"/>
+  <dimension ref="A1:D526"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10460,9 +10460,93 @@
         <v>2025-12-16T18:34:27.628Z</v>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>ghohsn@indianoil.in</v>
+      </c>
+      <c r="B521" t="str">
+        <v>2025-12-17T06:33:44.094Z</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+      <c r="D521" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>ghoshn@indianoil.in</v>
+      </c>
+      <c r="B522" t="str">
+        <v>2025-12-17T06:33:44.094Z</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+      <c r="D522" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>bhavani@indianoil.in</v>
+      </c>
+      <c r="B523" t="str">
+        <v>2025-12-17T06:35:08.066Z</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+      <c r="D523" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>tamgadgedr@indianoil.in</v>
+      </c>
+      <c r="B524" t="str">
+        <v>2025-12-17T06:35:08.066Z</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>barnwalbk@indianoil.in</v>
+      </c>
+      <c r="B525" t="str">
+        <v>2025-12-17T06:35:08.129Z</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+      <c r="D525" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>amankmr@indianoil.in</v>
+      </c>
+      <c r="B526" t="str">
+        <v>2025-12-17T06:35:08.129Z</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+      <c r="D526" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D520"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D526"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -15429,7 +15513,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D409"/>
+  <dimension ref="A1:D414"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21166,9 +21250,79 @@
         <v>2025-12-16T18:34:27.628Z</v>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>gurpreetsingh001@bharatpetroleum.in</v>
+      </c>
+      <c r="B410" t="str">
+        <v>2025-12-17T06:31:10.579Z</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>p_cpo-m_pm1_group9@bharatpetroleum.in</v>
+      </c>
+      <c r="B411" t="str">
+        <v>2025-12-17T06:32:11.485Z</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>p_cpo-m_pl_group9@bharatpetroleum.in</v>
+      </c>
+      <c r="B412" t="str">
+        <v>2025-12-17T06:32:11.485Z</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>ravikumarcv@bharatpetroleum.in</v>
+      </c>
+      <c r="B413" t="str">
+        <v>2025-12-17T06:32:11.485Z</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>sebastianj@bharatpetroleum.in</v>
+      </c>
+      <c r="B414" t="str">
+        <v>2025-12-17T06:32:11.485Z</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D409"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D414"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -22917,7 +23071,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D472"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29536,9 +29690,107 @@
         <v>2025-12-16T18:34:27.628Z</v>
       </c>
     </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>vivekkumar.meena@hpcl.in</v>
+      </c>
+      <c r="B473" t="str">
+        <v>2025-12-17T06:32:45.115Z</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>knarayanan@hpcl.in</v>
+      </c>
+      <c r="B474" t="str">
+        <v>2025-12-17T06:33:10.560Z</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v>mohanraju.karuppannan@hpcl.in</v>
+      </c>
+      <c r="B475" t="str">
+        <v>2025-12-17T06:33:10.560Z</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>viptotla@hpcl.in</v>
+      </c>
+      <c r="B476" t="str">
+        <v>2025-12-17T06:33:31.917Z</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+      <c r="D476" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>chethan.bagoor@hpcl.in</v>
+      </c>
+      <c r="B477" t="str">
+        <v>2025-12-17T06:33:31.917Z</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v>suraj.sharma@hpcl.in</v>
+      </c>
+      <c r="B478" t="str">
+        <v>2025-12-17T06:33:31.917Z</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+      <c r="D478" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>shivam.singh2@hpcl.in</v>
+      </c>
+      <c r="B479" t="str">
+        <v>2025-12-17T06:35:26.957Z</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479" t="str">
+        <v>2025-12-17T06:35:52.108Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D472"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D479"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2366,9 +2366,37 @@
         <v>2025-12-16T12:37:05.367Z</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>invoices@ongc.co.in</v>
+      </c>
+      <c r="B140" t="str">
+        <v>2025-12-17T12:36:18.640Z</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>mudliyar_yogesh@ongc.co.in</v>
+      </c>
+      <c r="B141" t="str">
+        <v>2025-12-17T12:36:18.640Z</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D139"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D141"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3169,7 +3197,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D543"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10544,16 +10572,254 @@
         <v>2025-12-17T06:35:52.108Z</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>shuklas3@indianoil.in</v>
+      </c>
+      <c r="B527" t="str">
+        <v>2025-12-17T12:31:19.740Z</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+      <c r="D527" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>dntripathy@indianoil.in</v>
+      </c>
+      <c r="B528" t="str">
+        <v>2025-12-17T12:31:19.744Z</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+      <c r="D528" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>arvindm@indianoil.in</v>
+      </c>
+      <c r="B529" t="str">
+        <v>2025-12-17T12:31:19.744Z</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+      <c r="D529" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>sobransingh@indianoil.in</v>
+      </c>
+      <c r="B530" t="str">
+        <v>2025-12-17T12:31:44.508Z</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>jonwalc@indianoil.in</v>
+      </c>
+      <c r="B531" t="str">
+        <v>2025-12-17T12:32:47.874Z</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+      <c r="D531" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>vermaka@indianoil.in</v>
+      </c>
+      <c r="B532" t="str">
+        <v>2025-12-17T12:32:47.874Z</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+      <c r="D532" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>arunsharma@indianoil.in</v>
+      </c>
+      <c r="B533" t="str">
+        <v>2025-12-17T12:32:47.874Z</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>kskumar@indianoil.in</v>
+      </c>
+      <c r="B534" t="str">
+        <v>2025-12-17T12:32:47.920Z</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>kothiyala@indianoil.in</v>
+      </c>
+      <c r="B535" t="str">
+        <v>2025-12-17T12:33:05.099Z</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>kavitahazarika@indianoil.in</v>
+      </c>
+      <c r="B536" t="str">
+        <v>2025-12-17T12:33:15.998Z</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+      <c r="D536" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>cssrijith@indianoil.in</v>
+      </c>
+      <c r="B537" t="str">
+        <v>2025-12-17T12:33:54.109Z</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+      <c r="D537" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>sugatogupta@indianoil.in</v>
+      </c>
+      <c r="B538" t="str">
+        <v>2025-12-17T12:34:29.585Z</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+      <c r="D538" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>vikasa@indianoil.in</v>
+      </c>
+      <c r="B539" t="str">
+        <v>2025-12-17T12:34:41.757Z</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+      <c r="D539" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>ahmadmr@indianoil.in</v>
+      </c>
+      <c r="B540" t="str">
+        <v>2025-12-17T12:35:14.293Z</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+      <c r="D540" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>goyalh1@indianoil.in</v>
+      </c>
+      <c r="B541" t="str">
+        <v>2025-12-17T12:35:38.248Z</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+      <c r="D541" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>eldhosep@indianoil.in</v>
+      </c>
+      <c r="B542" t="str">
+        <v>2025-12-17T12:35:38.248Z</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+      <c r="D542" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>cprasannakumar@indianoil.in</v>
+      </c>
+      <c r="B543" t="str">
+        <v>2025-12-17T12:36:40.229Z</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D526"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D543"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11740,9 +12006,51 @@
         <v>2025-12-16T06:37:46.691Z</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>abhishek_baruah@oilindia.in</v>
+      </c>
+      <c r="B85" t="str">
+        <v>2025-12-17T12:34:07.141Z</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>corporate_cnp@oilindia.in</v>
+      </c>
+      <c r="B86" t="str">
+        <v>2025-12-17T12:36:36.437Z</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>arunjyoti@oilindia.in</v>
+      </c>
+      <c r="B87" t="str">
+        <v>2025-12-17T12:36:36.437Z</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D84"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D87"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12945,7 +13253,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15504,16 +15812,44 @@
         <v>2025-12-16T12:37:05.367Z</v>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>pankaj_kn@mrpl.co.in</v>
+      </c>
+      <c r="B183" t="str">
+        <v>2025-12-17T12:34:55.612Z</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>vidyasagar@mrpl.co.in</v>
+      </c>
+      <c r="B184" t="str">
+        <v>2025-12-17T12:35:05.947Z</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D182"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D184"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D414"/>
+  <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21320,9 +21656,65 @@
         <v>2025-12-17T06:35:52.108Z</v>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>ankitkumardahiy@bharatpetroleum.in</v>
+      </c>
+      <c r="B415" t="str">
+        <v>2025-12-17T12:36:24.921Z</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>manabp@bharatpetroleum.in</v>
+      </c>
+      <c r="B416" t="str">
+        <v>2025-12-17T12:36:43.717Z</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>kumaram@bharatpetroleum.in</v>
+      </c>
+      <c r="B417" t="str">
+        <v>2025-12-17T12:36:43.717Z</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>kannaujiar@bharatpetroleum.in</v>
+      </c>
+      <c r="B418" t="str">
+        <v>2025-12-17T12:36:43.717Z</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="D418" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D414"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D418"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -23071,7 +23463,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D487"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29788,9 +30180,121 @@
         <v>2025-12-17T06:35:52.108Z</v>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>ankita.panigrahi@hpcl.in</v>
+      </c>
+      <c r="B480" t="str">
+        <v>2025-12-17T12:31:21.564Z</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>saichandedula@hpcl.in</v>
+      </c>
+      <c r="B481" t="str">
+        <v>2025-12-17T12:31:21.564Z</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>mayank.aggarwal@hpcl.in</v>
+      </c>
+      <c r="B482" t="str">
+        <v>2025-12-17T12:34:44.065Z</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>bennetc@hpcl.in</v>
+      </c>
+      <c r="B483" t="str">
+        <v>2025-12-17T12:35:31.831Z</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>yogesh.patil@hpcl.in</v>
+      </c>
+      <c r="B484" t="str">
+        <v>2025-12-17T12:35:31.831Z</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>nikeshbhashkarrao.samarth@hpcl.in</v>
+      </c>
+      <c r="B485" t="str">
+        <v>2025-12-17T12:35:31.831Z</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>dharun.t@hpcl.in</v>
+      </c>
+      <c r="B486" t="str">
+        <v>2025-12-17T12:35:31.831Z</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v>abdulnafih.tv@hpcl.in</v>
+      </c>
+      <c r="B487" t="str">
+        <v>2025-12-17T12:35:51.144Z</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487" t="str">
+        <v>2025-12-17T12:37:05.323Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D479"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D487"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2394,9 +2394,23 @@
         <v>2025-12-17T12:37:05.323Z</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>kumari_kalpana2@ongc.co.in</v>
+      </c>
+      <c r="B142" t="str">
+        <v>2025-12-17T18:32:20.706Z</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="str">
+        <v>2025-12-17T18:33:39.577Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D141"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D142"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3197,7 +3211,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D543"/>
+  <dimension ref="A1:D544"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10810,9 +10824,23 @@
         <v>2025-12-17T12:37:05.323Z</v>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>pbhimanna@indianoil.in</v>
+      </c>
+      <c r="B544" t="str">
+        <v>2025-12-17T18:30:09.174Z</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+      <c r="D544" t="str">
+        <v>2025-12-17T18:33:39.577Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D543"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D544"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -3211,7 +3211,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D544"/>
+  <dimension ref="A1:D548"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10838,9 +10838,65 @@
         <v>2025-12-17T18:33:39.577Z</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>sumankumar@indianoil.in</v>
+      </c>
+      <c r="B545" t="str">
+        <v>2025-12-18T00:31:14.773Z</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+      <c r="D545" t="str">
+        <v>2025-12-18T00:33:44.474Z</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>nikhilv@indianoil.in</v>
+      </c>
+      <c r="B546" t="str">
+        <v>2025-12-18T00:31:14.774Z</v>
+      </c>
+      <c r="C546">
+        <v>1</v>
+      </c>
+      <c r="D546" t="str">
+        <v>2025-12-18T00:33:44.474Z</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>deepak@indianoil.in</v>
+      </c>
+      <c r="B547" t="str">
+        <v>2025-12-18T00:31:14.774Z</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547" t="str">
+        <v>2025-12-18T00:33:44.474Z</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>kumarg9@indianoil.in</v>
+      </c>
+      <c r="B548" t="str">
+        <v>2025-12-18T00:32:26.073Z</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+      <c r="D548" t="str">
+        <v>2025-12-18T00:33:44.474Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D544"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D548"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13281,7 +13337,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15868,16 +15924,58 @@
         <v>2025-12-17T12:37:05.323Z</v>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>jacob@mrpl.co.in</v>
+      </c>
+      <c r="B185" t="str">
+        <v>2025-12-18T00:31:35.663Z</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185" t="str">
+        <v>2025-12-18T00:33:44.474Z</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>shilpi@mrpl.co.in</v>
+      </c>
+      <c r="B186" t="str">
+        <v>2025-12-18T00:32:26.591Z</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" t="str">
+        <v>2025-12-18T00:33:44.474Z</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>manjunathbegur@mrpl.co.in</v>
+      </c>
+      <c r="B187" t="str">
+        <v>2025-12-18T00:32:26.591Z</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187" t="str">
+        <v>2025-12-18T00:33:44.474Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D184"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D187"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D419"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21740,9 +21838,23 @@
         <v>2025-12-17T12:37:05.323Z</v>
       </c>
     </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>ajaykumar002@bharatpetroleum.in</v>
+      </c>
+      <c r="B419" t="str">
+        <v>2025-12-18T00:32:13.846Z</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419" t="str">
+        <v>2025-12-18T00:33:44.474Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D418"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D419"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -3211,7 +3211,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D548"/>
+  <dimension ref="A1:D554"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10894,16 +10894,100 @@
         <v>2025-12-18T00:33:44.474Z</v>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v>sauvikkg@indianoil.in</v>
+      </c>
+      <c r="B549" t="str">
+        <v>2025-12-18T06:32:25.862Z</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+      <c r="D549" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v>krishnans@indianoil.in</v>
+      </c>
+      <c r="B550" t="str">
+        <v>2025-12-18T06:32:25.862Z</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+      <c r="D550" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>vtak@indianoil.in</v>
+      </c>
+      <c r="B551" t="str">
+        <v>2025-12-18T06:32:33.722Z</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+      <c r="D551" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v>nitins@indianoil.in</v>
+      </c>
+      <c r="B552" t="str">
+        <v>2025-12-18T06:32:52.149Z</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+      <c r="D552" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>doleyr@indianoil.in</v>
+      </c>
+      <c r="B553" t="str">
+        <v>2025-12-18T06:33:12.058Z</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>kumarvinod3@indianoil.in</v>
+      </c>
+      <c r="B554" t="str">
+        <v>2025-12-18T06:33:37.378Z</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+      <c r="D554" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D548"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D554"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12132,9 +12216,93 @@
         <v>2025-12-17T12:37:05.323Z</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>shruti.taye@oilindia.in</v>
+      </c>
+      <c r="B88" t="str">
+        <v>2025-12-18T06:33:31.858Z</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>indranilneog@oilindia.in</v>
+      </c>
+      <c r="B89" t="str">
+        <v>2025-12-18T06:33:31.858Z</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>dkgogoi@oilindia.in</v>
+      </c>
+      <c r="B90" t="str">
+        <v>2025-12-18T06:33:52.557Z</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>manisha_agarwal@oilindia.in</v>
+      </c>
+      <c r="B91" t="str">
+        <v>2025-12-18T06:35:00.426Z</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>shashank.tripathi@oilindia.in</v>
+      </c>
+      <c r="B92" t="str">
+        <v>2025-12-18T06:35:00.426Z</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>krishnahazarika@oilindia.in</v>
+      </c>
+      <c r="B93" t="str">
+        <v>2025-12-18T06:35:00.426Z</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D87"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D93"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13337,7 +13505,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15966,16 +16134,58 @@
         <v>2025-12-18T00:33:44.474Z</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>pawan.kumar@mrpl.co.in</v>
+      </c>
+      <c r="B188" t="str">
+        <v>2025-12-18T06:31:24.497Z</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>sonu_kumar@mrpl.co.in</v>
+      </c>
+      <c r="B189" t="str">
+        <v>2025-12-18T06:34:15.609Z</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>sudhirt@mrpl.co.in</v>
+      </c>
+      <c r="B190" t="str">
+        <v>2025-12-18T06:34:15.609Z</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D187"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D190"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D419"/>
+  <dimension ref="A1:D422"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21852,9 +22062,51 @@
         <v>2025-12-18T00:33:44.474Z</v>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>arpitjha@bharatpetroleum.in</v>
+      </c>
+      <c r="B420" t="str">
+        <v>2025-12-18T06:31:22.985Z</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>sanjeetkumarver@bharatpetroleum.in</v>
+      </c>
+      <c r="B421" t="str">
+        <v>2025-12-18T06:32:58.279Z</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>ketankumarverma@bharatpetroleum.in</v>
+      </c>
+      <c r="B422" t="str">
+        <v>2025-12-18T06:32:58.279Z</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D419"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D422"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -23603,7 +23855,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D487"/>
+  <dimension ref="A1:D494"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30432,9 +30684,107 @@
         <v>2025-12-17T12:37:05.323Z</v>
       </c>
     </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>padmalochan.negi@hpcl.in</v>
+      </c>
+      <c r="B488" t="str">
+        <v>2025-12-18T06:34:12.264Z</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>o@hpcl.in</v>
+      </c>
+      <c r="B489" t="str">
+        <v>2025-12-18T06:34:12.264Z</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>amitkashyap@hpcl.in</v>
+      </c>
+      <c r="B490" t="str">
+        <v>2025-12-18T06:34:12.264Z</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>anilkgarg@hpcl.in</v>
+      </c>
+      <c r="B491" t="str">
+        <v>2025-12-18T06:34:12.264Z</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>mpati@hpcl.in</v>
+      </c>
+      <c r="B492" t="str">
+        <v>2025-12-18T06:34:12.264Z</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>anvita.jha@hpcl.in</v>
+      </c>
+      <c r="B493" t="str">
+        <v>2025-12-18T06:34:57.944Z</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>vishakha.rai@hpcl.in</v>
+      </c>
+      <c r="B494" t="str">
+        <v>2025-12-18T06:34:57.944Z</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494" t="str">
+        <v>2025-12-18T06:35:33.697Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D487"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D494"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -1926,10 +1926,10 @@
         <v>2025-12-08T14:41:56.941Z</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="109">
@@ -1940,10 +1940,10 @@
         <v>2025-12-08T14:41:56.941Z</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="110">
@@ -1954,10 +1954,10 @@
         <v>2025-12-08T14:50:33.145Z</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="111">
@@ -1968,10 +1968,10 @@
         <v>2025-12-08T14:57:13.641Z</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="112">
@@ -3281,7 +3281,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D574"/>
+  <dimension ref="A1:D575"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8368,10 +8368,10 @@
         <v>2025-12-08T15:00:23.816Z</v>
       </c>
       <c r="C363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D363" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="364">
@@ -8382,10 +8382,10 @@
         <v>2025-12-08T15:00:29.665Z</v>
       </c>
       <c r="C364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D364" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="365">
@@ -8396,10 +8396,10 @@
         <v>2025-12-08T15:00:50.793Z</v>
       </c>
       <c r="C365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D365" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="366">
@@ -8410,10 +8410,10 @@
         <v>2025-12-08T15:00:50.793Z</v>
       </c>
       <c r="C366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D366" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="367">
@@ -8424,10 +8424,10 @@
         <v>2025-12-08T15:01:15.266Z</v>
       </c>
       <c r="C367">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D367" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="368">
@@ -11328,9 +11328,23 @@
         <v>2025-12-18T12:39:46.304Z</v>
       </c>
     </row>
+    <row r="575">
+      <c r="A575" t="str">
+        <v>chauhanp3@indianoil.in</v>
+      </c>
+      <c r="B575" t="str">
+        <v>2025-12-18T18:33:30.612Z</v>
+      </c>
+      <c r="C575">
+        <v>1</v>
+      </c>
+      <c r="D575" t="str">
+        <v>2025-12-18T18:34:48.498Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D574"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D575"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -15820,10 +15834,10 @@
         <v>2025-12-08T14:55:55.623Z</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="141">
@@ -16563,7 +16577,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D427"/>
+  <dimension ref="A1:D429"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20936,10 +20950,10 @@
         <v>2025-12-08T14:58:34.705Z</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D312" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="313">
@@ -20950,10 +20964,10 @@
         <v>2025-12-08T15:00:25.426Z</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D313" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="314">
@@ -20964,10 +20978,10 @@
         <v>2025-12-08T15:01:29.938Z</v>
       </c>
       <c r="C314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D314" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="315">
@@ -20978,10 +20992,10 @@
         <v>2025-12-08T15:01:29.938Z</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D315" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="316">
@@ -20992,10 +21006,10 @@
         <v>2025-12-08T15:01:29.938Z</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D316" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="317">
@@ -21006,10 +21020,10 @@
         <v>2025-12-08T15:01:29.938Z</v>
       </c>
       <c r="C317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D317" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="318">
@@ -22552,9 +22566,37 @@
         <v>2025-12-18T12:39:46.304Z</v>
       </c>
     </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>jaiprakashjaina@bharatpetroleum.in</v>
+      </c>
+      <c r="B428" t="str">
+        <v>2025-12-18T18:34:14.668Z</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428" t="str">
+        <v>2025-12-18T18:34:48.498Z</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>shahadathussain@bharatpetroleum.in</v>
+      </c>
+      <c r="B429" t="str">
+        <v>2025-12-18T18:34:26.838Z</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429" t="str">
+        <v>2025-12-18T18:34:48.498Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D427"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D429"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -23504,10 +23546,10 @@
         <v>2025-12-08T14:50:40.321Z</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="68">
@@ -23518,10 +23560,10 @@
         <v>2025-12-08T14:50:40.321Z</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="69">
@@ -23532,10 +23574,10 @@
         <v>2025-12-08T14:57:15.651Z</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="70">
@@ -24317,7 +24359,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D508"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28718,10 +28760,10 @@
         <v>2025-12-08T14:50:33.606Z</v>
       </c>
       <c r="C314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D314" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="315">
@@ -28732,10 +28774,10 @@
         <v>2025-12-08T14:54:18.543Z</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D315" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="316">
@@ -28746,10 +28788,10 @@
         <v>2025-12-08T14:55:13.170Z</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D316" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="317">
@@ -28760,10 +28802,10 @@
         <v>2025-12-08T15:00:09.243Z</v>
       </c>
       <c r="C317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D317" t="str">
-        <v>2025-12-08T15:01:53.952Z</v>
+        <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
     <row r="318">
@@ -31440,9 +31482,37 @@
         <v>2025-12-18T12:39:46.304Z</v>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>sangamsharma@hpcl.in</v>
+      </c>
+      <c r="B509" t="str">
+        <v>2025-12-18T18:34:15.630Z</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509" t="str">
+        <v>2025-12-18T18:34:48.498Z</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>antonykannampally@hpcl.in</v>
+      </c>
+      <c r="B510" t="str">
+        <v>2025-12-18T18:34:15.630Z</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510" t="str">
+        <v>2025-12-18T18:34:48.498Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D508"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D510"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2464,9 +2464,51 @@
         <v>2025-12-18T12:39:46.304Z</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>k_vishnu@ongc.co.in</v>
+      </c>
+      <c r="B147" t="str">
+        <v>2025-12-19T00:30:44.589Z</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="str">
+        <v>2025-12-19T00:33:14.456Z</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>cpaparatey_vk@ongc.co.in</v>
+      </c>
+      <c r="B148" t="str">
+        <v>2025-12-19T00:30:44.593Z</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="str">
+        <v>2025-12-19T00:33:14.456Z</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>kumar4_vikas@ongc.co.in</v>
+      </c>
+      <c r="B149" t="str">
+        <v>2025-12-19T00:31:30.347Z</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="str">
+        <v>2025-12-19T00:33:14.456Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D146"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D149"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -22603,7 +22645,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24350,9 +24392,51 @@
         <v>2025-12-18T12:39:46.304Z</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>varun.n@gail.co.in</v>
+      </c>
+      <c r="B125" t="str">
+        <v>2025-12-19T00:31:42.950Z</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" t="str">
+        <v>2025-12-19T00:33:14.456Z</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>lavanya.godde@gail.co.in</v>
+      </c>
+      <c r="B126" t="str">
+        <v>2025-12-19T00:32:24.284Z</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="str">
+        <v>2025-12-19T00:33:14.456Z</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>dsd04504@gail.co.in</v>
+      </c>
+      <c r="B127" t="str">
+        <v>2025-12-19T00:32:24.284Z</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="str">
+        <v>2025-12-19T00:33:14.456Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D124"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D127"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -28816,10 +28900,10 @@
         <v>2025-12-08T20:55:37.488Z</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D318" t="str">
-        <v>2025-12-08T20:55:45.025Z</v>
+        <v>2025-12-19T00:33:14.456Z</v>
       </c>
     </row>
     <row r="319">

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2506,9 +2506,23 @@
         <v>2025-12-19T00:33:14.456Z</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>kumar_sandeep8@ongc.co.in</v>
+      </c>
+      <c r="B150" t="str">
+        <v>2025-12-19T06:33:41.320Z</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="str">
+        <v>2025-12-19T06:35:02.549Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D149"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D150"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -24443,7 +24457,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D513"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31594,9 +31608,51 @@
         <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>gagansuryawanshi@hpcl.in</v>
+      </c>
+      <c r="B511" t="str">
+        <v>2025-12-19T06:32:07.108Z</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511" t="str">
+        <v>2025-12-19T06:35:02.549Z</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>saurav.singh@hpcl.in</v>
+      </c>
+      <c r="B512" t="str">
+        <v>2025-12-19T06:34:29.678Z</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512" t="str">
+        <v>2025-12-19T06:35:02.549Z</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>lavurim@hpcl.in</v>
+      </c>
+      <c r="B513" t="str">
+        <v>2025-12-19T06:34:29.678Z</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513" t="str">
+        <v>2025-12-19T06:35:02.549Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D510"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D513"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1982,10 +1982,10 @@
         <v>2025-12-09T07:12:59.094Z</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="113">
@@ -1996,10 +1996,10 @@
         <v>2025-12-09T07:12:59.094Z</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="114">
@@ -2010,10 +2010,10 @@
         <v>2025-12-09T07:12:59.095Z</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="115">
@@ -2024,10 +2024,10 @@
         <v>2025-12-09T12:14:41.938Z</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="116">
@@ -2038,10 +2038,10 @@
         <v>2025-12-09T12:23:56.600Z</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="117">
@@ -2520,16 +2520,30 @@
         <v>2025-12-19T06:35:02.549Z</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>mishra_ashish@ongc.co.in</v>
+      </c>
+      <c r="B151" t="str">
+        <v>2025-12-19T12:34:21.417Z</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D150"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D151"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2988,9 +3002,37 @@
         <v>2025-12-18T12:39:46.304Z</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>skamaraj@cpcl.co.in</v>
+      </c>
+      <c r="B33" t="str">
+        <v>2025-12-19T12:34:32.281Z</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>deepak@cpcl.co.in</v>
+      </c>
+      <c r="B34" t="str">
+        <v>2025-12-19T12:34:32.281Z</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D34"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3337,7 +3379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D575"/>
+  <dimension ref="A1:D579"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8494,10 +8536,10 @@
         <v>2025-12-09T07:09:30.696Z</v>
       </c>
       <c r="C368">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D368" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="369">
@@ -8508,10 +8550,10 @@
         <v>2025-12-09T07:09:30.696Z</v>
       </c>
       <c r="C369">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D369" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="370">
@@ -8522,10 +8564,10 @@
         <v>2025-12-09T07:09:31.282Z</v>
       </c>
       <c r="C370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D370" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="371">
@@ -8536,10 +8578,10 @@
         <v>2025-12-09T07:09:31.282Z</v>
       </c>
       <c r="C371">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D371" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="372">
@@ -8550,10 +8592,10 @@
         <v>2025-12-09T07:10:16.934Z</v>
       </c>
       <c r="C372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D372" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="373">
@@ -8564,10 +8606,10 @@
         <v>2025-12-09T07:10:22.992Z</v>
       </c>
       <c r="C373">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D373" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="374">
@@ -8578,10 +8620,10 @@
         <v>2025-12-09T07:12:38.862Z</v>
       </c>
       <c r="C374">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D374" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="375">
@@ -8592,10 +8634,10 @@
         <v>2025-12-09T12:14:41.900Z</v>
       </c>
       <c r="C375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D375" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="376">
@@ -8606,10 +8648,10 @@
         <v>2025-12-09T12:14:41.900Z</v>
       </c>
       <c r="C376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D376" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="377">
@@ -8620,10 +8662,10 @@
         <v>2025-12-09T12:20:45.978Z</v>
       </c>
       <c r="C377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D377" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="378">
@@ -8634,10 +8676,10 @@
         <v>2025-12-09T12:21:51.553Z</v>
       </c>
       <c r="C378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D378" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="379">
@@ -8648,10 +8690,10 @@
         <v>2025-12-09T12:21:51.553Z</v>
       </c>
       <c r="C379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D379" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="380">
@@ -8662,10 +8704,10 @@
         <v>2025-12-09T12:21:51.553Z</v>
       </c>
       <c r="C380">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D380" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="381">
@@ -8676,10 +8718,10 @@
         <v>2025-12-09T12:21:51.597Z</v>
       </c>
       <c r="C381">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D381" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="382">
@@ -8690,10 +8732,10 @@
         <v>2025-12-09T12:21:51.597Z</v>
       </c>
       <c r="C382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D382" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="383">
@@ -8704,10 +8746,10 @@
         <v>2025-12-09T12:22:02.823Z</v>
       </c>
       <c r="C383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D383" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="384">
@@ -8718,10 +8760,10 @@
         <v>2025-12-09T12:22:02.823Z</v>
       </c>
       <c r="C384">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D384" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="385">
@@ -8732,10 +8774,10 @@
         <v>2025-12-09T12:22:02.823Z</v>
       </c>
       <c r="C385">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D385" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="386">
@@ -8746,10 +8788,10 @@
         <v>2025-12-09T12:22:56.958Z</v>
       </c>
       <c r="C386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D386" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="387">
@@ -8760,10 +8802,10 @@
         <v>2025-12-09T12:23:43.242Z</v>
       </c>
       <c r="C387">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D387" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="388">
@@ -8774,10 +8816,10 @@
         <v>2025-12-09T12:23:45.061Z</v>
       </c>
       <c r="C388">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D388" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="389">
@@ -8788,10 +8830,10 @@
         <v>2025-12-09T12:23:45.061Z</v>
       </c>
       <c r="C389">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D389" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="390">
@@ -8802,10 +8844,10 @@
         <v>2025-12-09T12:23:45.061Z</v>
       </c>
       <c r="C390">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D390" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="391">
@@ -8816,10 +8858,10 @@
         <v>2025-12-09T12:24:02.750Z</v>
       </c>
       <c r="C391">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D391" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="392">
@@ -8830,10 +8872,10 @@
         <v>2025-12-09T12:24:06.241Z</v>
       </c>
       <c r="C392">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D392" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="393">
@@ -11398,9 +11440,65 @@
         <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
+    <row r="576">
+      <c r="A576" t="str">
+        <v>basuanirban@indianoil.in</v>
+      </c>
+      <c r="B576" t="str">
+        <v>2025-12-19T12:29:04.942Z</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+      <c r="D576" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="str">
+        <v>rajeshkumar4@indianoil.in</v>
+      </c>
+      <c r="B577" t="str">
+        <v>2025-12-19T12:29:10.529Z</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+      <c r="D577" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="str">
+        <v>gundavenin@indianoil.in</v>
+      </c>
+      <c r="B578" t="str">
+        <v>2025-12-19T12:36:15.300Z</v>
+      </c>
+      <c r="C578">
+        <v>1</v>
+      </c>
+      <c r="D578" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="str">
+        <v>bharatg@indianoil.in</v>
+      </c>
+      <c r="B579" t="str">
+        <v>2025-12-19T12:36:27.536Z</v>
+      </c>
+      <c r="C579">
+        <v>1</v>
+      </c>
+      <c r="D579" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D575"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D579"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13742,10 +13840,10 @@
         <v>2025-12-09T12:23:03.813Z</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="73">
@@ -13925,7 +14023,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D192"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15904,10 +16002,10 @@
         <v>2025-12-09T07:09:51.301Z</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="142">
@@ -15918,10 +16016,10 @@
         <v>2025-12-09T07:09:51.301Z</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="143">
@@ -15932,10 +16030,10 @@
         <v>2025-12-09T07:12:03.728Z</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="144">
@@ -15946,10 +16044,10 @@
         <v>2025-12-09T07:12:03.728Z</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="145">
@@ -15960,10 +16058,10 @@
         <v>2025-12-09T12:19:28.547Z</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="146">
@@ -15974,10 +16072,10 @@
         <v>2025-12-09T12:19:28.547Z</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="147">
@@ -16624,16 +16722,44 @@
         <v>2025-12-18T12:39:46.304Z</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>ajitkumar_a@mrpl.co.in</v>
+      </c>
+      <c r="B193" t="str">
+        <v>2025-12-19T12:33:10.989Z</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>vndsouza@mrpl.co.in</v>
+      </c>
+      <c r="B194" t="str">
+        <v>2025-12-19T12:35:42.168Z</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D192"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D194"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D429"/>
+  <dimension ref="A1:D434"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21090,10 +21216,10 @@
         <v>2025-12-09T07:09:46.892Z</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D318" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="319">
@@ -21104,10 +21230,10 @@
         <v>2025-12-09T12:20:04.036Z</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D319" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="320">
@@ -21118,10 +21244,10 @@
         <v>2025-12-09T12:20:04.036Z</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D320" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="321">
@@ -21132,10 +21258,10 @@
         <v>2025-12-09T12:20:04.036Z</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D321" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="322">
@@ -21146,10 +21272,10 @@
         <v>2025-12-09T12:21:50.008Z</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D322" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="323">
@@ -21160,10 +21286,10 @@
         <v>2025-12-09T12:23:43.206Z</v>
       </c>
       <c r="C323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D323" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="324">
@@ -21174,10 +21300,10 @@
         <v>2025-12-09T12:24:00.126Z</v>
       </c>
       <c r="C324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D324" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="325">
@@ -22650,16 +22776,86 @@
         <v>2025-12-18T18:34:48.498Z</v>
       </c>
     </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>kuranjekarprag001@bharatpetroleum.in</v>
+      </c>
+      <c r="B430" t="str">
+        <v>2025-12-19T12:31:45.281Z</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>chadrasekarkk@bharatpetroleum.in</v>
+      </c>
+      <c r="B431" t="str">
+        <v>2025-12-19T12:32:05.143Z</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>raveendranv@bharatpetroleum.in</v>
+      </c>
+      <c r="B432" t="str">
+        <v>2025-12-19T12:32:52.172Z</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>magarprajwal@bharatpetroleum.in</v>
+      </c>
+      <c r="B433" t="str">
+        <v>2025-12-19T12:35:12.116Z</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>vedp@bharatpetroleum.in</v>
+      </c>
+      <c r="B434" t="str">
+        <v>2025-12-19T12:35:12.116Z</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D429"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D434"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23644,10 +23840,10 @@
         <v>2025-12-09T07:10:24.273Z</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="71">
@@ -23658,10 +23854,10 @@
         <v>2025-12-09T07:10:24.273Z</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="72">
@@ -23672,10 +23868,10 @@
         <v>2025-12-09T07:10:24.273Z</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="73">
@@ -23686,10 +23882,10 @@
         <v>2025-12-09T07:10:24.273Z</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="74">
@@ -23700,10 +23896,10 @@
         <v>2025-12-09T07:10:24.273Z</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="75">
@@ -23714,10 +23910,10 @@
         <v>2025-12-09T07:11:30.124Z</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="76">
@@ -23728,10 +23924,10 @@
         <v>2025-12-09T07:11:30.124Z</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="77">
@@ -23742,10 +23938,10 @@
         <v>2025-12-09T07:11:30.124Z</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="78">
@@ -23756,10 +23952,10 @@
         <v>2025-12-09T07:11:30.124Z</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="79">
@@ -23770,10 +23966,10 @@
         <v>2025-12-09T12:21:03.878Z</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="80">
@@ -23784,10 +23980,10 @@
         <v>2025-12-09T12:21:03.878Z</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="81">
@@ -23798,10 +23994,10 @@
         <v>2025-12-09T12:21:03.878Z</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="82">
@@ -23812,10 +24008,10 @@
         <v>2025-12-09T12:24:05.182Z</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="83">
@@ -23826,10 +24022,10 @@
         <v>2025-12-09T12:24:05.182Z</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="84">
@@ -24448,16 +24644,30 @@
         <v>2025-12-19T00:33:14.456Z</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>kaladhar@gail.co.in</v>
+      </c>
+      <c r="B128" t="str">
+        <v>2025-12-19T12:36:10.514Z</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D127"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D128"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D513"/>
+  <dimension ref="A1:D523"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28928,10 +29138,10 @@
         <v>2025-12-09T07:10:49.993Z</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D319" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="320">
@@ -28942,10 +29152,10 @@
         <v>2025-12-09T07:12:21.044Z</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D320" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="321">
@@ -28956,10 +29166,10 @@
         <v>2025-12-09T07:12:30.877Z</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D321" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="322">
@@ -28970,10 +29180,10 @@
         <v>2025-12-09T07:12:30.877Z</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D322" t="str">
-        <v>2025-12-09T07:13:20.706Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="323">
@@ -28984,10 +29194,10 @@
         <v>2025-12-09T12:21:55.334Z</v>
       </c>
       <c r="C323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D323" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="324">
@@ -28998,10 +29208,10 @@
         <v>2025-12-09T12:21:55.334Z</v>
       </c>
       <c r="C324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D324" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="325">
@@ -29012,10 +29222,10 @@
         <v>2025-12-09T12:21:55.334Z</v>
       </c>
       <c r="C325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D325" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="326">
@@ -29026,10 +29236,10 @@
         <v>2025-12-09T12:21:55.334Z</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D326" t="str">
-        <v>2025-12-09T12:24:34.626Z</v>
+        <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
     <row r="327">
@@ -31650,9 +31860,149 @@
         <v>2025-12-19T06:35:02.549Z</v>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>saidarao.mupparapu@hpcl.in</v>
+      </c>
+      <c r="B514" t="str">
+        <v>2025-12-19T12:30:07.348Z</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>sandeepkumar.gupta@hpcl.in</v>
+      </c>
+      <c r="B515" t="str">
+        <v>2025-12-19T12:30:07.348Z</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>lokeshkumar@hpcl.in</v>
+      </c>
+      <c r="B516" t="str">
+        <v>2025-12-19T12:30:11.643Z</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+      <c r="D516" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>gaurav.kumar2@hpcl.in</v>
+      </c>
+      <c r="B517" t="str">
+        <v>2025-12-19T12:32:48.851Z</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+      <c r="D517" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>dskumar@hpcl.in</v>
+      </c>
+      <c r="B518" t="str">
+        <v>2025-12-19T12:33:14.164Z</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+      <c r="D518" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>rahulrk@hpcl.in</v>
+      </c>
+      <c r="B519" t="str">
+        <v>2025-12-19T12:34:26.490Z</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+      <c r="D519" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>ziaulansari@hpcl.in</v>
+      </c>
+      <c r="B520" t="str">
+        <v>2025-12-19T12:34:36.260Z</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="D520" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>kuldeep.chauhan@hpcl.in</v>
+      </c>
+      <c r="B521" t="str">
+        <v>2025-12-19T12:35:12.044Z</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+      <c r="D521" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>utsav.verma@hpcl.in</v>
+      </c>
+      <c r="B522" t="str">
+        <v>2025-12-19T12:36:08.560Z</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+      <c r="D522" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>rajanya.revuri@hpcl.in</v>
+      </c>
+      <c r="B523" t="str">
+        <v>2025-12-19T12:36:29.914Z</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+      <c r="D523" t="str">
+        <v>2025-12-19T12:37:06.309Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D513"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D523"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -2052,10 +2052,10 @@
         <v>2025-12-09T18:31:49.912Z</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="118">
@@ -2066,10 +2066,10 @@
         <v>2025-12-09T18:31:51.396Z</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="119">
@@ -3379,7 +3379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D579"/>
+  <dimension ref="A1:D580"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8886,10 +8886,10 @@
         <v>2025-12-09T18:23:47.956Z</v>
       </c>
       <c r="C393">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D393" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="394">
@@ -8900,10 +8900,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C394">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D394" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="395">
@@ -8914,10 +8914,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C395">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D395" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="396">
@@ -8928,10 +8928,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C396">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D396" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="397">
@@ -8942,10 +8942,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C397">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D397" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="398">
@@ -8956,10 +8956,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D398" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="399">
@@ -8970,10 +8970,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D399" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="400">
@@ -8984,10 +8984,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C400">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D400" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="401">
@@ -8998,10 +8998,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C401">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D401" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="402">
@@ -9012,10 +9012,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C402">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D402" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="403">
@@ -9026,10 +9026,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D403" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="404">
@@ -9040,10 +9040,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D404" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="405">
@@ -9054,10 +9054,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C405">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D405" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="406">
@@ -9068,10 +9068,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C406">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D406" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="407">
@@ -9082,10 +9082,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D407" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="408">
@@ -9096,10 +9096,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D408" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="409">
@@ -9110,10 +9110,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D409" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="410">
@@ -9124,10 +9124,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C410">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D410" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="411">
@@ -9138,10 +9138,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C411">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D411" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="412">
@@ -9152,10 +9152,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C412">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D412" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="413">
@@ -9166,10 +9166,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C413">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D413" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="414">
@@ -9180,10 +9180,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D414" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="415">
@@ -9194,10 +9194,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C415">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D415" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="416">
@@ -9208,10 +9208,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D416" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="417">
@@ -9222,10 +9222,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C417">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D417" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="418">
@@ -9236,10 +9236,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D418" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="419">
@@ -9250,10 +9250,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C419">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D419" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="420">
@@ -9264,10 +9264,10 @@
         <v>2025-12-09T18:25:32.488Z</v>
       </c>
       <c r="C420">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D420" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="421">
@@ -9278,10 +9278,10 @@
         <v>2025-12-09T18:30:30.276Z</v>
       </c>
       <c r="C421">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D421" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="422">
@@ -9292,10 +9292,10 @@
         <v>2025-12-09T18:31:22.474Z</v>
       </c>
       <c r="C422">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D422" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="423">
@@ -9306,10 +9306,10 @@
         <v>2025-12-09T18:31:22.474Z</v>
       </c>
       <c r="C423">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D423" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="424">
@@ -11496,9 +11496,23 @@
         <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" t="str">
+        <v>raosiddhartha@indianoil.in</v>
+      </c>
+      <c r="B580" t="str">
+        <v>2025-12-19T18:32:47.402Z</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+      <c r="D580" t="str">
+        <v>2025-12-19T18:36:48.195Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D579"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D580"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -16086,10 +16100,10 @@
         <v>2025-12-09T18:31:17.842Z</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="148">
@@ -16100,10 +16114,10 @@
         <v>2025-12-09T18:31:17.842Z</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="149">
@@ -21314,10 +21328,10 @@
         <v>2025-12-09T18:25:29.004Z</v>
       </c>
       <c r="C325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D325" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="326">
@@ -21328,10 +21342,10 @@
         <v>2025-12-09T18:29:30.074Z</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D326" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="327">
@@ -21342,10 +21356,10 @@
         <v>2025-12-09T18:32:18.989Z</v>
       </c>
       <c r="C327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D327" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="328">
@@ -24667,7 +24681,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D523"/>
+  <dimension ref="A1:D534"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29250,10 +29264,10 @@
         <v>2025-12-09T18:24:01.942Z</v>
       </c>
       <c r="C327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D327" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="328">
@@ -29264,10 +29278,10 @@
         <v>2025-12-09T18:30:18.991Z</v>
       </c>
       <c r="C328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D328" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="329">
@@ -29278,10 +29292,10 @@
         <v>2025-12-09T18:30:18.991Z</v>
       </c>
       <c r="C329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D329" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="330">
@@ -29292,10 +29306,10 @@
         <v>2025-12-09T18:30:18.991Z</v>
       </c>
       <c r="C330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D330" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="331">
@@ -29306,10 +29320,10 @@
         <v>2025-12-09T18:30:18.991Z</v>
       </c>
       <c r="C331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D331" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="332">
@@ -29320,10 +29334,10 @@
         <v>2025-12-09T18:30:39.142Z</v>
       </c>
       <c r="C332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D332" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="333">
@@ -29334,10 +29348,10 @@
         <v>2025-12-09T18:30:39.142Z</v>
       </c>
       <c r="C333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D333" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="334">
@@ -29348,10 +29362,10 @@
         <v>2025-12-09T18:31:50.843Z</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D334" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="335">
@@ -29362,10 +29376,10 @@
         <v>2025-12-09T18:31:50.843Z</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D335" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="336">
@@ -29376,10 +29390,10 @@
         <v>2025-12-09T18:32:06.353Z</v>
       </c>
       <c r="C336">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D336" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="337">
@@ -29390,10 +29404,10 @@
         <v>2025-12-09T18:32:35.695Z</v>
       </c>
       <c r="C337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D337" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="338">
@@ -29404,10 +29418,10 @@
         <v>2025-12-09T18:32:35.695Z</v>
       </c>
       <c r="C338">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D338" t="str">
-        <v>2025-12-09T18:32:43.224Z</v>
+        <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
     <row r="339">
@@ -32000,9 +32014,163 @@
         <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>meghna.boro@hpcl.in</v>
+      </c>
+      <c r="B524" t="str">
+        <v>2025-12-19T18:28:54.529Z</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524" t="str">
+        <v>2025-12-19T18:36:48.195Z</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>coim.asfic@hpcl.in</v>
+      </c>
+      <c r="B525" t="str">
+        <v>2025-12-19T18:28:59.007Z</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+      <c r="D525" t="str">
+        <v>2025-12-19T18:36:48.195Z</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>hazira.lpgpic@hpcl.in</v>
+      </c>
+      <c r="B526" t="str">
+        <v>2025-12-19T18:31:57.175Z</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+      <c r="D526" t="str">
+        <v>2025-12-19T18:36:48.195Z</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>tvsnagaraju@hpcl.in</v>
+      </c>
+      <c r="B527" t="str">
+        <v>2025-12-19T18:32:28.095Z</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+      <c r="D527" t="str">
+        <v>2025-12-19T18:36:48.195Z</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>sridhardake@hpcl.in</v>
+      </c>
+      <c r="B528" t="str">
+        <v>2025-12-19T18:32:28.095Z</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+      <c r="D528" t="str">
+        <v>2025-12-19T18:36:48.195Z</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>monilkumar.rishi@hpcl.in</v>
+      </c>
+      <c r="B529" t="str">
+        <v>2025-12-19T18:33:59.619Z</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+      <c r="D529" t="str">
+        <v>2025-12-19T18:36:48.195Z</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>aneesjqari@hpcl.in</v>
+      </c>
+      <c r="B530" t="str">
+        <v>2025-12-19T18:35:16.028Z</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530" t="str">
+        <v>2025-12-19T18:36:48.195Z</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>mridul.sharma@hpcl.in</v>
+      </c>
+      <c r="B531" t="str">
+        <v>2025-12-19T18:35:16.028Z</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+      <c r="D531" t="str">
+        <v>2025-12-19T18:36:48.195Z</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>jammu.lpgpic@hpcl.in</v>
+      </c>
+      <c r="B532" t="str">
+        <v>2025-12-19T18:35:16.028Z</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+      <c r="D532" t="str">
+        <v>2025-12-19T18:36:48.195Z</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>sandhya.singh@hpcl.in</v>
+      </c>
+      <c r="B533" t="str">
+        <v>2025-12-19T18:35:31.708Z</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533" t="str">
+        <v>2025-12-19T18:36:48.195Z</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>dineshpangtey@hpcl.in</v>
+      </c>
+      <c r="B534" t="str">
+        <v>2025-12-19T18:35:31.708Z</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534" t="str">
+        <v>2025-12-19T18:36:48.195Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D523"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D534"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2534,9 +2534,23 @@
         <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>singh_jaipal2@ongc.co.in</v>
+      </c>
+      <c r="B152" t="str">
+        <v>2025-12-20T00:30:37.698Z</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="str">
+        <v>2025-12-20T00:34:07.868Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D151"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D152"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9320,10 +9334,10 @@
         <v>2025-12-10T00:24:22.719Z</v>
       </c>
       <c r="C424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D424" t="str">
-        <v>2025-12-10T00:31:03.896Z</v>
+        <v>2025-12-20T00:34:07.868Z</v>
       </c>
     </row>
     <row r="425">
@@ -9334,10 +9348,10 @@
         <v>2025-12-10T00:24:27.565Z</v>
       </c>
       <c r="C425">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D425" t="str">
-        <v>2025-12-10T00:31:03.896Z</v>
+        <v>2025-12-20T00:34:07.868Z</v>
       </c>
     </row>
     <row r="426">
@@ -9348,10 +9362,10 @@
         <v>2025-12-10T00:24:27.565Z</v>
       </c>
       <c r="C426">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D426" t="str">
-        <v>2025-12-10T00:31:03.896Z</v>
+        <v>2025-12-20T00:34:07.868Z</v>
       </c>
     </row>
     <row r="427">
@@ -9362,10 +9376,10 @@
         <v>2025-12-10T00:24:27.565Z</v>
       </c>
       <c r="C427">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D427" t="str">
-        <v>2025-12-10T00:31:03.896Z</v>
+        <v>2025-12-20T00:34:07.868Z</v>
       </c>
     </row>
     <row r="428">
@@ -9376,10 +9390,10 @@
         <v>2025-12-10T00:24:27.565Z</v>
       </c>
       <c r="C428">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D428" t="str">
-        <v>2025-12-10T00:31:03.896Z</v>
+        <v>2025-12-20T00:34:07.868Z</v>
       </c>
     </row>
     <row r="429">
@@ -9390,10 +9404,10 @@
         <v>2025-12-10T00:30:14.191Z</v>
       </c>
       <c r="C429">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D429" t="str">
-        <v>2025-12-10T00:31:03.896Z</v>
+        <v>2025-12-20T00:34:07.868Z</v>
       </c>
     </row>
     <row r="430">
@@ -16128,10 +16142,10 @@
         <v>2025-12-10T00:24:54.576Z</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149" t="str">
-        <v>2025-12-10T00:31:03.896Z</v>
+        <v>2025-12-20T00:34:07.868Z</v>
       </c>
     </row>
     <row r="150">
@@ -16142,10 +16156,10 @@
         <v>2025-12-10T00:24:54.576Z</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150" t="str">
-        <v>2025-12-10T00:31:03.896Z</v>
+        <v>2025-12-20T00:34:07.868Z</v>
       </c>
     </row>
     <row r="151">
@@ -16156,10 +16170,10 @@
         <v>2025-12-10T00:24:54.576Z</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151" t="str">
-        <v>2025-12-10T00:31:03.896Z</v>
+        <v>2025-12-20T00:34:07.868Z</v>
       </c>
     </row>
     <row r="152">
@@ -16773,7 +16787,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D434"/>
+  <dimension ref="A1:D435"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22860,9 +22874,23 @@
         <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>3.poosarlalahari@bharatpetroleum.in</v>
+      </c>
+      <c r="B435" t="str">
+        <v>2025-12-20T00:33:24.765Z</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435" t="str">
+        <v>2025-12-20T00:34:07.868Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D434"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D435"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -24681,7 +24709,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D534"/>
+  <dimension ref="A1:D535"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29432,10 +29460,10 @@
         <v>2025-12-10T00:24:20.910Z</v>
       </c>
       <c r="C339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D339" t="str">
-        <v>2025-12-10T00:31:03.896Z</v>
+        <v>2025-12-20T00:34:07.868Z</v>
       </c>
     </row>
     <row r="340">
@@ -32168,9 +32196,23 @@
         <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>parminderkaur.sekhon@hpcl.in</v>
+      </c>
+      <c r="B535" t="str">
+        <v>2025-12-20T00:30:25.699Z</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535" t="str">
+        <v>2025-12-20T00:34:07.868Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D534"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D535"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -2080,10 +2080,10 @@
         <v>2025-12-10T06:31:47.089Z</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="120">
@@ -3393,7 +3393,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D580"/>
+  <dimension ref="A1:D582"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9418,10 +9418,10 @@
         <v>2025-12-10T06:31:11.919Z</v>
       </c>
       <c r="C430">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D430" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="431">
@@ -9432,10 +9432,10 @@
         <v>2025-12-10T06:34:50.669Z</v>
       </c>
       <c r="C431">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D431" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="432">
@@ -11524,9 +11524,37 @@
         <v>2025-12-19T18:36:48.195Z</v>
       </c>
     </row>
+    <row r="581">
+      <c r="A581" t="str">
+        <v>bansald@indianoil.in</v>
+      </c>
+      <c r="B581" t="str">
+        <v>2025-12-20T06:34:38.269Z</v>
+      </c>
+      <c r="C581">
+        <v>1</v>
+      </c>
+      <c r="D581" t="str">
+        <v>2025-12-20T06:35:40.704Z</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="str">
+        <v>adennis@indianoil.in</v>
+      </c>
+      <c r="B582" t="str">
+        <v>2025-12-20T06:34:58.834Z</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+      <c r="D582" t="str">
+        <v>2025-12-20T06:35:40.704Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D580"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D582"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13882,10 +13910,10 @@
         <v>2025-12-10T06:34:09.232Z</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="74">
@@ -13896,10 +13924,10 @@
         <v>2025-12-10T06:34:09.232Z</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="75">
@@ -13910,10 +13938,10 @@
         <v>2025-12-10T06:34:09.232Z</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="76">
@@ -16184,10 +16212,10 @@
         <v>2025-12-10T06:32:55.925Z</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="153">
@@ -16198,10 +16226,10 @@
         <v>2025-12-10T06:32:55.925Z</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="154">
@@ -16212,10 +16240,10 @@
         <v>2025-12-10T06:34:18.746Z</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="155">
@@ -21384,10 +21412,10 @@
         <v>2025-12-10T06:31:34.446Z</v>
       </c>
       <c r="C328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D328" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="329">
@@ -21398,10 +21426,10 @@
         <v>2025-12-10T06:31:34.446Z</v>
       </c>
       <c r="C329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D329" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="330">
@@ -21412,10 +21440,10 @@
         <v>2025-12-10T06:34:54.743Z</v>
       </c>
       <c r="C330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D330" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="331">
@@ -21426,10 +21454,10 @@
         <v>2025-12-10T06:34:54.743Z</v>
       </c>
       <c r="C331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D331" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="332">
@@ -24709,7 +24737,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D535"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29474,10 +29502,10 @@
         <v>2025-12-10T06:30:53.720Z</v>
       </c>
       <c r="C340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D340" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="341">
@@ -29488,10 +29516,10 @@
         <v>2025-12-10T06:31:13.077Z</v>
       </c>
       <c r="C341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D341" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="342">
@@ -29502,10 +29530,10 @@
         <v>2025-12-10T06:31:26.211Z</v>
       </c>
       <c r="C342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D342" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="343">
@@ -29516,10 +29544,10 @@
         <v>2025-12-10T06:31:29.957Z</v>
       </c>
       <c r="C343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D343" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="344">
@@ -29530,10 +29558,10 @@
         <v>2025-12-10T06:31:29.957Z</v>
       </c>
       <c r="C344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D344" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="345">
@@ -29544,10 +29572,10 @@
         <v>2025-12-10T06:31:32.977Z</v>
       </c>
       <c r="C345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D345" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="346">
@@ -29558,10 +29586,10 @@
         <v>2025-12-10T06:31:32.977Z</v>
       </c>
       <c r="C346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D346" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="347">
@@ -29572,10 +29600,10 @@
         <v>2025-12-10T06:31:37.516Z</v>
       </c>
       <c r="C347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D347" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="348">
@@ -29586,10 +29614,10 @@
         <v>2025-12-10T06:31:37.516Z</v>
       </c>
       <c r="C348">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D348" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="349">
@@ -29600,10 +29628,10 @@
         <v>2025-12-10T06:31:37.516Z</v>
       </c>
       <c r="C349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D349" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="350">
@@ -29614,10 +29642,10 @@
         <v>2025-12-10T06:31:37.516Z</v>
       </c>
       <c r="C350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D350" t="str">
-        <v>2025-12-10T06:35:20.063Z</v>
+        <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
     <row r="351">
@@ -32210,9 +32238,107 @@
         <v>2025-12-20T00:34:07.868Z</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>shreshth.gupta@hpcl.in</v>
+      </c>
+      <c r="B536" t="str">
+        <v>2025-12-20T06:34:30.116Z</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+      <c r="D536" t="str">
+        <v>2025-12-20T06:35:40.704Z</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>loni.lpgpic@hpcl.in</v>
+      </c>
+      <c r="B537" t="str">
+        <v>2025-12-20T06:35:06.009Z</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+      <c r="D537" t="str">
+        <v>2025-12-20T06:35:40.704Z</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>sunil.kumar3@hpcl.in</v>
+      </c>
+      <c r="B538" t="str">
+        <v>2025-12-20T06:35:06.009Z</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+      <c r="D538" t="str">
+        <v>2025-12-20T06:35:40.704Z</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>bmandal@hpcl.in</v>
+      </c>
+      <c r="B539" t="str">
+        <v>2025-12-20T06:35:06.009Z</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+      <c r="D539" t="str">
+        <v>2025-12-20T06:35:40.704Z</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>shubham.vijay@hpcl.in</v>
+      </c>
+      <c r="B540" t="str">
+        <v>2025-12-20T06:35:06.009Z</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+      <c r="D540" t="str">
+        <v>2025-12-20T06:35:40.704Z</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>anjali.priya@hpcl.in</v>
+      </c>
+      <c r="B541" t="str">
+        <v>2025-12-20T06:35:06.009Z</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+      <c r="D541" t="str">
+        <v>2025-12-20T06:35:40.704Z</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>pankajkjha@hpcl.in</v>
+      </c>
+      <c r="B542" t="str">
+        <v>2025-12-20T06:35:26.170Z</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+      <c r="D542" t="str">
+        <v>2025-12-20T06:35:40.704Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D535"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D542"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -2094,10 +2094,10 @@
         <v>2025-12-10T12:29:08.748Z</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="121">
@@ -2108,10 +2108,10 @@
         <v>2025-12-10T18:32:24.730Z</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="122">
@@ -2122,10 +2122,10 @@
         <v>2025-12-10T18:32:24.730Z</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="123">
@@ -2136,10 +2136,10 @@
         <v>2025-12-10T18:32:24.730Z</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="124">
@@ -2557,7 +2557,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3044,9 +3044,37 @@
         <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>bspbabu@cpcl.co.in</v>
+      </c>
+      <c r="B35" t="str">
+        <v>2025-12-20T18:35:31.561Z</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>sdeeptha@cpcl.co.in</v>
+      </c>
+      <c r="B36" t="str">
+        <v>2025-12-20T18:35:31.561Z</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D34"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D36"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3350,10 +3378,10 @@
         <v>2025-12-10T12:30:17.295Z</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="6">
@@ -3393,7 +3421,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D582"/>
+  <dimension ref="A1:D584"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9446,10 +9474,10 @@
         <v>2025-12-10T12:29:54.817Z</v>
       </c>
       <c r="C432">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D432" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="433">
@@ -9460,10 +9488,10 @@
         <v>2025-12-10T12:29:56.110Z</v>
       </c>
       <c r="C433">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D433" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="434">
@@ -9474,10 +9502,10 @@
         <v>2025-12-10T12:29:56.110Z</v>
       </c>
       <c r="C434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D434" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="435">
@@ -9488,10 +9516,10 @@
         <v>2025-12-10T12:30:17.492Z</v>
       </c>
       <c r="C435">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D435" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="436">
@@ -9502,10 +9530,10 @@
         <v>2025-12-10T12:30:54.443Z</v>
       </c>
       <c r="C436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D436" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="437">
@@ -9516,10 +9544,10 @@
         <v>2025-12-10T12:31:48.160Z</v>
       </c>
       <c r="C437">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D437" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="438">
@@ -9530,10 +9558,10 @@
         <v>2025-12-10T12:31:48.160Z</v>
       </c>
       <c r="C438">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D438" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="439">
@@ -11552,9 +11580,37 @@
         <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
+    <row r="583">
+      <c r="A583" t="str">
+        <v>sgaur@indianoil.in</v>
+      </c>
+      <c r="B583" t="str">
+        <v>2025-12-20T18:33:21.353Z</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+      <c r="D583" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="str">
+        <v>pandeyt1@indianoil.in</v>
+      </c>
+      <c r="B584" t="str">
+        <v>2025-12-20T18:34:19.827Z</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+      <c r="D584" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D582"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D584"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13952,10 +14008,10 @@
         <v>2025-12-10T12:33:54.036Z</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="77">
@@ -13966,10 +14022,10 @@
         <v>2025-12-10T12:33:54.036Z</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="78">
@@ -13980,10 +14036,10 @@
         <v>2025-12-10T12:35:09.397Z</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="79">
@@ -13994,10 +14050,10 @@
         <v>2025-12-10T12:35:09.397Z</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="80">
@@ -14008,10 +14064,10 @@
         <v>2025-12-10T18:28:34.500Z</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="81">
@@ -14079,7 +14135,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D194"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16254,10 +16310,10 @@
         <v>2025-12-10T12:33:29.726Z</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="156">
@@ -16268,10 +16324,10 @@
         <v>2025-12-10T12:33:29.726Z</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="157">
@@ -16282,10 +16338,10 @@
         <v>2025-12-10T12:33:29.726Z</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="158">
@@ -16296,10 +16352,10 @@
         <v>2025-12-10T12:33:29.726Z</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="159">
@@ -16310,10 +16366,10 @@
         <v>2025-12-10T12:33:30.128Z</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="160">
@@ -16324,10 +16380,10 @@
         <v>2025-12-10T12:33:31.889Z</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="161">
@@ -16338,10 +16394,10 @@
         <v>2025-12-10T12:33:31.889Z</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="162">
@@ -16352,10 +16408,10 @@
         <v>2025-12-10T12:34:24.413Z</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="163">
@@ -16806,16 +16862,58 @@
         <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>renjith.reghupathy@mrpl.co.in</v>
+      </c>
+      <c r="B195" t="str">
+        <v>2025-12-20T18:34:23.112Z</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>praveenshetty@mrpl.co.in</v>
+      </c>
+      <c r="B196" t="str">
+        <v>2025-12-20T18:34:23.112Z</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>shukra@mrpl.co.in</v>
+      </c>
+      <c r="B197" t="str">
+        <v>2025-12-20T18:35:08.097Z</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D194"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D197"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D435"/>
+  <dimension ref="A1:D445"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21468,10 +21566,10 @@
         <v>2025-12-10T12:30:17.098Z</v>
       </c>
       <c r="C332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D332" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="333">
@@ -21482,10 +21580,10 @@
         <v>2025-12-10T12:30:17.098Z</v>
       </c>
       <c r="C333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D333" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="334">
@@ -21496,10 +21594,10 @@
         <v>2025-12-10T12:30:17.098Z</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D334" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="335">
@@ -21510,10 +21608,10 @@
         <v>2025-12-10T12:30:17.295Z</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D335" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="336">
@@ -21524,10 +21622,10 @@
         <v>2025-12-10T12:31:23.638Z</v>
       </c>
       <c r="C336">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D336" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="337">
@@ -21538,10 +21636,10 @@
         <v>2025-12-10T12:31:23.638Z</v>
       </c>
       <c r="C337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D337" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="338">
@@ -21552,10 +21650,10 @@
         <v>2025-12-10T12:33:00.133Z</v>
       </c>
       <c r="C338">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D338" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="339">
@@ -21566,10 +21664,10 @@
         <v>2025-12-10T12:33:27.919Z</v>
       </c>
       <c r="C339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D339" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="340">
@@ -21580,10 +21678,10 @@
         <v>2025-12-10T12:34:24.450Z</v>
       </c>
       <c r="C340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D340" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="341">
@@ -21594,10 +21692,10 @@
         <v>2025-12-10T12:34:56.522Z</v>
       </c>
       <c r="C341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D341" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="342">
@@ -21608,10 +21706,10 @@
         <v>2025-12-10T12:34:56.522Z</v>
       </c>
       <c r="C342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D342" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="343">
@@ -21622,10 +21720,10 @@
         <v>2025-12-10T12:35:54.020Z</v>
       </c>
       <c r="C343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D343" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="344">
@@ -21636,10 +21734,10 @@
         <v>2025-12-10T12:35:54.020Z</v>
       </c>
       <c r="C344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D344" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="345">
@@ -21650,10 +21748,10 @@
         <v>2025-12-10T18:27:08.311Z</v>
       </c>
       <c r="C345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D345" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="346">
@@ -21664,10 +21762,10 @@
         <v>2025-12-10T18:27:08.311Z</v>
       </c>
       <c r="C346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D346" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="347">
@@ -21678,10 +21776,10 @@
         <v>2025-12-10T18:28:54.018Z</v>
       </c>
       <c r="C347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D347" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="348">
@@ -21692,10 +21790,10 @@
         <v>2025-12-10T18:30:27.301Z</v>
       </c>
       <c r="C348">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D348" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="349">
@@ -21706,10 +21804,10 @@
         <v>2025-12-10T18:30:27.301Z</v>
       </c>
       <c r="C349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D349" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="350">
@@ -21720,10 +21818,10 @@
         <v>2025-12-10T18:31:54.906Z</v>
       </c>
       <c r="C350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D350" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="351">
@@ -21734,10 +21832,10 @@
         <v>2025-12-10T18:31:54.906Z</v>
       </c>
       <c r="C351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D351" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="352">
@@ -21748,10 +21846,10 @@
         <v>2025-12-10T18:33:47.167Z</v>
       </c>
       <c r="C352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D352" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="353">
@@ -21762,10 +21860,10 @@
         <v>2025-12-10T18:33:47.167Z</v>
       </c>
       <c r="C353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D353" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="354">
@@ -22916,9 +23014,149 @@
         <v>2025-12-20T00:34:07.868Z</v>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>varunyadav@bharatpetroleum.in</v>
+      </c>
+      <c r="B436" t="str">
+        <v>2025-12-20T18:30:56.625Z</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>sukirtigupta@bharatpetroleum.in</v>
+      </c>
+      <c r="B437" t="str">
+        <v>2025-12-20T18:31:14.679Z</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>ravneetsingh@bharatpetroleum.in</v>
+      </c>
+      <c r="B438" t="str">
+        <v>2025-12-20T18:33:16.831Z</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>pidigehaveela@bharatpetroleum.in</v>
+      </c>
+      <c r="B439" t="str">
+        <v>2025-12-20T18:34:31.273Z</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>akchakrawati@bharatpetroleum.in</v>
+      </c>
+      <c r="B440" t="str">
+        <v>2025-12-20T18:34:31.273Z</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>vimawalanirmeshv@bharatpetroleum.in</v>
+      </c>
+      <c r="B441" t="str">
+        <v>2025-12-20T18:36:06.585Z</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>gauravrajgupta@bharatpetroleum.in</v>
+      </c>
+      <c r="B442" t="str">
+        <v>2025-12-20T18:36:06.585Z</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>arunrajpv@bharatpetroleum.in</v>
+      </c>
+      <c r="B443" t="str">
+        <v>2025-12-20T18:36:06.585Z</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>sawanyadav@bharatpetroleum.in</v>
+      </c>
+      <c r="B444" t="str">
+        <v>2025-12-20T18:36:26.059Z</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>maheshapatil@bharatpetroleum.in</v>
+      </c>
+      <c r="B445" t="str">
+        <v>2025-12-20T18:36:26.059Z</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D435"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D445"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -24106,10 +24344,10 @@
         <v>2025-12-10T12:29:08.373Z</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="85">
@@ -24120,10 +24358,10 @@
         <v>2025-12-10T12:29:08.373Z</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="86">
@@ -24134,10 +24372,10 @@
         <v>2025-12-10T12:29:42.071Z</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="87">
@@ -24148,10 +24386,10 @@
         <v>2025-12-10T12:31:29.482Z</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="88">
@@ -24162,10 +24400,10 @@
         <v>2025-12-10T12:32:42.773Z</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="89">
@@ -24176,10 +24414,10 @@
         <v>2025-12-10T12:33:58.325Z</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="90">
@@ -24190,10 +24428,10 @@
         <v>2025-12-10T18:29:16.017Z</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="91">
@@ -24204,10 +24442,10 @@
         <v>2025-12-10T18:29:16.017Z</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="92">
@@ -24218,10 +24456,10 @@
         <v>2025-12-10T18:29:32.608Z</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="93">
@@ -24232,10 +24470,10 @@
         <v>2025-12-10T18:31:22.035Z</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="94">
@@ -24246,10 +24484,10 @@
         <v>2025-12-10T18:34:08.967Z</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="95">
@@ -24260,10 +24498,10 @@
         <v>2025-12-10T18:34:08.967Z</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="96">
@@ -24274,10 +24512,10 @@
         <v>2025-12-10T18:34:08.967Z</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="97">
@@ -24288,10 +24526,10 @@
         <v>2025-12-10T18:34:08.967Z</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="98">
@@ -24737,7 +24975,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D542"/>
+  <dimension ref="A1:D549"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29656,10 +29894,10 @@
         <v>2025-12-10T12:28:36.039Z</v>
       </c>
       <c r="C351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D351" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="352">
@@ -29670,10 +29908,10 @@
         <v>2025-12-10T12:28:36.039Z</v>
       </c>
       <c r="C352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D352" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="353">
@@ -29684,10 +29922,10 @@
         <v>2025-12-10T12:28:36.039Z</v>
       </c>
       <c r="C353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D353" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="354">
@@ -29698,10 +29936,10 @@
         <v>2025-12-10T12:28:36.039Z</v>
       </c>
       <c r="C354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D354" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="355">
@@ -29712,10 +29950,10 @@
         <v>2025-12-10T12:28:36.039Z</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D355" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="356">
@@ -29726,10 +29964,10 @@
         <v>2025-12-10T12:28:36.039Z</v>
       </c>
       <c r="C356">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D356" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="357">
@@ -29740,10 +29978,10 @@
         <v>2025-12-10T12:29:08.295Z</v>
       </c>
       <c r="C357">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D357" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="358">
@@ -29754,10 +29992,10 @@
         <v>2025-12-10T12:29:09.679Z</v>
       </c>
       <c r="C358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D358" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="359">
@@ -29768,10 +30006,10 @@
         <v>2025-12-10T12:29:09.679Z</v>
       </c>
       <c r="C359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D359" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="360">
@@ -29782,10 +30020,10 @@
         <v>2025-12-10T12:29:18.634Z</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D360" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="361">
@@ -29796,10 +30034,10 @@
         <v>2025-12-10T12:29:40.405Z</v>
       </c>
       <c r="C361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D361" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="362">
@@ -29810,10 +30048,10 @@
         <v>2025-12-10T12:29:40.405Z</v>
       </c>
       <c r="C362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D362" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="363">
@@ -29824,10 +30062,10 @@
         <v>2025-12-10T12:31:24.617Z</v>
       </c>
       <c r="C363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D363" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="364">
@@ -29838,10 +30076,10 @@
         <v>2025-12-10T12:32:41.606Z</v>
       </c>
       <c r="C364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D364" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="365">
@@ -29852,10 +30090,10 @@
         <v>2025-12-10T12:32:41.606Z</v>
       </c>
       <c r="C365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D365" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="366">
@@ -29866,10 +30104,10 @@
         <v>2025-12-10T12:33:22.671Z</v>
       </c>
       <c r="C366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D366" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="367">
@@ -29880,10 +30118,10 @@
         <v>2025-12-10T12:34:38.242Z</v>
       </c>
       <c r="C367">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D367" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="368">
@@ -29894,10 +30132,10 @@
         <v>2025-12-10T12:35:07.542Z</v>
       </c>
       <c r="C368">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D368" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="369">
@@ -29908,10 +30146,10 @@
         <v>2025-12-10T12:35:07.542Z</v>
       </c>
       <c r="C369">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D369" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="370">
@@ -29922,10 +30160,10 @@
         <v>2025-12-10T12:35:07.542Z</v>
       </c>
       <c r="C370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D370" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="371">
@@ -29936,10 +30174,10 @@
         <v>2025-12-10T12:35:36.071Z</v>
       </c>
       <c r="C371">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D371" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="372">
@@ -29950,10 +30188,10 @@
         <v>2025-12-10T12:35:38.714Z</v>
       </c>
       <c r="C372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D372" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="373">
@@ -29964,10 +30202,10 @@
         <v>2025-12-10T12:35:38.714Z</v>
       </c>
       <c r="C373">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D373" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="374">
@@ -29978,10 +30216,10 @@
         <v>2025-12-10T12:35:38.714Z</v>
       </c>
       <c r="C374">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D374" t="str">
-        <v>2025-12-10T12:36:12.938Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="375">
@@ -29992,10 +30230,10 @@
         <v>2025-12-10T18:31:21.864Z</v>
       </c>
       <c r="C375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D375" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="376">
@@ -30006,10 +30244,10 @@
         <v>2025-12-10T18:32:35.278Z</v>
       </c>
       <c r="C376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D376" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="377">
@@ -30020,10 +30258,10 @@
         <v>2025-12-10T18:32:35.278Z</v>
       </c>
       <c r="C377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D377" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="378">
@@ -30034,10 +30272,10 @@
         <v>2025-12-10T18:32:35.278Z</v>
       </c>
       <c r="C378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D378" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="379">
@@ -30048,10 +30286,10 @@
         <v>2025-12-10T18:32:35.278Z</v>
       </c>
       <c r="C379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D379" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="380">
@@ -30062,10 +30300,10 @@
         <v>2025-12-10T18:33:15.865Z</v>
       </c>
       <c r="C380">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D380" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="381">
@@ -30076,10 +30314,10 @@
         <v>2025-12-10T18:33:52.133Z</v>
       </c>
       <c r="C381">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D381" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="382">
@@ -30090,10 +30328,10 @@
         <v>2025-12-10T18:33:52.133Z</v>
       </c>
       <c r="C382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D382" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="383">
@@ -30104,10 +30342,10 @@
         <v>2025-12-10T18:34:12.316Z</v>
       </c>
       <c r="C383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D383" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="384">
@@ -30118,10 +30356,10 @@
         <v>2025-12-10T18:34:12.316Z</v>
       </c>
       <c r="C384">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D384" t="str">
-        <v>2025-12-10T18:34:26.817Z</v>
+        <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
     <row r="385">
@@ -32336,9 +32574,107 @@
         <v>2025-12-20T06:35:40.704Z</v>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>kkthapa@hpcl.in</v>
+      </c>
+      <c r="B543" t="str">
+        <v>2025-12-20T18:31:33.816Z</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>surendra.tatwal@hpcl.in</v>
+      </c>
+      <c r="B544" t="str">
+        <v>2025-12-20T18:31:33.816Z</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+      <c r="D544" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>vipul.srivastava@hpcl.in</v>
+      </c>
+      <c r="B545" t="str">
+        <v>2025-12-20T18:31:43.429Z</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+      <c r="D545" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>sanjeev.kumar@hpcl.in</v>
+      </c>
+      <c r="B546" t="str">
+        <v>2025-12-20T18:33:02.092Z</v>
+      </c>
+      <c r="C546">
+        <v>1</v>
+      </c>
+      <c r="D546" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>bhopendra.singh@hpcl.in</v>
+      </c>
+      <c r="B547" t="str">
+        <v>2025-12-20T18:35:40.895Z</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>sagnikmonadl@hpcl.in</v>
+      </c>
+      <c r="B548" t="str">
+        <v>2025-12-20T18:36:34.679Z</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+      <c r="D548" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v>rajaykumar@hpcl.in</v>
+      </c>
+      <c r="B549" t="str">
+        <v>2025-12-20T18:36:34.679Z</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+      <c r="D549" t="str">
+        <v>2025-12-20T18:36:49.244Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D542"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D549"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -24975,7 +24975,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D549"/>
+  <dimension ref="A1:D552"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -32672,9 +32672,51 @@
         <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v>ashokmenta@hpcl.in</v>
+      </c>
+      <c r="B550" t="str">
+        <v>2025-12-21T00:29:25.160Z</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+      <c r="D550" t="str">
+        <v>2025-12-21T00:33:44.835Z</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>singavarapu.kumar@hpcl.in</v>
+      </c>
+      <c r="B551" t="str">
+        <v>2025-12-21T00:31:44.525Z</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+      <c r="D551" t="str">
+        <v>2025-12-21T00:33:44.836Z</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v>yellavula.silpa@hpcl.in</v>
+      </c>
+      <c r="B552" t="str">
+        <v>2025-12-21T00:31:44.525Z</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+      <c r="D552" t="str">
+        <v>2025-12-21T00:33:44.836Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D549"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D552"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -2150,10 +2150,10 @@
         <v>2025-12-11T06:32:10.910Z</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" t="str">
-        <v>2025-12-11T06:32:56.826Z</v>
+        <v>2025-12-21T06:34:03.592Z</v>
       </c>
     </row>
     <row r="125">
@@ -2164,10 +2164,10 @@
         <v>2025-12-11T06:32:47.700Z</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125" t="str">
-        <v>2025-12-11T06:32:56.826Z</v>
+        <v>2025-12-21T06:34:03.592Z</v>
       </c>
     </row>
     <row r="126">
@@ -2557,7 +2557,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3072,9 +3072,51 @@
         <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>salmedasrikanth@cpcl.co.in</v>
+      </c>
+      <c r="B37" t="str">
+        <v>2025-12-21T06:32:14.390Z</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="str">
+        <v>2025-12-21T06:34:03.592Z</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>mrpraveenkumar@cpcl.co.in</v>
+      </c>
+      <c r="B38" t="str">
+        <v>2025-12-21T06:32:14.395Z</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="str">
+        <v>2025-12-21T06:34:03.592Z</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>sabarivelp@cpcl.co.in</v>
+      </c>
+      <c r="B39" t="str">
+        <v>2025-12-21T06:32:14.395Z</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="str">
+        <v>2025-12-21T06:34:03.592Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D39"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12700,10 +12742,10 @@
         <v>2025-12-11T06:29:26.521Z</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="str">
-        <v>2025-12-11T06:32:56.826Z</v>
+        <v>2025-12-21T06:34:03.592Z</v>
       </c>
     </row>
     <row r="78">
@@ -12714,10 +12756,10 @@
         <v>2025-12-11T06:29:26.521Z</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="str">
-        <v>2025-12-11T06:32:56.826Z</v>
+        <v>2025-12-21T06:34:03.592Z</v>
       </c>
     </row>
     <row r="79">
@@ -21874,10 +21916,10 @@
         <v>2025-12-11T06:30:32.128Z</v>
       </c>
       <c r="C354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D354" t="str">
-        <v>2025-12-11T06:32:56.826Z</v>
+        <v>2025-12-21T06:34:03.592Z</v>
       </c>
     </row>
     <row r="355">
@@ -21888,10 +21930,10 @@
         <v>2025-12-11T06:30:32.128Z</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D355" t="str">
-        <v>2025-12-11T06:32:56.826Z</v>
+        <v>2025-12-21T06:34:03.592Z</v>
       </c>
     </row>
     <row r="356">
@@ -21902,10 +21944,10 @@
         <v>2025-12-11T06:31:57.258Z</v>
       </c>
       <c r="C356">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D356" t="str">
-        <v>2025-12-11T06:32:56.826Z</v>
+        <v>2025-12-21T06:34:03.592Z</v>
       </c>
     </row>
     <row r="357">
@@ -21916,10 +21958,10 @@
         <v>2025-12-11T06:31:57.258Z</v>
       </c>
       <c r="C357">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D357" t="str">
-        <v>2025-12-11T06:32:56.826Z</v>
+        <v>2025-12-21T06:34:03.592Z</v>
       </c>
     </row>
     <row r="358">
@@ -24975,7 +25017,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D552"/>
+  <dimension ref="A1:D553"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30370,10 +30412,10 @@
         <v>2025-12-11T06:29:32.037Z</v>
       </c>
       <c r="C385">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D385" t="str">
-        <v>2025-12-11T06:32:56.826Z</v>
+        <v>2025-12-21T06:34:03.592Z</v>
       </c>
     </row>
     <row r="386">
@@ -30384,10 +30426,10 @@
         <v>2025-12-11T06:29:44.997Z</v>
       </c>
       <c r="C386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D386" t="str">
-        <v>2025-12-11T06:32:56.826Z</v>
+        <v>2025-12-21T06:34:03.592Z</v>
       </c>
     </row>
     <row r="387">
@@ -30398,10 +30440,10 @@
         <v>2025-12-11T06:32:09.922Z</v>
       </c>
       <c r="C387">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D387" t="str">
-        <v>2025-12-11T06:32:56.826Z</v>
+        <v>2025-12-21T06:34:03.592Z</v>
       </c>
     </row>
     <row r="388">
@@ -30412,10 +30454,10 @@
         <v>2025-12-11T06:32:20.341Z</v>
       </c>
       <c r="C388">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D388" t="str">
-        <v>2025-12-11T06:32:56.826Z</v>
+        <v>2025-12-21T06:34:03.592Z</v>
       </c>
     </row>
     <row r="389">
@@ -32714,9 +32756,23 @@
         <v>2025-12-21T00:33:44.836Z</v>
       </c>
     </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>pulisrinivas@hpcl.in</v>
+      </c>
+      <c r="B553" t="str">
+        <v>2025-12-21T06:32:55.066Z</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553" t="str">
+        <v>2025-12-21T06:34:03.592Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D552"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D553"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -16955,7 +16955,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D445"/>
+  <dimension ref="A1:D446"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23196,9 +23196,23 @@
         <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>kharatvs@bharatpetroleum.in</v>
+      </c>
+      <c r="B446" t="str">
+        <v>2025-12-21T12:33:37.756Z</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446" t="str">
+        <v>2025-12-21T12:33:45.367Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D445"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D446"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -25017,7 +25031,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D553"/>
+  <dimension ref="A1:D555"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -32770,9 +32784,37 @@
         <v>2025-12-21T06:34:03.592Z</v>
       </c>
     </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>atul.kumar@hpcl.in</v>
+      </c>
+      <c r="B554" t="str">
+        <v>2025-12-21T12:30:50.331Z</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+      <c r="D554" t="str">
+        <v>2025-12-21T12:33:45.367Z</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v>prakashved@hpcl.in</v>
+      </c>
+      <c r="B555" t="str">
+        <v>2025-12-21T12:30:50.331Z</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+      <c r="D555" t="str">
+        <v>2025-12-21T12:33:45.367Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D553"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D555"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -2178,10 +2178,10 @@
         <v>2025-12-11T12:35:32.643Z</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="127">
@@ -2192,10 +2192,10 @@
         <v>2025-12-11T12:37:23.206Z</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="128">
@@ -2206,10 +2206,10 @@
         <v>2025-12-11T12:38:06.838Z</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="129">
@@ -3240,10 +3240,10 @@
         <v>2025-12-11T12:36:51.741Z</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="9">
@@ -9614,10 +9614,10 @@
         <v>2025-12-11T12:35:17.598Z</v>
       </c>
       <c r="C439">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D439" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="440">
@@ -9628,10 +9628,10 @@
         <v>2025-12-11T12:35:17.598Z</v>
       </c>
       <c r="C440">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D440" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="441">
@@ -9642,10 +9642,10 @@
         <v>2025-12-11T12:35:17.598Z</v>
       </c>
       <c r="C441">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D441" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="442">
@@ -9656,10 +9656,10 @@
         <v>2025-12-11T12:35:59.056Z</v>
       </c>
       <c r="C442">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D442" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="443">
@@ -9670,10 +9670,10 @@
         <v>2025-12-11T12:36:18.319Z</v>
       </c>
       <c r="C443">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D443" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="444">
@@ -9684,10 +9684,10 @@
         <v>2025-12-11T12:36:27.972Z</v>
       </c>
       <c r="C444">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D444" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="445">
@@ -9698,10 +9698,10 @@
         <v>2025-12-11T12:36:40.019Z</v>
       </c>
       <c r="C445">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D445" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="446">
@@ -9712,10 +9712,10 @@
         <v>2025-12-11T12:36:40.019Z</v>
       </c>
       <c r="C446">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D446" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="447">
@@ -9726,10 +9726,10 @@
         <v>2025-12-11T12:38:45.698Z</v>
       </c>
       <c r="C447">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D447" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="448">
@@ -9740,10 +9740,10 @@
         <v>2025-12-11T12:39:19.424Z</v>
       </c>
       <c r="C448">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D448" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="449">
@@ -9754,10 +9754,10 @@
         <v>2025-12-11T12:39:19.424Z</v>
       </c>
       <c r="C449">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D449" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="450">
@@ -9768,10 +9768,10 @@
         <v>2025-12-11T12:39:19.424Z</v>
       </c>
       <c r="C450">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D450" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="451">
@@ -16464,10 +16464,10 @@
         <v>2025-12-11T12:32:14.588Z</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="164">
@@ -16478,10 +16478,10 @@
         <v>2025-12-11T12:32:14.703Z</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="165">
@@ -16492,10 +16492,10 @@
         <v>2025-12-11T12:35:56.115Z</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="166">
@@ -16506,10 +16506,10 @@
         <v>2025-12-11T12:37:43.811Z</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="167">
@@ -21972,10 +21972,10 @@
         <v>2025-12-11T12:32:38.277Z</v>
       </c>
       <c r="C358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D358" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="359">
@@ -21986,10 +21986,10 @@
         <v>2025-12-11T12:32:38.277Z</v>
       </c>
       <c r="C359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D359" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="360">
@@ -22000,10 +22000,10 @@
         <v>2025-12-11T12:32:38.277Z</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D360" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="361">
@@ -22014,10 +22014,10 @@
         <v>2025-12-11T12:32:38.277Z</v>
       </c>
       <c r="C361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D361" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="362">
@@ -22028,10 +22028,10 @@
         <v>2025-12-11T12:32:38.277Z</v>
       </c>
       <c r="C362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D362" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="363">
@@ -22042,10 +22042,10 @@
         <v>2025-12-11T12:35:34.027Z</v>
       </c>
       <c r="C363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D363" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="364">
@@ -22056,10 +22056,10 @@
         <v>2025-12-11T12:36:56.638Z</v>
       </c>
       <c r="C364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D364" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="365">
@@ -22070,10 +22070,10 @@
         <v>2025-12-11T12:36:56.638Z</v>
       </c>
       <c r="C365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D365" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="366">
@@ -22084,10 +22084,10 @@
         <v>2025-12-11T12:38:45.037Z</v>
       </c>
       <c r="C366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D366" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="367">
@@ -22098,10 +22098,10 @@
         <v>2025-12-11T12:38:45.037Z</v>
       </c>
       <c r="C367">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D367" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="368">
@@ -22112,10 +22112,10 @@
         <v>2025-12-11T12:38:45.037Z</v>
       </c>
       <c r="C368">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D368" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="369">
@@ -22126,10 +22126,10 @@
         <v>2025-12-11T12:39:07.724Z</v>
       </c>
       <c r="C369">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D369" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="370">
@@ -24596,10 +24596,10 @@
         <v>2025-12-11T12:39:42.640Z</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="99">
@@ -24610,10 +24610,10 @@
         <v>2025-12-11T12:39:42.640Z</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="100">
@@ -30482,10 +30482,10 @@
         <v>2025-12-11T12:31:18.980Z</v>
       </c>
       <c r="C389">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D389" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="390">
@@ -30496,10 +30496,10 @@
         <v>2025-12-11T12:32:14.623Z</v>
       </c>
       <c r="C390">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D390" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="391">
@@ -30510,10 +30510,10 @@
         <v>2025-12-11T12:35:22.847Z</v>
       </c>
       <c r="C391">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D391" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="392">
@@ -30524,10 +30524,10 @@
         <v>2025-12-11T12:36:28.124Z</v>
       </c>
       <c r="C392">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D392" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="393">
@@ -30538,10 +30538,10 @@
         <v>2025-12-11T12:38:08.142Z</v>
       </c>
       <c r="C393">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D393" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="394">
@@ -30552,10 +30552,10 @@
         <v>2025-12-11T12:38:08.142Z</v>
       </c>
       <c r="C394">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D394" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="395">
@@ -30566,10 +30566,10 @@
         <v>2025-12-11T12:38:46.900Z</v>
       </c>
       <c r="C395">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D395" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="396">
@@ -30580,10 +30580,10 @@
         <v>2025-12-11T12:38:46.900Z</v>
       </c>
       <c r="C396">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D396" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="397">
@@ -30594,10 +30594,10 @@
         <v>2025-12-11T12:39:41.056Z</v>
       </c>
       <c r="C397">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D397" t="str">
-        <v>2025-12-11T12:40:15.068Z</v>
+        <v>2025-12-21T18:14:40.449Z</v>
       </c>
     </row>
     <row r="398">

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -9782,10 +9782,10 @@
         <v>2025-12-11T18:30:00.390Z</v>
       </c>
       <c r="C451">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D451" t="str">
-        <v>2025-12-11T18:33:21.037Z</v>
+        <v>2025-12-22T00:33:16.535Z</v>
       </c>
     </row>
     <row r="452">
@@ -9796,10 +9796,10 @@
         <v>2025-12-11T18:30:41.072Z</v>
       </c>
       <c r="C452">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D452" t="str">
-        <v>2025-12-11T18:33:21.037Z</v>
+        <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
     <row r="453">
@@ -9810,10 +9810,10 @@
         <v>2025-12-11T18:31:04.534Z</v>
       </c>
       <c r="C453">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D453" t="str">
-        <v>2025-12-11T18:33:21.037Z</v>
+        <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
     <row r="454">
@@ -9824,10 +9824,10 @@
         <v>2025-12-11T18:31:37.000Z</v>
       </c>
       <c r="C454">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D454" t="str">
-        <v>2025-12-11T18:33:21.037Z</v>
+        <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
     <row r="455">
@@ -9838,10 +9838,10 @@
         <v>2025-12-11T18:32:59.832Z</v>
       </c>
       <c r="C455">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D455" t="str">
-        <v>2025-12-11T18:33:21.037Z</v>
+        <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
     <row r="456">
@@ -9852,10 +9852,10 @@
         <v>2025-12-11T18:32:59.832Z</v>
       </c>
       <c r="C456">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D456" t="str">
-        <v>2025-12-11T18:33:21.037Z</v>
+        <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
     <row r="457">
@@ -9866,10 +9866,10 @@
         <v>2025-12-12T00:29:25.285Z</v>
       </c>
       <c r="C457">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D457" t="str">
-        <v>2025-12-12T00:31:17.638Z</v>
+        <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
     <row r="458">
@@ -9880,10 +9880,10 @@
         <v>2025-12-12T00:30:17.196Z</v>
       </c>
       <c r="C458">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D458" t="str">
-        <v>2025-12-12T00:31:17.638Z</v>
+        <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
     <row r="459">
@@ -9894,10 +9894,10 @@
         <v>2025-12-12T00:30:17.196Z</v>
       </c>
       <c r="C459">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D459" t="str">
-        <v>2025-12-12T00:31:17.638Z</v>
+        <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
     <row r="460">
@@ -9908,10 +9908,10 @@
         <v>2025-12-12T00:30:20.934Z</v>
       </c>
       <c r="C460">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D460" t="str">
-        <v>2025-12-12T00:31:17.638Z</v>
+        <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
     <row r="461">
@@ -22140,10 +22140,10 @@
         <v>2025-12-11T18:32:26.995Z</v>
       </c>
       <c r="C370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D370" t="str">
-        <v>2025-12-11T18:33:21.037Z</v>
+        <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
     <row r="371">
@@ -24624,10 +24624,10 @@
         <v>2025-12-11T18:32:46.833Z</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="str">
-        <v>2025-12-11T18:33:21.037Z</v>
+        <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
     <row r="101">
@@ -25031,7 +25031,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D555"/>
+  <dimension ref="A1:D558"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30608,10 +30608,10 @@
         <v>2025-12-11T18:30:07.326Z</v>
       </c>
       <c r="C398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D398" t="str">
-        <v>2025-12-11T18:33:21.037Z</v>
+        <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
     <row r="399">
@@ -30622,10 +30622,10 @@
         <v>2025-12-11T18:30:07.326Z</v>
       </c>
       <c r="C399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D399" t="str">
-        <v>2025-12-11T18:33:21.037Z</v>
+        <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
     <row r="400">
@@ -30636,10 +30636,10 @@
         <v>2025-12-11T18:33:01.886Z</v>
       </c>
       <c r="C400">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D400" t="str">
-        <v>2025-12-11T18:33:21.037Z</v>
+        <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
     <row r="401">
@@ -30650,10 +30650,10 @@
         <v>2025-12-11T18:33:01.886Z</v>
       </c>
       <c r="C401">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D401" t="str">
-        <v>2025-12-11T18:33:21.037Z</v>
+        <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
     <row r="402">
@@ -30664,10 +30664,10 @@
         <v>2025-12-11T18:33:12.904Z</v>
       </c>
       <c r="C402">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D402" t="str">
-        <v>2025-12-11T18:33:21.037Z</v>
+        <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
     <row r="403">
@@ -32812,9 +32812,51 @@
         <v>2025-12-21T12:33:45.367Z</v>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" t="str">
+        <v>sunny.gupta@hpcl.in</v>
+      </c>
+      <c r="B556" t="str">
+        <v>2025-12-22T00:33:00.179Z</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+      <c r="D556" t="str">
+        <v>2025-12-22T00:33:16.536Z</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v>anuj.kumar@hpcl.in</v>
+      </c>
+      <c r="B557" t="str">
+        <v>2025-12-22T00:33:02.246Z</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+      <c r="D557" t="str">
+        <v>2025-12-22T00:33:16.536Z</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="str">
+        <v>mckduvvuru@hpcl.in</v>
+      </c>
+      <c r="B558" t="str">
+        <v>2025-12-22T00:33:02.246Z</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+      <c r="D558" t="str">
+        <v>2025-12-22T00:33:16.536Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D555"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D558"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/output_interested_emails.xlsx
+++ b/output_interested_emails.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2220,10 +2220,10 @@
         <v>2025-12-12T12:37:00.178Z</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="130">
@@ -2234,10 +2234,10 @@
         <v>2025-12-12T12:37:00.178Z</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="131">
@@ -2248,10 +2248,10 @@
         <v>2025-12-12T12:41:49.323Z</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="132">
@@ -2262,10 +2262,10 @@
         <v>2025-12-12T12:42:33.916Z</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="133">
@@ -2276,10 +2276,10 @@
         <v>2025-12-12T12:42:33.916Z</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="134">
@@ -2290,10 +2290,10 @@
         <v>2025-12-12T12:42:33.916Z</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="135">
@@ -2304,10 +2304,10 @@
         <v>2025-12-12T12:42:48.901Z</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="136">
@@ -2318,10 +2318,10 @@
         <v>2025-12-13T00:31:15.178Z</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136" t="str">
-        <v>2025-12-13T00:33:47.121Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="137">
@@ -2332,10 +2332,10 @@
         <v>2025-12-15T12:32:45.089Z</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="138">
@@ -2346,10 +2346,10 @@
         <v>2025-12-16T06:36:25.542Z</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="139">
@@ -2360,10 +2360,10 @@
         <v>2025-12-16T12:36:52.134Z</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D139" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="140">
@@ -2548,16 +2548,170 @@
         <v>2025-12-20T00:34:07.868Z</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>tamilselvan_t1@ongc.co.in</v>
+      </c>
+      <c r="B153" t="str">
+        <v>2025-12-26T15:21:59.109Z</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>singh_vikas4@ongc.co.in</v>
+      </c>
+      <c r="B154" t="str">
+        <v>2025-12-26T15:40:39.384Z</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>jindal_shivam@ongc.co.in</v>
+      </c>
+      <c r="B155" t="str">
+        <v>2025-12-26T15:45:48.438Z</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>kartika@ongc.co.in</v>
+      </c>
+      <c r="B156" t="str">
+        <v>2025-12-26T15:53:39.719Z</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>sk_balaji@ongc.co.in</v>
+      </c>
+      <c r="B157" t="str">
+        <v>2025-12-26T16:04:50.205Z</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>malik_pankaj@ongc.co.in</v>
+      </c>
+      <c r="B158" t="str">
+        <v>2025-12-26T16:34:44.859Z</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>singh_aarti@ongc.co.in</v>
+      </c>
+      <c r="B159" t="str">
+        <v>2025-12-26T16:34:44.859Z</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>patel_bhupendra@ongc.co.in</v>
+      </c>
+      <c r="B160" t="str">
+        <v>2025-12-26T16:34:58.395Z</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>mantri_pratima@ongc.co.in</v>
+      </c>
+      <c r="B161" t="str">
+        <v>2025-12-27T07:42:57.569Z</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>wob_finance@ongc.co.in</v>
+      </c>
+      <c r="B162" t="str">
+        <v>2025-12-27T07:42:57.569Z</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>goyal_rishav@ongc.co.in</v>
+      </c>
+      <c r="B163" t="str">
+        <v>2025-12-27T07:48:27.485Z</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D152"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D163"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3114,16 +3268,44 @@
         <v>2025-12-21T06:34:03.592Z</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>nsukumar@cpcl.co.in</v>
+      </c>
+      <c r="B40" t="str">
+        <v>2025-12-26T16:37:44.358Z</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>shiva@cpcl.co.in</v>
+      </c>
+      <c r="B41" t="str">
+        <v>2025-12-27T07:53:22.568Z</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D39"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D41"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3254,10 +3436,10 @@
         <v>2025-12-15T18:33:36.419Z</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="str">
-        <v>2025-12-15T18:34:19.333Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="10">
@@ -3274,9 +3456,37 @@
         <v>2025-12-18T12:39:46.304Z</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>venkateshbhat@petronetmhbl.com</v>
+      </c>
+      <c r="B11" t="str">
+        <v>2025-12-27T07:49:32.922Z</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>headoffice@petronetmhbl.com</v>
+      </c>
+      <c r="B12" t="str">
+        <v>2025-12-27T07:49:32.922Z</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D12"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3434,10 +3644,10 @@
         <v>2025-12-12T18:32:09.900Z</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="7">
@@ -3448,10 +3658,10 @@
         <v>2025-12-12T18:32:09.900Z</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
   </sheetData>
@@ -3463,7 +3673,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D584"/>
+  <dimension ref="A1:D624"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9922,10 +10132,10 @@
         <v>2025-12-12T06:30:13.158Z</v>
       </c>
       <c r="C461">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D461" t="str">
-        <v>2025-12-12T06:30:28.310Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="462">
@@ -9936,10 +10146,10 @@
         <v>2025-12-12T06:30:13.158Z</v>
       </c>
       <c r="C462">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D462" t="str">
-        <v>2025-12-12T06:30:28.310Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="463">
@@ -9950,10 +10160,10 @@
         <v>2025-12-12T12:36:54.463Z</v>
       </c>
       <c r="C463">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D463" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="464">
@@ -9964,10 +10174,10 @@
         <v>2025-12-12T12:37:18.011Z</v>
       </c>
       <c r="C464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D464" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="465">
@@ -9978,10 +10188,10 @@
         <v>2025-12-12T12:40:18.966Z</v>
       </c>
       <c r="C465">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D465" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="466">
@@ -9992,10 +10202,10 @@
         <v>2025-12-12T12:40:18.966Z</v>
       </c>
       <c r="C466">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D466" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="467">
@@ -10006,10 +10216,10 @@
         <v>2025-12-12T12:41:40.870Z</v>
       </c>
       <c r="C467">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D467" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="468">
@@ -10020,10 +10230,10 @@
         <v>2025-12-12T12:41:40.870Z</v>
       </c>
       <c r="C468">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D468" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="469">
@@ -10034,10 +10244,10 @@
         <v>2025-12-12T12:41:40.870Z</v>
       </c>
       <c r="C469">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D469" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="470">
@@ -10048,10 +10258,10 @@
         <v>2025-12-12T12:42:33.452Z</v>
       </c>
       <c r="C470">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D470" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="471">
@@ -10062,10 +10272,10 @@
         <v>2025-12-12T12:42:33.452Z</v>
       </c>
       <c r="C471">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D471" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="472">
@@ -10076,10 +10286,10 @@
         <v>2025-12-12T12:43:10.280Z</v>
       </c>
       <c r="C472">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D472" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="473">
@@ -10090,10 +10300,10 @@
         <v>2025-12-12T18:30:29.750Z</v>
       </c>
       <c r="C473">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D473" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="474">
@@ -10104,10 +10314,10 @@
         <v>2025-12-12T18:33:42.208Z</v>
       </c>
       <c r="C474">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D474" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="475">
@@ -10118,10 +10328,10 @@
         <v>2025-12-12T18:33:42.208Z</v>
       </c>
       <c r="C475">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D475" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="476">
@@ -10132,10 +10342,10 @@
         <v>2025-12-12T18:34:57.530Z</v>
       </c>
       <c r="C476">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D476" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="477">
@@ -10146,10 +10356,10 @@
         <v>2025-12-12T18:35:26.935Z</v>
       </c>
       <c r="C477">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D477" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="478">
@@ -10160,10 +10370,10 @@
         <v>2025-12-12T18:35:38.307Z</v>
       </c>
       <c r="C478">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D478" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="479">
@@ -10174,10 +10384,10 @@
         <v>2025-12-13T00:32:58.018Z</v>
       </c>
       <c r="C479">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D479" t="str">
-        <v>2025-12-13T00:33:47.121Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="480">
@@ -10188,10 +10398,10 @@
         <v>2025-12-13T00:32:58.018Z</v>
       </c>
       <c r="C480">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D480" t="str">
-        <v>2025-12-13T00:33:47.121Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="481">
@@ -10202,10 +10412,10 @@
         <v>2025-12-13T06:33:05.998Z</v>
       </c>
       <c r="C481">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D481" t="str">
-        <v>2025-12-13T06:34:18.464Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="482">
@@ -10216,10 +10426,10 @@
         <v>2025-12-13T12:37:52.204Z</v>
       </c>
       <c r="C482">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D482" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="483">
@@ -10230,10 +10440,10 @@
         <v>2025-12-13T12:41:03.193Z</v>
       </c>
       <c r="C483">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D483" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="484">
@@ -10244,10 +10454,10 @@
         <v>2025-12-13T12:41:03.193Z</v>
       </c>
       <c r="C484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D484" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="485">
@@ -10258,10 +10468,10 @@
         <v>2025-12-13T12:43:00.402Z</v>
       </c>
       <c r="C485">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D485" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="486">
@@ -10272,10 +10482,10 @@
         <v>2025-12-13T12:43:00.402Z</v>
       </c>
       <c r="C486">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D486" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="487">
@@ -10286,10 +10496,10 @@
         <v>2025-12-13T12:43:00.402Z</v>
       </c>
       <c r="C487">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D487" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="488">
@@ -10300,10 +10510,10 @@
         <v>2025-12-14T00:32:50.485Z</v>
       </c>
       <c r="C488">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D488" t="str">
-        <v>2025-12-14T00:34:12.145Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="489">
@@ -10314,10 +10524,10 @@
         <v>2025-12-14T00:32:50.485Z</v>
       </c>
       <c r="C489">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D489" t="str">
-        <v>2025-12-14T00:34:12.145Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="490">
@@ -10328,10 +10538,10 @@
         <v>2025-12-14T12:32:54.898Z</v>
       </c>
       <c r="C490">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D490" t="str">
-        <v>2025-12-14T12:33:02.428Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="491">
@@ -10342,10 +10552,10 @@
         <v>2025-12-15T06:30:39.891Z</v>
       </c>
       <c r="C491">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D491" t="str">
-        <v>2025-12-15T06:35:06.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="492">
@@ -10356,10 +10566,10 @@
         <v>2025-12-15T06:34:27.472Z</v>
       </c>
       <c r="C492">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D492" t="str">
-        <v>2025-12-15T06:35:06.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="493">
@@ -10370,10 +10580,10 @@
         <v>2025-12-15T12:34:38.434Z</v>
       </c>
       <c r="C493">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D493" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="494">
@@ -10384,10 +10594,10 @@
         <v>2025-12-15T12:34:38.434Z</v>
       </c>
       <c r="C494">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D494" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="495">
@@ -10398,10 +10608,10 @@
         <v>2025-12-15T12:34:38.434Z</v>
       </c>
       <c r="C495">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D495" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="496">
@@ -10412,10 +10622,10 @@
         <v>2025-12-15T12:35:07.117Z</v>
       </c>
       <c r="C496">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D496" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="497">
@@ -10426,10 +10636,10 @@
         <v>2025-12-15T12:35:55.544Z</v>
       </c>
       <c r="C497">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D497" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="498">
@@ -10440,10 +10650,10 @@
         <v>2025-12-15T12:36:03.808Z</v>
       </c>
       <c r="C498">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D498" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="499">
@@ -10454,10 +10664,10 @@
         <v>2025-12-15T12:36:22.724Z</v>
       </c>
       <c r="C499">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D499" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="500">
@@ -10468,10 +10678,10 @@
         <v>2025-12-15T12:36:22.724Z</v>
       </c>
       <c r="C500">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D500" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="501">
@@ -10482,10 +10692,10 @@
         <v>2025-12-15T18:33:10.956Z</v>
       </c>
       <c r="C501">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D501" t="str">
-        <v>2025-12-15T18:34:19.333Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="502">
@@ -10496,10 +10706,10 @@
         <v>2025-12-16T00:30:17.411Z</v>
       </c>
       <c r="C502">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D502" t="str">
-        <v>2025-12-16T00:32:37.306Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="503">
@@ -10510,10 +10720,10 @@
         <v>2025-12-16T00:30:17.411Z</v>
       </c>
       <c r="C503">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D503" t="str">
-        <v>2025-12-16T00:32:37.306Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="504">
@@ -10524,10 +10734,10 @@
         <v>2025-12-16T06:33:05.548Z</v>
       </c>
       <c r="C504">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D504" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="505">
@@ -10538,10 +10748,10 @@
         <v>2025-12-16T06:35:02.606Z</v>
       </c>
       <c r="C505">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D505" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="506">
@@ -10552,10 +10762,10 @@
         <v>2025-12-16T06:35:23.894Z</v>
       </c>
       <c r="C506">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D506" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="507">
@@ -10566,10 +10776,10 @@
         <v>2025-12-16T06:35:41.677Z</v>
       </c>
       <c r="C507">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D507" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="508">
@@ -10580,10 +10790,10 @@
         <v>2025-12-16T06:35:42.101Z</v>
       </c>
       <c r="C508">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D508" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="509">
@@ -10594,10 +10804,10 @@
         <v>2025-12-16T06:37:39.190Z</v>
       </c>
       <c r="C509">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D509" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="510">
@@ -10608,10 +10818,10 @@
         <v>2025-12-16T12:31:30.631Z</v>
       </c>
       <c r="C510">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D510" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="511">
@@ -10622,10 +10832,10 @@
         <v>2025-12-16T12:31:53.618Z</v>
       </c>
       <c r="C511">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D511" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="512">
@@ -10636,10 +10846,10 @@
         <v>2025-12-16T12:32:42.277Z</v>
       </c>
       <c r="C512">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D512" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="513">
@@ -10650,10 +10860,10 @@
         <v>2025-12-16T12:33:13.481Z</v>
       </c>
       <c r="C513">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D513" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="514">
@@ -10664,10 +10874,10 @@
         <v>2025-12-16T12:33:40.220Z</v>
       </c>
       <c r="C514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D514" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="515">
@@ -10678,10 +10888,10 @@
         <v>2025-12-16T12:35:31.735Z</v>
       </c>
       <c r="C515">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D515" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="516">
@@ -10692,10 +10902,10 @@
         <v>2025-12-16T12:36:22.375Z</v>
       </c>
       <c r="C516">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D516" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="517">
@@ -10706,10 +10916,10 @@
         <v>2025-12-16T12:36:27.244Z</v>
       </c>
       <c r="C517">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D517" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="518">
@@ -10720,10 +10930,10 @@
         <v>2025-12-16T12:36:53.935Z</v>
       </c>
       <c r="C518">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D518" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="519">
@@ -10734,10 +10944,10 @@
         <v>2025-12-16T18:32:15.616Z</v>
       </c>
       <c r="C519">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D519" t="str">
-        <v>2025-12-16T18:34:27.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="520">
@@ -10748,10 +10958,10 @@
         <v>2025-12-16T18:32:15.921Z</v>
       </c>
       <c r="C520">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D520" t="str">
-        <v>2025-12-16T18:34:27.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="521">
@@ -10762,10 +10972,10 @@
         <v>2025-12-17T06:33:44.094Z</v>
       </c>
       <c r="C521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D521" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="522">
@@ -10776,10 +10986,10 @@
         <v>2025-12-17T06:33:44.094Z</v>
       </c>
       <c r="C522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D522" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="523">
@@ -10790,10 +11000,10 @@
         <v>2025-12-17T06:35:08.066Z</v>
       </c>
       <c r="C523">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D523" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="524">
@@ -10804,10 +11014,10 @@
         <v>2025-12-17T06:35:08.066Z</v>
       </c>
       <c r="C524">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D524" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="525">
@@ -10818,10 +11028,10 @@
         <v>2025-12-17T06:35:08.129Z</v>
       </c>
       <c r="C525">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D525" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="526">
@@ -10832,10 +11042,10 @@
         <v>2025-12-17T06:35:08.129Z</v>
       </c>
       <c r="C526">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D526" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="527">
@@ -11650,16 +11860,576 @@
         <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
+    <row r="585">
+      <c r="A585" t="str">
+        <v>ranjitd@indianoil.in</v>
+      </c>
+      <c r="B585" t="str">
+        <v>2025-12-26T15:21:44.392Z</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+      <c r="D585" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="str">
+        <v>kumara409@indianoil.in</v>
+      </c>
+      <c r="B586" t="str">
+        <v>2025-12-26T15:22:34.935Z</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+      <c r="D586" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="str">
+        <v>kumara133@indianoil.in</v>
+      </c>
+      <c r="B587" t="str">
+        <v>2025-12-26T15:22:34.935Z</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+      <c r="D587" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="str">
+        <v>sharmaaditi@indianoil.in</v>
+      </c>
+      <c r="B588" t="str">
+        <v>2025-12-26T15:26:31.249Z</v>
+      </c>
+      <c r="C588">
+        <v>1</v>
+      </c>
+      <c r="D588" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="str">
+        <v>dasa@indianoil.in</v>
+      </c>
+      <c r="B589" t="str">
+        <v>2025-12-26T15:26:31.249Z</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+      <c r="D589" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="str">
+        <v>oraonj@indianoil.in</v>
+      </c>
+      <c r="B590" t="str">
+        <v>2025-12-26T15:28:43.294Z</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+      <c r="D590" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="str">
+        <v>kanishka@indianoil.in</v>
+      </c>
+      <c r="B591" t="str">
+        <v>2025-12-26T15:29:17.856Z</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+      <c r="D591" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="str">
+        <v>nadeemmd@indianoil.in</v>
+      </c>
+      <c r="B592" t="str">
+        <v>2025-12-26T15:29:59.208Z</v>
+      </c>
+      <c r="C592">
+        <v>1</v>
+      </c>
+      <c r="D592" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="str">
+        <v>kumarsaravana@indianoil.in</v>
+      </c>
+      <c r="B593" t="str">
+        <v>2025-12-26T15:40:44.237Z</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+      <c r="D593" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="str">
+        <v>sashwini@indianoil.in</v>
+      </c>
+      <c r="B594" t="str">
+        <v>2025-12-26T15:40:44.237Z</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+      <c r="D594" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="str">
+        <v>elanilas@indianoil.in</v>
+      </c>
+      <c r="B595" t="str">
+        <v>2025-12-26T15:40:44.237Z</v>
+      </c>
+      <c r="C595">
+        <v>1</v>
+      </c>
+      <c r="D595" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="str">
+        <v>channabasava@indianoil.in</v>
+      </c>
+      <c r="B596" t="str">
+        <v>2025-12-26T15:49:53.561Z</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+      <c r="D596" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="str">
+        <v>rawats@indianoil.in</v>
+      </c>
+      <c r="B597" t="str">
+        <v>2025-12-26T15:50:14.292Z</v>
+      </c>
+      <c r="C597">
+        <v>1</v>
+      </c>
+      <c r="D597" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="str">
+        <v>vermar4@indianoil.in</v>
+      </c>
+      <c r="B598" t="str">
+        <v>2025-12-26T15:54:09.978Z</v>
+      </c>
+      <c r="C598">
+        <v>1</v>
+      </c>
+      <c r="D598" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="str">
+        <v>inforndiocl@indianoil.in</v>
+      </c>
+      <c r="B599" t="str">
+        <v>2025-12-26T16:06:19.188Z</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+      <c r="D599" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="str">
+        <v>parmara1@indianoil.in</v>
+      </c>
+      <c r="B600" t="str">
+        <v>2025-12-26T16:06:45.169Z</v>
+      </c>
+      <c r="C600">
+        <v>1</v>
+      </c>
+      <c r="D600" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="str">
+        <v>ganvirsy@indianoil.in</v>
+      </c>
+      <c r="B601" t="str">
+        <v>2025-12-26T16:14:09.315Z</v>
+      </c>
+      <c r="C601">
+        <v>1</v>
+      </c>
+      <c r="D601" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="str">
+        <v>borgohainr@indianoil.in</v>
+      </c>
+      <c r="B602" t="str">
+        <v>2025-12-26T16:18:48.353Z</v>
+      </c>
+      <c r="C602">
+        <v>1</v>
+      </c>
+      <c r="D602" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="str">
+        <v>paulasmita@indianoil.in</v>
+      </c>
+      <c r="B603" t="str">
+        <v>2025-12-26T16:18:48.353Z</v>
+      </c>
+      <c r="C603">
+        <v>1</v>
+      </c>
+      <c r="D603" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="str">
+        <v>nanavatid@indianoil.in</v>
+      </c>
+      <c r="B604" t="str">
+        <v>2025-12-26T16:20:20.083Z</v>
+      </c>
+      <c r="C604">
+        <v>1</v>
+      </c>
+      <c r="D604" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="str">
+        <v>pandem3@indianoil.in</v>
+      </c>
+      <c r="B605" t="str">
+        <v>2025-12-26T16:32:11.443Z</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+      <c r="D605" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="str">
+        <v>biswasj@indianoil.in</v>
+      </c>
+      <c r="B606" t="str">
+        <v>2025-12-26T16:42:10.929Z</v>
+      </c>
+      <c r="C606">
+        <v>1</v>
+      </c>
+      <c r="D606" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="str">
+        <v>mshinde@indianoil.in</v>
+      </c>
+      <c r="B607" t="str">
+        <v>2025-12-26T16:42:38.392Z</v>
+      </c>
+      <c r="C607">
+        <v>1</v>
+      </c>
+      <c r="D607" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="str">
+        <v>meenakshiv@indianoil.in</v>
+      </c>
+      <c r="B608" t="str">
+        <v>2025-12-26T16:51:51.087Z</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+      <c r="D608" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="str">
+        <v>vikramkumar@indianoil.in</v>
+      </c>
+      <c r="B609" t="str">
+        <v>2025-12-26T16:56:37.625Z</v>
+      </c>
+      <c r="C609">
+        <v>1</v>
+      </c>
+      <c r="D609" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="str">
+        <v>urvashi@indianoil.in</v>
+      </c>
+      <c r="B610" t="str">
+        <v>2025-12-26T16:57:25.279Z</v>
+      </c>
+      <c r="C610">
+        <v>1</v>
+      </c>
+      <c r="D610" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="str">
+        <v>kulharia@indianoil.in</v>
+      </c>
+      <c r="B611" t="str">
+        <v>2025-12-27T07:37:51.220Z</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+      <c r="D611" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="str">
+        <v>gsoni@indianoil.in</v>
+      </c>
+      <c r="B612" t="str">
+        <v>2025-12-27T07:39:28.130Z</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+      <c r="D612" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="str">
+        <v>gautamk@indianoil.in</v>
+      </c>
+      <c r="B613" t="str">
+        <v>2025-12-27T07:42:23.788Z</v>
+      </c>
+      <c r="C613">
+        <v>1</v>
+      </c>
+      <c r="D613" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="str">
+        <v>rahul@indianoil.in</v>
+      </c>
+      <c r="B614" t="str">
+        <v>2025-12-27T07:42:40.085Z</v>
+      </c>
+      <c r="C614">
+        <v>1</v>
+      </c>
+      <c r="D614" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="str">
+        <v>dassamridha@indianoil.in</v>
+      </c>
+      <c r="B615" t="str">
+        <v>2025-12-27T07:53:22.568Z</v>
+      </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
+      <c r="D615" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="str">
+        <v>mudulibk@indianoil.in</v>
+      </c>
+      <c r="B616" t="str">
+        <v>2025-12-27T07:53:22.568Z</v>
+      </c>
+      <c r="C616">
+        <v>1</v>
+      </c>
+      <c r="D616" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="str">
+        <v>sahaa2@indianoil.in</v>
+      </c>
+      <c r="B617" t="str">
+        <v>2025-12-27T07:53:22.568Z</v>
+      </c>
+      <c r="C617">
+        <v>1</v>
+      </c>
+      <c r="D617" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="str">
+        <v>chakladars@indianoil.in</v>
+      </c>
+      <c r="B618" t="str">
+        <v>2025-12-27T07:53:22.568Z</v>
+      </c>
+      <c r="C618">
+        <v>1</v>
+      </c>
+      <c r="D618" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="str">
+        <v>ioclbrpeso@indianoil.in</v>
+      </c>
+      <c r="B619" t="str">
+        <v>2025-12-27T07:53:22.568Z</v>
+      </c>
+      <c r="C619">
+        <v>1</v>
+      </c>
+      <c r="D619" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="str">
+        <v>sonawane@indianoil.in</v>
+      </c>
+      <c r="B620" t="str">
+        <v>2025-12-27T07:53:22.568Z</v>
+      </c>
+      <c r="C620">
+        <v>1</v>
+      </c>
+      <c r="D620" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="str">
+        <v>dasgautam@indianoil.in</v>
+      </c>
+      <c r="B621" t="str">
+        <v>2025-12-27T07:53:22.568Z</v>
+      </c>
+      <c r="C621">
+        <v>1</v>
+      </c>
+      <c r="D621" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="str">
+        <v>jainn6@indianoil.in</v>
+      </c>
+      <c r="B622" t="str">
+        <v>2025-12-27T07:53:22.568Z</v>
+      </c>
+      <c r="C622">
+        <v>1</v>
+      </c>
+      <c r="D622" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="str">
+        <v>karak@indianoil.in</v>
+      </c>
+      <c r="B623" t="str">
+        <v>2025-12-27T07:53:22.568Z</v>
+      </c>
+      <c r="C623">
+        <v>1</v>
+      </c>
+      <c r="D623" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="str">
+        <v>rathorem@indianoil.in</v>
+      </c>
+      <c r="B624" t="str">
+        <v>2025-12-27T07:54:42.943Z</v>
+      </c>
+      <c r="C624">
+        <v>1</v>
+      </c>
+      <c r="D624" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D584"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D624"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12770,10 +13540,10 @@
         <v>2025-12-12T06:28:22.195Z</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="str">
-        <v>2025-12-12T06:30:28.310Z</v>
+        <v>2025-12-27T08:00:19.585Z</v>
       </c>
     </row>
     <row r="80">
@@ -12784,10 +13554,10 @@
         <v>2025-12-12T06:30:13.228Z</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" t="str">
-        <v>2025-12-12T06:30:28.310Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="81">
@@ -12798,10 +13568,10 @@
         <v>2025-12-12T18:33:48.695Z</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="82">
@@ -12812,10 +13582,10 @@
         <v>2025-12-15T12:33:01.475Z</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="83">
@@ -12826,10 +13596,10 @@
         <v>2025-12-15T12:33:01.475Z</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="84">
@@ -12840,10 +13610,10 @@
         <v>2025-12-16T06:33:49.597Z</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="85">
@@ -12972,16 +13742,58 @@
         <v>2025-12-18T06:35:33.697Z</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>jusmita.mahanta@oilindia.in</v>
+      </c>
+      <c r="B94" t="str">
+        <v>2025-12-26T15:24:00.919Z</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>joyshree.dutta@oilindia.in</v>
+      </c>
+      <c r="B95" t="str">
+        <v>2025-12-26T16:18:58.158Z</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>drilling@oilindia.in</v>
+      </c>
+      <c r="B96" t="str">
+        <v>2025-12-27T07:58:38.283Z</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D93"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D96"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14120,10 +14932,10 @@
         <v>2025-12-12T12:40:23.709Z</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="82">
@@ -14134,10 +14946,10 @@
         <v>2025-12-12T18:35:10.067Z</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="83">
@@ -14148,10 +14960,10 @@
         <v>2025-12-15T12:36:37.940Z</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="84">
@@ -14162,22 +14974,64 @@
         <v>2025-12-15T18:30:42.585Z</v>
       </c>
       <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84" t="str">
+        <v>2025-12-27T08:00:19.586Z</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>rk.singh@eil.co.in</v>
+      </c>
+      <c r="B85" t="str">
+        <v>2025-12-27T07:53:22.568Z</v>
+      </c>
+      <c r="C85">
         <v>1</v>
       </c>
-      <c r="D84" t="str">
-        <v>2025-12-15T18:34:19.333Z</v>
+      <c r="D85" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>himangshu.pal@eil.co.in</v>
+      </c>
+      <c r="B86" t="str">
+        <v>2025-12-27T07:53:22.568Z</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>kanishk.agarwal@eil.co.in</v>
+      </c>
+      <c r="B87" t="str">
+        <v>2025-12-27T07:59:00.937Z</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D84"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D87"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D197"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16520,10 +17374,10 @@
         <v>2025-12-12T18:30:41.689Z</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="168">
@@ -16534,10 +17388,10 @@
         <v>2025-12-13T12:34:54.140Z</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="169">
@@ -16548,10 +17402,10 @@
         <v>2025-12-13T12:39:24.663Z</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="170">
@@ -16562,10 +17416,10 @@
         <v>2025-12-13T12:41:46.959Z</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="171">
@@ -16576,10 +17430,10 @@
         <v>2025-12-13T12:41:46.959Z</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="172">
@@ -16590,10 +17444,10 @@
         <v>2025-12-14T00:30:40.213Z</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172" t="str">
-        <v>2025-12-14T00:34:12.145Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="173">
@@ -16604,10 +17458,10 @@
         <v>2025-12-14T00:30:40.213Z</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" t="str">
-        <v>2025-12-14T00:34:12.145Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="174">
@@ -16618,10 +17472,10 @@
         <v>2025-12-15T06:33:09.401Z</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174" t="str">
-        <v>2025-12-15T06:35:06.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="175">
@@ -16632,10 +17486,10 @@
         <v>2025-12-15T06:33:09.401Z</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175" t="str">
-        <v>2025-12-15T06:35:06.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="176">
@@ -16646,10 +17500,10 @@
         <v>2025-12-15T12:33:23.359Z</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="177">
@@ -16660,10 +17514,10 @@
         <v>2025-12-16T06:36:16.079Z</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="178">
@@ -16674,10 +17528,10 @@
         <v>2025-12-16T06:36:16.079Z</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="179">
@@ -16688,10 +17542,10 @@
         <v>2025-12-16T06:36:23.539Z</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="180">
@@ -16702,10 +17556,10 @@
         <v>2025-12-16T12:31:34.280Z</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="181">
@@ -16716,10 +17570,10 @@
         <v>2025-12-16T12:35:38.144Z</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="182">
@@ -16730,10 +17584,10 @@
         <v>2025-12-16T12:35:38.144Z</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="183">
@@ -16946,16 +17800,212 @@
         <v>2025-12-20T18:36:49.244Z</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>sushil_kg@mrpl.co.in</v>
+      </c>
+      <c r="B198" t="str">
+        <v>2025-12-26T15:22:24.963Z</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>sudeshkamath@mrpl.co.in</v>
+      </c>
+      <c r="B199" t="str">
+        <v>2025-12-26T15:22:24.963Z</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>yogini@mrpl.co.in</v>
+      </c>
+      <c r="B200" t="str">
+        <v>2025-12-26T15:22:24.963Z</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>mandar@mrpl.co.in</v>
+      </c>
+      <c r="B201" t="str">
+        <v>2025-12-26T15:22:24.963Z</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>jatinyadav@mrpl.co.in</v>
+      </c>
+      <c r="B202" t="str">
+        <v>2025-12-26T16:10:08.561Z</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>pramodhegde@mrpl.co.in</v>
+      </c>
+      <c r="B203" t="str">
+        <v>2025-12-26T16:10:08.564Z</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>shubhro.sen@mrpl.co.in</v>
+      </c>
+      <c r="B204" t="str">
+        <v>2025-12-26T16:30:59.968Z</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>bangera@mrpl.co.in</v>
+      </c>
+      <c r="B205" t="str">
+        <v>2025-12-26T16:52:22.985Z</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>ramki@mrpl.co.in</v>
+      </c>
+      <c r="B206" t="str">
+        <v>2025-12-27T07:43:11.467Z</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>pranav.joshi@mrpl.co.in</v>
+      </c>
+      <c r="B207" t="str">
+        <v>2025-12-27T07:43:11.763Z</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>vishalfy@mrpl.co.in</v>
+      </c>
+      <c r="B208" t="str">
+        <v>2025-12-27T07:53:22.568Z</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>kumar_prathap@mrpl.co.in</v>
+      </c>
+      <c r="B209" t="str">
+        <v>2025-12-27T07:58:55.122Z</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>winny@mrpl.co.in</v>
+      </c>
+      <c r="B210" t="str">
+        <v>2025-12-27T07:58:55.122Z</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>prashanth.shetty@mrpl.co.in</v>
+      </c>
+      <c r="B211" t="str">
+        <v>2025-12-27T07:58:55.122Z</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D197"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D211"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D446"/>
+  <dimension ref="A1:D463"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22154,10 +23204,10 @@
         <v>2025-12-12T06:28:22.512Z</v>
       </c>
       <c r="C371">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D371" t="str">
-        <v>2025-12-12T06:30:28.310Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="372">
@@ -22168,10 +23218,10 @@
         <v>2025-12-12T06:28:22.512Z</v>
       </c>
       <c r="C372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D372" t="str">
-        <v>2025-12-12T06:30:28.310Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="373">
@@ -22182,10 +23232,10 @@
         <v>2025-12-12T12:36:45.225Z</v>
       </c>
       <c r="C373">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D373" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="374">
@@ -22196,10 +23246,10 @@
         <v>2025-12-12T12:38:11.768Z</v>
       </c>
       <c r="C374">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D374" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="375">
@@ -22210,10 +23260,10 @@
         <v>2025-12-12T12:38:11.768Z</v>
       </c>
       <c r="C375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D375" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="376">
@@ -22224,10 +23274,10 @@
         <v>2025-12-12T12:39:35.674Z</v>
       </c>
       <c r="C376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D376" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="377">
@@ -22238,10 +23288,10 @@
         <v>2025-12-12T12:39:41.388Z</v>
       </c>
       <c r="C377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D377" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="378">
@@ -22252,10 +23302,10 @@
         <v>2025-12-12T12:39:41.388Z</v>
       </c>
       <c r="C378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D378" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="379">
@@ -22266,10 +23316,10 @@
         <v>2025-12-12T18:36:17.153Z</v>
       </c>
       <c r="C379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D379" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="380">
@@ -22280,10 +23330,10 @@
         <v>2025-12-12T18:36:17.153Z</v>
       </c>
       <c r="C380">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D380" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="381">
@@ -22294,10 +23344,10 @@
         <v>2025-12-13T06:32:29.779Z</v>
       </c>
       <c r="C381">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D381" t="str">
-        <v>2025-12-13T06:34:18.464Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="382">
@@ -22308,10 +23358,10 @@
         <v>2025-12-13T12:35:45.788Z</v>
       </c>
       <c r="C382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D382" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="383">
@@ -22322,10 +23372,10 @@
         <v>2025-12-13T12:35:45.788Z</v>
       </c>
       <c r="C383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D383" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="384">
@@ -22336,10 +23386,10 @@
         <v>2025-12-13T12:37:52.105Z</v>
       </c>
       <c r="C384">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D384" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="385">
@@ -22350,10 +23400,10 @@
         <v>2025-12-13T12:42:35.458Z</v>
       </c>
       <c r="C385">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D385" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="386">
@@ -22364,10 +23414,10 @@
         <v>2025-12-13T12:42:49.977Z</v>
       </c>
       <c r="C386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D386" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="387">
@@ -22378,10 +23428,10 @@
         <v>2025-12-14T00:33:56.409Z</v>
       </c>
       <c r="C387">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D387" t="str">
-        <v>2025-12-14T00:34:12.145Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="388">
@@ -22392,10 +23442,10 @@
         <v>2025-12-15T00:33:24.275Z</v>
       </c>
       <c r="C388">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D388" t="str">
-        <v>2025-12-15T00:33:31.770Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="389">
@@ -22406,10 +23456,10 @@
         <v>2025-12-15T12:31:15.405Z</v>
       </c>
       <c r="C389">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D389" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="390">
@@ -22420,10 +23470,10 @@
         <v>2025-12-15T12:32:09.704Z</v>
       </c>
       <c r="C390">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D390" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="391">
@@ -22434,10 +23484,10 @@
         <v>2025-12-15T12:32:27.566Z</v>
       </c>
       <c r="C391">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D391" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="392">
@@ -22448,10 +23498,10 @@
         <v>2025-12-15T12:32:27.566Z</v>
       </c>
       <c r="C392">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D392" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="393">
@@ -22462,10 +23512,10 @@
         <v>2025-12-15T12:33:29.997Z</v>
       </c>
       <c r="C393">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D393" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="394">
@@ -22476,10 +23526,10 @@
         <v>2025-12-15T12:35:00.070Z</v>
       </c>
       <c r="C394">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D394" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="395">
@@ -22490,10 +23540,10 @@
         <v>2025-12-15T18:28:30.989Z</v>
       </c>
       <c r="C395">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D395" t="str">
-        <v>2025-12-15T18:34:19.333Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="396">
@@ -22504,10 +23554,10 @@
         <v>2025-12-15T18:28:30.989Z</v>
       </c>
       <c r="C396">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D396" t="str">
-        <v>2025-12-15T18:34:19.333Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="397">
@@ -22518,10 +23568,10 @@
         <v>2025-12-15T18:30:38.737Z</v>
       </c>
       <c r="C397">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D397" t="str">
-        <v>2025-12-15T18:34:19.333Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="398">
@@ -22532,10 +23582,10 @@
         <v>2025-12-15T18:30:52.077Z</v>
       </c>
       <c r="C398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D398" t="str">
-        <v>2025-12-15T18:34:19.333Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="399">
@@ -22546,10 +23596,10 @@
         <v>2025-12-15T18:30:52.077Z</v>
       </c>
       <c r="C399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D399" t="str">
-        <v>2025-12-15T18:34:19.333Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="400">
@@ -22560,10 +23610,10 @@
         <v>2025-12-15T18:32:49.881Z</v>
       </c>
       <c r="C400">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D400" t="str">
-        <v>2025-12-15T18:34:19.333Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="401">
@@ -22574,10 +23624,10 @@
         <v>2025-12-15T18:33:12.873Z</v>
       </c>
       <c r="C401">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D401" t="str">
-        <v>2025-12-15T18:34:19.333Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="402">
@@ -22588,10 +23638,10 @@
         <v>2025-12-16T06:36:15.878Z</v>
       </c>
       <c r="C402">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D402" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="403">
@@ -22602,10 +23652,10 @@
         <v>2025-12-16T06:37:05.228Z</v>
       </c>
       <c r="C403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D403" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="404">
@@ -22616,10 +23666,10 @@
         <v>2025-12-16T12:29:56.028Z</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D404" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="405">
@@ -22630,10 +23680,10 @@
         <v>2025-12-16T12:34:47.011Z</v>
       </c>
       <c r="C405">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D405" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="406">
@@ -22644,10 +23694,10 @@
         <v>2025-12-16T18:30:51.854Z</v>
       </c>
       <c r="C406">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D406" t="str">
-        <v>2025-12-16T18:34:27.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="407">
@@ -22658,10 +23708,10 @@
         <v>2025-12-16T18:33:28.127Z</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D407" t="str">
-        <v>2025-12-16T18:34:27.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="408">
@@ -22672,10 +23722,10 @@
         <v>2025-12-16T18:33:47.703Z</v>
       </c>
       <c r="C408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D408" t="str">
-        <v>2025-12-16T18:34:27.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="409">
@@ -22686,10 +23736,10 @@
         <v>2025-12-16T18:33:47.703Z</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D409" t="str">
-        <v>2025-12-16T18:34:27.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="410">
@@ -22700,10 +23750,10 @@
         <v>2025-12-17T06:31:10.579Z</v>
       </c>
       <c r="C410">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D410" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="411">
@@ -22714,10 +23764,10 @@
         <v>2025-12-17T06:32:11.485Z</v>
       </c>
       <c r="C411">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D411" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="412">
@@ -22728,10 +23778,10 @@
         <v>2025-12-17T06:32:11.485Z</v>
       </c>
       <c r="C412">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D412" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="413">
@@ -22742,10 +23792,10 @@
         <v>2025-12-17T06:32:11.485Z</v>
       </c>
       <c r="C413">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D413" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="414">
@@ -22756,10 +23806,10 @@
         <v>2025-12-17T06:32:11.485Z</v>
       </c>
       <c r="C414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D414" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="415">
@@ -23210,16 +24260,254 @@
         <v>2025-12-21T12:33:45.367Z</v>
       </c>
     </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>prosenjitdebnat@bharatpetroleum.in</v>
+      </c>
+      <c r="B447" t="str">
+        <v>2025-12-26T15:21:57.420Z</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>tarungarg@bharatpetroleum.in</v>
+      </c>
+      <c r="B448" t="str">
+        <v>2025-12-26T15:23:37.823Z</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>dongardiveamols@bharatpetroleum.in</v>
+      </c>
+      <c r="B449" t="str">
+        <v>2025-12-26T15:24:10.295Z</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>samudralaratnak@bharatpetroleum.in</v>
+      </c>
+      <c r="B450" t="str">
+        <v>2025-12-26T15:24:10.295Z</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>jomysebastian@bharatpetroleum.in</v>
+      </c>
+      <c r="B451" t="str">
+        <v>2025-12-26T15:41:16.913Z</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>raghavank@bharatpetroleum.in</v>
+      </c>
+      <c r="B452" t="str">
+        <v>2025-12-26T15:41:16.915Z</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>esanck@bharatpetroleum.in</v>
+      </c>
+      <c r="B453" t="str">
+        <v>2025-12-26T15:41:21.399Z</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>arjunvp@bharatpetroleum.in</v>
+      </c>
+      <c r="B454" t="str">
+        <v>2025-12-26T15:49:59.614Z</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>swarnabbhaumik@bharatpetroleum.in</v>
+      </c>
+      <c r="B455" t="str">
+        <v>2025-12-26T15:53:14.168Z</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>abdulazeem@bharatpetroleum.in</v>
+      </c>
+      <c r="B456" t="str">
+        <v>2025-12-26T15:53:14.168Z</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>vishalkumar003@bharatpetroleum.in</v>
+      </c>
+      <c r="B457" t="str">
+        <v>2025-12-26T15:53:20.539Z</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>jitheshvaliyat@bharatpetroleum.in</v>
+      </c>
+      <c r="B458" t="str">
+        <v>2025-12-26T16:00:16.738Z</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>asharshini@bharatpetroleum.in</v>
+      </c>
+      <c r="B459" t="str">
+        <v>2025-12-26T16:11:01.082Z</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>tanmaysarkar@bharatpetroleum.in</v>
+      </c>
+      <c r="B460" t="str">
+        <v>2025-12-26T16:45:33.234Z</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>sarungeorge@bharatpetroleum.in</v>
+      </c>
+      <c r="B461" t="str">
+        <v>2025-12-27T07:39:37.194Z</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>sriramkumar@bharatpetroleum.in</v>
+      </c>
+      <c r="B462" t="str">
+        <v>2025-12-27T07:39:37.194Z</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>aminajay@bharatpetroleum.in</v>
+      </c>
+      <c r="B463" t="str">
+        <v>2025-12-27T07:39:45.428Z</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D446"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D463"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24638,10 +25926,10 @@
         <v>2025-12-12T06:28:23.424Z</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" t="str">
-        <v>2025-12-12T06:30:28.310Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="102">
@@ -24652,10 +25940,10 @@
         <v>2025-12-12T06:28:23.424Z</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" t="str">
-        <v>2025-12-12T06:30:28.310Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="103">
@@ -24666,10 +25954,10 @@
         <v>2025-12-12T06:28:23.424Z</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" t="str">
-        <v>2025-12-12T06:30:28.310Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="104">
@@ -24680,10 +25968,10 @@
         <v>2025-12-12T12:37:22.179Z</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="105">
@@ -24694,10 +25982,10 @@
         <v>2025-12-12T12:38:48.523Z</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="106">
@@ -24708,10 +25996,10 @@
         <v>2025-12-12T12:43:13.886Z</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="107">
@@ -24722,10 +26010,10 @@
         <v>2025-12-12T12:43:13.886Z</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="108">
@@ -24736,10 +26024,10 @@
         <v>2025-12-12T18:34:39.676Z</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="109">
@@ -24750,10 +26038,10 @@
         <v>2025-12-12T18:34:39.676Z</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="110">
@@ -24764,10 +26052,10 @@
         <v>2025-12-13T12:32:53.407Z</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="111">
@@ -24778,10 +26066,10 @@
         <v>2025-12-13T12:32:53.407Z</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="112">
@@ -24792,10 +26080,10 @@
         <v>2025-12-13T12:32:53.407Z</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="113">
@@ -24806,10 +26094,10 @@
         <v>2025-12-13T12:32:53.407Z</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="114">
@@ -24820,10 +26108,10 @@
         <v>2025-12-14T00:32:30.806Z</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" t="str">
-        <v>2025-12-14T00:34:12.145Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="115">
@@ -24834,10 +26122,10 @@
         <v>2025-12-15T06:33:30.066Z</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115" t="str">
-        <v>2025-12-15T06:35:06.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="116">
@@ -24848,10 +26136,10 @@
         <v>2025-12-15T12:28:58.287Z</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="117">
@@ -24862,10 +26150,10 @@
         <v>2025-12-15T12:28:58.287Z</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="118">
@@ -24876,10 +26164,10 @@
         <v>2025-12-15T12:33:04.066Z</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="119">
@@ -24890,10 +26178,10 @@
         <v>2025-12-15T12:33:04.066Z</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="120">
@@ -24904,10 +26192,10 @@
         <v>2025-12-15T12:34:01.689Z</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="121">
@@ -24918,10 +26206,10 @@
         <v>2025-12-15T12:34:01.689Z</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="122">
@@ -24932,10 +26220,10 @@
         <v>2025-12-15T18:32:49.738Z</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122" t="str">
-        <v>2025-12-15T18:34:19.333Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="123">
@@ -24946,10 +26234,10 @@
         <v>2025-12-15T18:33:22.105Z</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123" t="str">
-        <v>2025-12-15T18:34:19.333Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="124">
@@ -25022,16 +26310,114 @@
         <v>2025-12-19T12:37:06.309Z</v>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>twinkle.gour@gail.co.in</v>
+      </c>
+      <c r="B129" t="str">
+        <v>2025-12-26T16:19:58.568Z</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>sfraikwar@gail.co.in</v>
+      </c>
+      <c r="B130" t="str">
+        <v>2025-12-26T16:32:31.842Z</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>keerthy@gail.co.in</v>
+      </c>
+      <c r="B131" t="str">
+        <v>2025-12-26T16:33:06.274Z</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>zisadali@gail.co.in</v>
+      </c>
+      <c r="B132" t="str">
+        <v>2025-12-26T16:55:04.908Z</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>rohita.jain@gail.co.in</v>
+      </c>
+      <c r="B133" t="str">
+        <v>2025-12-26T16:59:13.785Z</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>akmeena@gail.co.in</v>
+      </c>
+      <c r="B134" t="str">
+        <v>2025-12-27T07:39:23.879Z</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>pdrathod@gail.co.in</v>
+      </c>
+      <c r="B135" t="str">
+        <v>2025-12-27T07:39:23.879Z</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D128"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D135"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D558"/>
+  <dimension ref="A1:D590"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30678,10 +32064,10 @@
         <v>2025-12-12T12:36:43.424Z</v>
       </c>
       <c r="C403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D403" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="404">
@@ -30692,10 +32078,10 @@
         <v>2025-12-12T12:37:40.162Z</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D404" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="405">
@@ -30706,10 +32092,10 @@
         <v>2025-12-12T12:37:46.882Z</v>
       </c>
       <c r="C405">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D405" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="406">
@@ -30720,10 +32106,10 @@
         <v>2025-12-12T12:37:46.882Z</v>
       </c>
       <c r="C406">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D406" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="407">
@@ -30734,10 +32120,10 @@
         <v>2025-12-12T12:38:43.496Z</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D407" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="408">
@@ -30748,10 +32134,10 @@
         <v>2025-12-12T12:38:43.496Z</v>
       </c>
       <c r="C408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D408" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="409">
@@ -30762,10 +32148,10 @@
         <v>2025-12-12T12:40:39.044Z</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D409" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="410">
@@ -30776,10 +32162,10 @@
         <v>2025-12-12T12:40:39.044Z</v>
       </c>
       <c r="C410">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D410" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="411">
@@ -30790,10 +32176,10 @@
         <v>2025-12-12T12:42:11.614Z</v>
       </c>
       <c r="C411">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D411" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="412">
@@ -30804,10 +32190,10 @@
         <v>2025-12-12T12:42:11.614Z</v>
       </c>
       <c r="C412">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D412" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="413">
@@ -30818,10 +32204,10 @@
         <v>2025-12-12T12:43:16.105Z</v>
       </c>
       <c r="C413">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D413" t="str">
-        <v>2025-12-12T12:43:30.706Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="414">
@@ -30832,10 +32218,10 @@
         <v>2025-12-12T18:30:27.963Z</v>
       </c>
       <c r="C414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D414" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="415">
@@ -30846,10 +32232,10 @@
         <v>2025-12-12T18:30:27.963Z</v>
       </c>
       <c r="C415">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D415" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="416">
@@ -30860,10 +32246,10 @@
         <v>2025-12-12T18:30:36.682Z</v>
       </c>
       <c r="C416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D416" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="417">
@@ -30874,10 +32260,10 @@
         <v>2025-12-12T18:30:39.792Z</v>
       </c>
       <c r="C417">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D417" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="418">
@@ -30888,10 +32274,10 @@
         <v>2025-12-12T18:30:39.792Z</v>
       </c>
       <c r="C418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D418" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="419">
@@ -30902,10 +32288,10 @@
         <v>2025-12-12T18:30:39.792Z</v>
       </c>
       <c r="C419">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D419" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="420">
@@ -30916,10 +32302,10 @@
         <v>2025-12-12T18:30:39.792Z</v>
       </c>
       <c r="C420">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D420" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="421">
@@ -30930,10 +32316,10 @@
         <v>2025-12-12T18:33:43.590Z</v>
       </c>
       <c r="C421">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D421" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="422">
@@ -30944,10 +32330,10 @@
         <v>2025-12-12T18:34:47.864Z</v>
       </c>
       <c r="C422">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D422" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="423">
@@ -30958,10 +32344,10 @@
         <v>2025-12-12T18:35:15.469Z</v>
       </c>
       <c r="C423">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D423" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="424">
@@ -30972,10 +32358,10 @@
         <v>2025-12-12T18:35:50.812Z</v>
       </c>
       <c r="C424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D424" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="425">
@@ -30986,10 +32372,10 @@
         <v>2025-12-12T18:35:54.933Z</v>
       </c>
       <c r="C425">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D425" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="426">
@@ -31000,10 +32386,10 @@
         <v>2025-12-12T18:35:54.933Z</v>
       </c>
       <c r="C426">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D426" t="str">
-        <v>2025-12-12T18:36:24.663Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="427">
@@ -31014,10 +32400,10 @@
         <v>2025-12-13T00:29:27.474Z</v>
       </c>
       <c r="C427">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D427" t="str">
-        <v>2025-12-13T00:33:47.121Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="428">
@@ -31028,10 +32414,10 @@
         <v>2025-12-13T00:30:34.462Z</v>
       </c>
       <c r="C428">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D428" t="str">
-        <v>2025-12-13T00:33:47.121Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="429">
@@ -31042,10 +32428,10 @@
         <v>2025-12-13T00:31:37.383Z</v>
       </c>
       <c r="C429">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D429" t="str">
-        <v>2025-12-13T00:33:47.121Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="430">
@@ -31056,10 +32442,10 @@
         <v>2025-12-13T00:33:18.493Z</v>
       </c>
       <c r="C430">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D430" t="str">
-        <v>2025-12-13T00:33:47.121Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="431">
@@ -31070,10 +32456,10 @@
         <v>2025-12-13T00:33:18.493Z</v>
       </c>
       <c r="C431">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D431" t="str">
-        <v>2025-12-13T00:33:47.121Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="432">
@@ -31084,10 +32470,10 @@
         <v>2025-12-13T00:33:18.493Z</v>
       </c>
       <c r="C432">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D432" t="str">
-        <v>2025-12-13T00:33:47.121Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="433">
@@ -31098,10 +32484,10 @@
         <v>2025-12-13T06:33:33.987Z</v>
       </c>
       <c r="C433">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D433" t="str">
-        <v>2025-12-13T06:34:18.464Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="434">
@@ -31112,10 +32498,10 @@
         <v>2025-12-13T06:33:33.987Z</v>
       </c>
       <c r="C434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D434" t="str">
-        <v>2025-12-13T06:34:18.464Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="435">
@@ -31126,10 +32512,10 @@
         <v>2025-12-13T12:38:49.594Z</v>
       </c>
       <c r="C435">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D435" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="436">
@@ -31140,10 +32526,10 @@
         <v>2025-12-13T12:41:57.419Z</v>
       </c>
       <c r="C436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D436" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="437">
@@ -31154,10 +32540,10 @@
         <v>2025-12-13T12:41:57.419Z</v>
       </c>
       <c r="C437">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D437" t="str">
-        <v>2025-12-13T12:45:04.414Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="438">
@@ -31168,10 +32554,10 @@
         <v>2025-12-14T00:30:41.989Z</v>
       </c>
       <c r="C438">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D438" t="str">
-        <v>2025-12-14T00:34:12.145Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="439">
@@ -31182,10 +32568,10 @@
         <v>2025-12-14T00:33:35.330Z</v>
       </c>
       <c r="C439">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D439" t="str">
-        <v>2025-12-14T00:34:12.145Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="440">
@@ -31196,10 +32582,10 @@
         <v>2025-12-14T00:33:35.330Z</v>
       </c>
       <c r="C440">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D440" t="str">
-        <v>2025-12-14T00:34:12.145Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="441">
@@ -31210,10 +32596,10 @@
         <v>2025-12-14T00:33:47.798Z</v>
       </c>
       <c r="C441">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D441" t="str">
-        <v>2025-12-14T00:34:12.145Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="442">
@@ -31224,10 +32610,10 @@
         <v>2025-12-15T00:33:07.154Z</v>
       </c>
       <c r="C442">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D442" t="str">
-        <v>2025-12-15T00:33:31.770Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="443">
@@ -31238,10 +32624,10 @@
         <v>2025-12-15T06:34:16.346Z</v>
       </c>
       <c r="C443">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D443" t="str">
-        <v>2025-12-15T06:35:06.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="444">
@@ -31252,10 +32638,10 @@
         <v>2025-12-15T06:34:33.284Z</v>
       </c>
       <c r="C444">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D444" t="str">
-        <v>2025-12-15T06:35:06.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="445">
@@ -31266,10 +32652,10 @@
         <v>2025-12-15T06:34:59.140Z</v>
       </c>
       <c r="C445">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D445" t="str">
-        <v>2025-12-15T06:35:06.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="446">
@@ -31280,10 +32666,10 @@
         <v>2025-12-15T06:34:59.140Z</v>
       </c>
       <c r="C446">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D446" t="str">
-        <v>2025-12-15T06:35:06.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="447">
@@ -31294,10 +32680,10 @@
         <v>2025-12-15T12:31:21.680Z</v>
       </c>
       <c r="C447">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D447" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="448">
@@ -31308,10 +32694,10 @@
         <v>2025-12-15T12:31:40.440Z</v>
       </c>
       <c r="C448">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D448" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="449">
@@ -31322,10 +32708,10 @@
         <v>2025-12-15T12:33:04.161Z</v>
       </c>
       <c r="C449">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D449" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="450">
@@ -31336,10 +32722,10 @@
         <v>2025-12-15T12:33:45.280Z</v>
       </c>
       <c r="C450">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D450" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="451">
@@ -31350,10 +32736,10 @@
         <v>2025-12-15T12:33:45.280Z</v>
       </c>
       <c r="C451">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D451" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="452">
@@ -31364,10 +32750,10 @@
         <v>2025-12-15T12:35:19.811Z</v>
       </c>
       <c r="C452">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D452" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="453">
@@ -31378,10 +32764,10 @@
         <v>2025-12-15T12:35:19.811Z</v>
       </c>
       <c r="C453">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D453" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="454">
@@ -31392,10 +32778,10 @@
         <v>2025-12-15T12:35:31.356Z</v>
       </c>
       <c r="C454">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D454" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="455">
@@ -31406,10 +32792,10 @@
         <v>2025-12-15T12:36:19.914Z</v>
       </c>
       <c r="C455">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D455" t="str">
-        <v>2025-12-15T12:37:32.686Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="456">
@@ -31420,10 +32806,10 @@
         <v>2025-12-16T06:34:02.674Z</v>
       </c>
       <c r="C456">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D456" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="457">
@@ -31434,10 +32820,10 @@
         <v>2025-12-16T06:34:02.674Z</v>
       </c>
       <c r="C457">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D457" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="458">
@@ -31448,10 +32834,10 @@
         <v>2025-12-16T06:36:17.702Z</v>
       </c>
       <c r="C458">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D458" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="459">
@@ -31462,10 +32848,10 @@
         <v>2025-12-16T06:36:17.702Z</v>
       </c>
       <c r="C459">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D459" t="str">
-        <v>2025-12-16T06:37:46.691Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="460">
@@ -31476,10 +32862,10 @@
         <v>2025-12-16T12:31:52.725Z</v>
       </c>
       <c r="C460">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D460" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="461">
@@ -31490,10 +32876,10 @@
         <v>2025-12-16T12:31:52.725Z</v>
       </c>
       <c r="C461">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D461" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="462">
@@ -31504,10 +32890,10 @@
         <v>2025-12-16T12:31:52.725Z</v>
       </c>
       <c r="C462">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D462" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="463">
@@ -31518,10 +32904,10 @@
         <v>2025-12-16T12:31:52.770Z</v>
       </c>
       <c r="C463">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D463" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="464">
@@ -31532,10 +32918,10 @@
         <v>2025-12-16T12:32:06.361Z</v>
       </c>
       <c r="C464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D464" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="465">
@@ -31546,10 +32932,10 @@
         <v>2025-12-16T12:33:19.474Z</v>
       </c>
       <c r="C465">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D465" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="466">
@@ -31560,10 +32946,10 @@
         <v>2025-12-16T12:34:51.886Z</v>
       </c>
       <c r="C466">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D466" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="467">
@@ -31574,10 +32960,10 @@
         <v>2025-12-16T12:35:38.070Z</v>
       </c>
       <c r="C467">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D467" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="468">
@@ -31588,10 +32974,10 @@
         <v>2025-12-16T12:35:38.070Z</v>
       </c>
       <c r="C468">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D468" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="469">
@@ -31602,10 +32988,10 @@
         <v>2025-12-16T12:36:57.827Z</v>
       </c>
       <c r="C469">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D469" t="str">
-        <v>2025-12-16T12:37:05.367Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="470">
@@ -31616,10 +33002,10 @@
         <v>2025-12-16T18:31:10.953Z</v>
       </c>
       <c r="C470">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D470" t="str">
-        <v>2025-12-16T18:34:27.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="471">
@@ -31630,10 +33016,10 @@
         <v>2025-12-16T18:34:10.419Z</v>
       </c>
       <c r="C471">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D471" t="str">
-        <v>2025-12-16T18:34:27.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="472">
@@ -31644,10 +33030,10 @@
         <v>2025-12-16T18:34:13.063Z</v>
       </c>
       <c r="C472">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D472" t="str">
-        <v>2025-12-16T18:34:27.628Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="473">
@@ -31658,10 +33044,10 @@
         <v>2025-12-17T06:32:45.115Z</v>
       </c>
       <c r="C473">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D473" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="474">
@@ -31672,10 +33058,10 @@
         <v>2025-12-17T06:33:10.560Z</v>
       </c>
       <c r="C474">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D474" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="475">
@@ -31686,10 +33072,10 @@
         <v>2025-12-17T06:33:10.560Z</v>
       </c>
       <c r="C475">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D475" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="476">
@@ -31700,10 +33086,10 @@
         <v>2025-12-17T06:33:31.917Z</v>
       </c>
       <c r="C476">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D476" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="477">
@@ -31714,10 +33100,10 @@
         <v>2025-12-17T06:33:31.917Z</v>
       </c>
       <c r="C477">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D477" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="478">
@@ -31728,10 +33114,10 @@
         <v>2025-12-17T06:33:31.917Z</v>
       </c>
       <c r="C478">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D478" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.586Z</v>
       </c>
     </row>
     <row r="479">
@@ -31742,10 +33128,10 @@
         <v>2025-12-17T06:35:26.957Z</v>
       </c>
       <c r="C479">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D479" t="str">
-        <v>2025-12-17T06:35:52.108Z</v>
+        <v>2025-12-27T08:00:19.587Z</v>
       </c>
     </row>
     <row r="480">
@@ -32854,9 +34240,457 @@
         <v>2025-12-22T00:33:16.536Z</v>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" t="str">
+        <v>ishitha.chauhan@hpcl.in</v>
+      </c>
+      <c r="B559" t="str">
+        <v>2025-12-26T15:29:55.496Z</v>
+      </c>
+      <c r="C559">
+        <v>1</v>
+      </c>
+      <c r="D559" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="str">
+        <v>gvsrkchirumamilla@hpcl.in</v>
+      </c>
+      <c r="B560" t="str">
+        <v>2025-12-26T15:34:31.172Z</v>
+      </c>
+      <c r="C560">
+        <v>1</v>
+      </c>
+      <c r="D560" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="str">
+        <v>prashanthp@hpcl.in</v>
+      </c>
+      <c r="B561" t="str">
+        <v>2025-12-26T15:34:31.172Z</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+      <c r="D561" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="str">
+        <v>abhishek.singh@hpcl.in</v>
+      </c>
+      <c r="B562" t="str">
+        <v>2025-12-26T15:34:31.172Z</v>
+      </c>
+      <c r="C562">
+        <v>1</v>
+      </c>
+      <c r="D562" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="str">
+        <v>ashutosh.mishra@hpcl.in</v>
+      </c>
+      <c r="B563" t="str">
+        <v>2025-12-26T15:34:31.172Z</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="str">
+        <v>harilalnenavath@hpcl.in</v>
+      </c>
+      <c r="B564" t="str">
+        <v>2025-12-26T15:34:31.172Z</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+      <c r="D564" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="str">
+        <v>sheela.chandragiri@hpcl.in</v>
+      </c>
+      <c r="B565" t="str">
+        <v>2025-12-26T15:34:31.172Z</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="str">
+        <v>akhil.pp@hpcl.in</v>
+      </c>
+      <c r="B566" t="str">
+        <v>2025-12-26T15:34:31.172Z</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+      <c r="D566" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="str">
+        <v>anilkumar@hpcl.in</v>
+      </c>
+      <c r="B567" t="str">
+        <v>2025-12-26T15:49:54.173Z</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="str">
+        <v>avskrk.murthy@hpcl.in</v>
+      </c>
+      <c r="B568" t="str">
+        <v>2025-12-26T16:04:12.533Z</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="str">
+        <v>himanshurana@hpcl.in</v>
+      </c>
+      <c r="B569" t="str">
+        <v>2025-12-26T16:04:56.209Z</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="str">
+        <v>nallapagari.reddy@hpcl.in</v>
+      </c>
+      <c r="B570" t="str">
+        <v>2025-12-26T16:16:46.731Z</v>
+      </c>
+      <c r="C570">
+        <v>1</v>
+      </c>
+      <c r="D570" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="str">
+        <v>favas.c@hpcl.in</v>
+      </c>
+      <c r="B571" t="str">
+        <v>2025-12-26T16:16:46.731Z</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="str">
+        <v>vipinsingh.panwar@hpcl.in</v>
+      </c>
+      <c r="B572" t="str">
+        <v>2025-12-26T16:29:39.919Z</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+      <c r="D572" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="str">
+        <v>madhuri.chukkala@hpcl.in</v>
+      </c>
+      <c r="B573" t="str">
+        <v>2025-12-26T16:37:54.322Z</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+      <c r="D573" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="str">
+        <v>abhishek.prasad@hpcl.in</v>
+      </c>
+      <c r="B574" t="str">
+        <v>2025-12-26T16:39:14.285Z</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+      <c r="D574" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="str">
+        <v>shivamjohri@hpcl.in</v>
+      </c>
+      <c r="B575" t="str">
+        <v>2025-12-26T16:49:47.454Z</v>
+      </c>
+      <c r="C575">
+        <v>1</v>
+      </c>
+      <c r="D575" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="str">
+        <v>dineshkumar2@hpcl.in</v>
+      </c>
+      <c r="B576" t="str">
+        <v>2025-12-26T16:49:47.454Z</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+      <c r="D576" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="str">
+        <v>yogesh.bharti@hpcl.in</v>
+      </c>
+      <c r="B577" t="str">
+        <v>2025-12-26T16:49:47.454Z</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+      <c r="D577" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="str">
+        <v>swetakumari1@hpcl.in</v>
+      </c>
+      <c r="B578" t="str">
+        <v>2025-12-26T16:50:05.981Z</v>
+      </c>
+      <c r="C578">
+        <v>1</v>
+      </c>
+      <c r="D578" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="str">
+        <v>alisha.madaan@hpcl.in</v>
+      </c>
+      <c r="B579" t="str">
+        <v>2025-12-26T16:50:05.981Z</v>
+      </c>
+      <c r="C579">
+        <v>1</v>
+      </c>
+      <c r="D579" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="str">
+        <v>rajksingh@hpcl.in</v>
+      </c>
+      <c r="B580" t="str">
+        <v>2025-12-26T16:57:11.367Z</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+      <c r="D580" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="str">
+        <v>ishaan.parmar@hpcl.in</v>
+      </c>
+      <c r="B581" t="str">
+        <v>2025-12-26T16:57:20.605Z</v>
+      </c>
+      <c r="C581">
+        <v>1</v>
+      </c>
+      <c r="D581" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="str">
+        <v>ravibollu@hpcl.in</v>
+      </c>
+      <c r="B582" t="str">
+        <v>2025-12-26T16:57:20.605Z</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+      <c r="D582" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="str">
+        <v>lokesh.kumar@hpcl.in</v>
+      </c>
+      <c r="B583" t="str">
+        <v>2025-12-26T17:00:03.437Z</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+      <c r="D583" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="str">
+        <v>anandhu.cs@hpcl.in</v>
+      </c>
+      <c r="B584" t="str">
+        <v>2025-12-27T07:39:45.881Z</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+      <c r="D584" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="str">
+        <v>rajatsinha@hpcl.in</v>
+      </c>
+      <c r="B585" t="str">
+        <v>2025-12-27T07:42:18.772Z</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+      <c r="D585" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="str">
+        <v>sadaveeras@hpcl.in</v>
+      </c>
+      <c r="B586" t="str">
+        <v>2025-12-27T07:43:17.442Z</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+      <c r="D586" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="str">
+        <v>obaiah@hpcl.in</v>
+      </c>
+      <c r="B587" t="str">
+        <v>2025-12-27T07:43:17.442Z</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+      <c r="D587" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="str">
+        <v>idshrikantkande@hpcl.in</v>
+      </c>
+      <c r="B588" t="str">
+        <v>2025-12-27T07:52:55.915Z</v>
+      </c>
+      <c r="C588">
+        <v>1</v>
+      </c>
+      <c r="D588" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="str">
+        <v>shrikantkande@hpcl.in</v>
+      </c>
+      <c r="B589" t="str">
+        <v>2025-12-27T07:52:55.915Z</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+      <c r="D589" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="str">
+        <v>shandil@hpcl.in</v>
+      </c>
+      <c r="B590" t="str">
+        <v>2025-12-27T07:53:22.568Z</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+      <c r="D590" t="str">
+        <v>2025-12-27T08:00:19.587Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D558"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D590"/>
   </ignoredErrors>
 </worksheet>
 </file>
